--- a/form-files/IMNCI/upto2mo.xlsx
+++ b/form-files/IMNCI/upto2mo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="623" count="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="627" count="873">
   <si>
     <t>comments</t>
   </si>
@@ -49,7 +49,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>choiceFilter</t>
+    <t>choice_filter</t>
   </si>
   <si>
     <t>constraint</t>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Measure axillary temperature:</t>
+  </si>
+  <si>
+    <t>Use celsius</t>
   </si>
   <si>
     <t>selected(data('axillary_temperature_possible'), 'no')</t>
@@ -603,10 +606,13 @@
     <t>स्तनपान करने वाले बच्चे मैं साधारण: ज़्यादा या पतले माल को दस्त नही कहते है. यदि माल सामान्य की अपेक्षा बदल गया हो और पानी की तरह पतला हो या बहुत बार आ रहा हो तो ही दस्त कहलाता है.</t>
   </si>
   <si>
+    <t>Disabling based off Manoj's comment that we should check all signs.</t>
+  </si>
+  <si>
     <t>goto diarrhoea_section_end</t>
   </si>
   <si>
-    <t>selected(data('has_diarrhoea'), 'no')</t>
+    <t>false &amp;&amp; selected(data('has_diarrhoea'), 'no')</t>
   </si>
   <si>
     <t>label has_diarrhoea</t>
@@ -621,9 +627,6 @@
     <t>ASK: Is there blood in the stool?</t>
   </si>
   <si>
-    <t>TODO: Maybe have select multiple symptoms list instead?</t>
-  </si>
-  <si>
     <t>शिशु की सामानया स्थिति देखें. </t>
   </si>
   <si>
@@ -642,6 +645,9 @@
     <t>equivalent(data('lethargic'), data('lethargic_2'))</t>
   </si>
   <si>
+    <t>You answered this question differently previously.</t>
+  </si>
+  <si>
     <t>restless</t>
   </si>
   <si>
@@ -681,7 +687,13 @@
     <t>calculates.severeDehydration() || calculates.someDehydration()</t>
   </si>
   <si>
+    <t>The no dehydration classification assumes the child has diarrhoea in its treatment. We might want to change that.</t>
+  </si>
+  <si>
     <t>goto no_dehydration</t>
+  </si>
+  <si>
+    <t>selected(data('has_diarrhoea'), 'yes')</t>
   </si>
   <si>
     <t>label dehydration</t>
@@ -891,7 +903,7 @@
     <t>ASK: Does the infant usually receive any foods or drinks other than breastmilk?</t>
   </si>
   <si>
-    <t>Adding per day</t>
+    <t>Adding per 24 hours</t>
   </si>
   <si>
     <t>selected(data('other_foods'), 'yes')</t>
@@ -1057,7 +1069,7 @@
     <t>Look and feel for breast problems:</t>
   </si>
   <si>
-    <t>Based on correspondence w/ Amy using 'is_infant_breastfed' for "Able to feed"</t>
+    <t>Based on correspondence w/ Amy using 'is_infant_breastfed' to determine "Able to feed"</t>
   </si>
   <si>
     <t>goto cannot_feed_possible_serious_bacterial_infection</t>
@@ -1333,7 +1345,7 @@
     <t>Which vaccinations has the child NOT received?</t>
   </si>
   <si>
-    <t>context.age_weeks &lt; Math.round(calculates.daysOld() / 7)</t>
+    <t>context.age_weeks &lt;= Math.round(calculates.daysOld() / 7)</t>
   </si>
   <si>
     <t>Added based on correspondence with Amy/Manoj</t>
@@ -1363,7 +1375,7 @@
     <t>daysOld</t>
   </si>
   <si>
-    <t>((new Date()).getTime() - new Date(data('birthday')).getTime()) / (1000 * 60 * 60 * 24)</t>
+    <t>now().getTime() - new Date(data('birthday')).getTime()) / (1000 * 60 * 60 * 24)</t>
   </si>
   <si>
     <t>severeDehydration</t>
@@ -2655,7 +2667,10 @@
       <c t="s" s="13" r="G18">
         <v>75</v>
       </c>
-      <c s="7" r="H18"/>
+      <c t="s" s="7" r="H18">
+        <v>76</v>
+      </c>
+      <c s="11" r="I18"/>
       <c t="b" r="K18">
         <v>1</v>
       </c>
@@ -2677,7 +2692,7 @@
         <v>54</v>
       </c>
       <c t="s" r="C20">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="13" r="D20"/>
       <c s="7" r="E20"/>
@@ -2691,14 +2706,14 @@
         <v>55</v>
       </c>
       <c t="s" s="13" r="D21">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="7" r="E21"/>
       <c t="s" s="7" r="F21">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" s="13" r="G21">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="7" r="H21"/>
     </row>
@@ -2708,17 +2723,17 @@
         <v>55</v>
       </c>
       <c t="s" r="C22">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" s="13" r="D22">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="7" r="E22"/>
       <c t="s" s="7" r="F22">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" s="13" r="G22">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="7" r="H22"/>
     </row>
@@ -2737,14 +2752,14 @@
         <v>41</v>
       </c>
       <c t="s" s="13" r="D24">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="7" r="E24"/>
       <c t="s" s="7" r="F24">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" s="13" r="G24">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="7" r="H24"/>
       <c t="b" r="K24">
@@ -2757,14 +2772,14 @@
         <v>41</v>
       </c>
       <c t="s" s="13" r="D25">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="7" r="E25"/>
       <c t="s" s="7" r="F25">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" s="13" r="G25">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="7" r="H25"/>
       <c t="b" r="K25">
@@ -2777,14 +2792,14 @@
         <v>41</v>
       </c>
       <c t="s" s="13" r="D26">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="7" r="E26"/>
       <c t="s" s="7" r="F26">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" s="13" r="G26">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="7" r="H26"/>
       <c t="b" r="K26">
@@ -2797,14 +2812,14 @@
         <v>41</v>
       </c>
       <c t="s" s="13" r="D27">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="7" r="E27"/>
       <c t="s" s="7" r="F27">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" s="13" r="G27">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="7" r="H27"/>
       <c t="b" r="K27">
@@ -2823,14 +2838,14 @@
         <v>41</v>
       </c>
       <c t="s" s="13" r="D28">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="7" r="E28"/>
       <c t="s" s="7" r="F28">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" s="13" r="G28">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="7" r="H28"/>
       <c t="b" r="K28">
@@ -2846,10 +2861,10 @@
     <row ht="32.25" r="29" customHeight="1">
       <c s="16" r="A29"/>
       <c t="s" s="15" r="B29">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" s="15" r="C29">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="15" r="D29"/>
       <c s="15" r="G29"/>
@@ -2860,10 +2875,10 @@
     <row ht="32.25" r="30" customHeight="1">
       <c s="16" r="A30"/>
       <c t="s" s="15" r="B30">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" s="15" r="C30">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="13" r="D30"/>
       <c s="13" r="G30"/>
@@ -2880,10 +2895,10 @@
     <row ht="32.25" r="31" customHeight="1">
       <c s="16" r="A31"/>
       <c t="s" s="15" r="B31">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" s="15" r="C31">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="13" r="D31"/>
       <c s="13" r="G31"/>
@@ -2900,10 +2915,10 @@
     <row ht="32.25" r="32" customHeight="1">
       <c s="16" r="A32"/>
       <c t="s" s="15" r="B32">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C32">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="13" r="D32"/>
       <c s="7" r="E32"/>
@@ -2920,10 +2935,10 @@
     <row ht="32.25" r="33" customHeight="1">
       <c s="16" r="A33"/>
       <c t="s" s="15" r="B33">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C33">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="13" r="D33"/>
       <c s="13" r="G33"/>
@@ -2938,10 +2953,10 @@
     <row ht="36.0" r="34" customHeight="1">
       <c s="16" r="A34"/>
       <c t="s" s="15" r="B34">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C34">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="13" r="D34"/>
       <c s="13" r="G34"/>
@@ -2956,10 +2971,10 @@
     <row ht="32.25" r="35" customHeight="1">
       <c s="16" r="A35"/>
       <c t="s" s="15" r="B35">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C35">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="13" r="D35"/>
       <c s="13" r="G35"/>
@@ -2974,10 +2989,10 @@
     <row ht="32.25" r="36" customHeight="1">
       <c s="16" r="A36"/>
       <c t="s" s="15" r="B36">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C36">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="13" r="D36"/>
       <c s="13" r="G36"/>
@@ -2992,10 +3007,10 @@
     <row ht="32.25" r="37" customHeight="1">
       <c s="16" r="A37"/>
       <c t="s" s="15" r="B37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C37">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="13" r="D37"/>
       <c s="13" r="G37"/>
@@ -3010,10 +3025,10 @@
     <row ht="32.25" r="38" customHeight="1">
       <c s="16" r="A38"/>
       <c t="s" s="15" r="B38">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C38">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="13" r="D38"/>
       <c s="13" r="G38"/>
@@ -3028,10 +3043,10 @@
     <row ht="32.25" r="39" customHeight="1">
       <c s="16" r="A39"/>
       <c t="s" s="15" r="B39">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="C39">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="13" r="D39"/>
       <c s="13" r="G39"/>
@@ -3046,10 +3061,10 @@
     <row ht="32.25" r="40" customHeight="1">
       <c s="16" r="A40"/>
       <c t="s" s="15" r="B40">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="C40">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="13" r="D40"/>
       <c s="13" r="G40"/>
@@ -3064,10 +3079,10 @@
     <row ht="32.25" r="41" customHeight="1">
       <c s="16" r="A41"/>
       <c t="s" s="15" r="B41">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="C41">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="13" r="D41"/>
       <c s="13" r="G41"/>
@@ -3082,7 +3097,7 @@
     <row ht="32.25" r="42" customHeight="1">
       <c s="16" r="A42"/>
       <c t="s" s="15" r="B42">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="13" r="D42"/>
       <c s="13" r="G42"/>
@@ -3096,7 +3111,7 @@
     <row ht="32.25" r="43" customHeight="1">
       <c s="16" r="A43"/>
       <c t="s" s="2" r="B43">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="13" r="C43"/>
       <c s="13" r="D43"/>
@@ -3106,11 +3121,11 @@
     <row ht="32.25" r="44" customHeight="1">
       <c s="16" r="A44"/>
       <c t="s" s="15" r="B44">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C44"/>
       <c t="s" s="15" r="D44">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="b" r="E44">
         <v>1</v>
@@ -3134,16 +3149,16 @@
         <v>37</v>
       </c>
       <c t="s" r="F46">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="G46">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="H46">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="I46">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row ht="32.25" r="47" customHeight="1">
@@ -3152,13 +3167,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="H47">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="I47">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row ht="32.25" r="48" customHeight="1">
@@ -3167,13 +3182,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="H48">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="I48">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="32.25" r="49" customHeight="1">
@@ -3182,13 +3197,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C49">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="H49">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="I49">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row ht="32.25" r="50" customHeight="1">
@@ -3197,13 +3212,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C50">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="H50">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" s="7" r="I50">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row ht="32.25" r="51" customHeight="1">
@@ -3212,13 +3227,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C51">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="H51">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="I51">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row ht="32.25" r="52" customHeight="1">
@@ -3227,13 +3242,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="H52">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" s="7" r="I52">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row ht="32.25" r="53" customHeight="1">
@@ -3242,13 +3257,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C53">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="H53">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="I53">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row ht="32.25" r="54" customHeight="1">
@@ -3257,13 +3272,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C54">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="H54">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="I54">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row ht="32.25" r="55" customHeight="1">
@@ -3272,13 +3287,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C55">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="H55">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="I55">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row ht="32.25" r="56" customHeight="1">
@@ -3287,13 +3302,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C56">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="H56">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="I56">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row ht="32.25" r="57" customHeight="1">
@@ -3302,13 +3317,13 @@
         <v>37</v>
       </c>
       <c t="s" r="C57">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="H57">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="I57">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row ht="32.25" r="58" customHeight="1">
@@ -3317,27 +3332,27 @@
         <v>37</v>
       </c>
       <c t="s" s="12" r="F58">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="G58">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row ht="32.25" r="59" customHeight="1">
       <c t="s" s="16" r="A59">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" s="13" r="B59">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="D59">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="F59">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" s="7" r="G59">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="13" r="J59"/>
       <c t="b" r="K59">
@@ -3347,16 +3362,16 @@
     <row ht="32.25" r="60" customHeight="1">
       <c s="16" r="A60"/>
       <c t="s" s="13" r="B60">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="D60">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="F60">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" s="7" r="G60">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="13" r="J60"/>
       <c t="b" r="K60">
@@ -3366,16 +3381,16 @@
     <row ht="32.25" r="61" customHeight="1">
       <c s="16" r="A61"/>
       <c t="s" s="13" r="B61">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="D61">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="F61">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" s="7" r="G61">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="13" r="J61"/>
       <c t="b" r="K61">
@@ -3385,16 +3400,16 @@
     <row ht="32.25" r="62" customHeight="1">
       <c s="16" r="A62"/>
       <c t="s" s="13" r="B62">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="D62">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="F62">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" s="7" r="G62">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="13" r="J62"/>
       <c t="b" r="K62">
@@ -3408,7 +3423,7 @@
       </c>
       <c s="17" r="C63"/>
       <c t="s" s="17" r="D63">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="17" r="G63"/>
       <c s="17" r="J63"/>
@@ -3416,7 +3431,7 @@
     <row ht="32.25" r="64" customHeight="1">
       <c s="16" r="A64"/>
       <c t="s" s="15" r="B64">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="15" r="C64"/>
       <c s="15" r="D64"/>
@@ -3426,7 +3441,7 @@
     <row ht="32.25" r="65" customHeight="1">
       <c s="16" r="A65"/>
       <c t="s" s="2" r="B65">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="13" r="C65"/>
       <c s="13" r="D65"/>
@@ -3439,11 +3454,11 @@
     <row ht="32.25" r="66" customHeight="1">
       <c s="16" r="A66"/>
       <c t="s" s="15" r="B66">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C66"/>
       <c t="s" s="15" r="D66">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="b" r="E66">
         <v>1</v>
@@ -3467,19 +3482,19 @@
       </c>
       <c s="15" r="C68"/>
       <c t="s" s="17" r="D68">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="F68">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="G68">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="H68">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="I68">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="15" r="J68"/>
     </row>
@@ -3489,14 +3504,14 @@
         <v>37</v>
       </c>
       <c t="s" r="C69">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="15" r="D69"/>
       <c t="s" r="H69">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" s="7" r="I69">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="15" r="J69"/>
     </row>
@@ -3506,32 +3521,32 @@
         <v>37</v>
       </c>
       <c t="s" r="C70">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="15" r="D70"/>
       <c t="s" r="H70">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" s="7" r="I70">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="15" r="J70"/>
     </row>
     <row ht="32.25" r="71" customHeight="1">
       <c t="s" s="16" r="A71">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" s="13" r="B71">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="D71">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="F71">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" s="7" r="G71">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="13" r="J71"/>
       <c t="b" r="K71">
@@ -3540,19 +3555,19 @@
     </row>
     <row ht="32.25" r="72" customHeight="1">
       <c t="s" s="16" r="A72">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" s="13" r="B72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="D72">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="F72">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" s="7" r="G72">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="13" r="J72"/>
       <c t="b" r="K72">
@@ -3562,16 +3577,16 @@
     <row ht="32.25" r="73" customHeight="1">
       <c s="16" r="A73"/>
       <c t="s" s="13" r="B73">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="D73">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="F73">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" s="7" r="G73">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="13" r="J73"/>
       <c t="b" r="K73">
@@ -3585,7 +3600,7 @@
       </c>
       <c s="17" r="C74"/>
       <c t="s" s="17" r="D74">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="17" r="G74"/>
       <c s="17" r="J74"/>
@@ -3596,27 +3611,27 @@
     <row ht="32.25" r="75" customHeight="1">
       <c s="16" r="A75"/>
       <c t="s" s="15" r="B75">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="15" r="G75"/>
     </row>
     <row ht="32.25" r="76" customHeight="1">
       <c t="s" s="16" r="A76">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" s="2" r="B76">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="15" r="G76"/>
     </row>
     <row ht="32.25" r="77" customHeight="1">
       <c s="16" r="A77"/>
       <c t="s" s="15" r="B77">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C77"/>
       <c t="s" s="15" r="D77">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="b" r="E77">
         <v>1</v>
@@ -3630,30 +3645,30 @@
         <v>37</v>
       </c>
       <c t="s" r="F78">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="G78">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row ht="32.25" r="79" customHeight="1">
       <c s="16" r="A79"/>
       <c t="s" s="15" r="B79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="15" r="G79"/>
     </row>
     <row ht="32.25" r="80" customHeight="1">
       <c s="16" r="A80"/>
       <c t="s" s="3" r="B80">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="15" r="G80"/>
     </row>
     <row ht="32.25" r="81" customHeight="1">
       <c s="16" r="A81"/>
       <c t="s" s="2" r="B81">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="13" r="G81"/>
       <c t="b" r="K81">
@@ -3672,20 +3687,20 @@
         <v>41</v>
       </c>
       <c t="s" s="13" r="D82">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="7" r="E82"/>
       <c t="s" s="7" r="F82">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" s="13" r="G82">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" s="7" r="H82">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="I82">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="b" r="K82">
         <v>1</v>
@@ -3698,12 +3713,14 @@
       <c s="12" r="Q82"/>
     </row>
     <row ht="32.25" r="83" customHeight="1">
-      <c s="16" r="A83"/>
+      <c t="s" s="16" r="A83">
+        <v>195</v>
+      </c>
       <c t="s" s="15" r="B83">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" s="13" r="C83">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c s="13" r="D83"/>
       <c s="13" r="G83"/>
@@ -3721,7 +3738,7 @@
     <row ht="32.25" r="84" customHeight="1">
       <c s="16" r="A84"/>
       <c t="s" s="2" r="B84">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c s="13" r="G84"/>
       <c t="b" r="K84">
@@ -3740,13 +3757,13 @@
         <v>41</v>
       </c>
       <c t="s" s="13" r="D85">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="F85">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" s="13" r="G85">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="b" r="K85">
         <v>1</v>
@@ -3775,18 +3792,16 @@
       <c s="12" r="Q86"/>
     </row>
     <row ht="32.25" r="87" customHeight="1">
-      <c t="s" s="16" r="A87">
-        <v>200</v>
-      </c>
+      <c s="16" r="A87"/>
       <c t="s" s="15" r="B87">
         <v>37</v>
       </c>
       <c s="15" r="D87"/>
       <c t="s" r="F87">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" s="13" r="G87">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="12" r="L87"/>
       <c s="12" r="M87"/>
@@ -3801,23 +3816,25 @@
         <v>41</v>
       </c>
       <c t="s" r="D88">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="F88">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" s="15" r="G88">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="b" r="K88">
         <v>1</v>
       </c>
       <c s="12" r="L88"/>
       <c t="s" s="12" r="M88">
-        <v>206</v>
-      </c>
-      <c s="12" r="N88"/>
-      <c s="12" r="O88"/>
+        <v>207</v>
+      </c>
+      <c t="s" s="12" r="N88">
+        <v>208</v>
+      </c>
+      <c s="11" r="O88"/>
       <c s="12" r="P88"/>
       <c s="12" r="Q88"/>
     </row>
@@ -3827,13 +3844,13 @@
         <v>41</v>
       </c>
       <c t="s" r="D89">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="F89">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" s="15" r="G89">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="b" r="K89">
         <v>1</v>
@@ -3863,8 +3880,22 @@
     </row>
     <row ht="32.25" r="91" customHeight="1">
       <c s="16" r="A91"/>
-      <c s="15" r="B91"/>
+      <c t="s" s="15" r="B91">
+        <v>41</v>
+      </c>
+      <c t="s" s="15" r="D91">
+        <v>212</v>
+      </c>
+      <c t="s" r="F91">
+        <v>213</v>
+      </c>
+      <c t="s" r="G91">
+        <v>214</v>
+      </c>
       <c s="7" r="H91"/>
+      <c t="b" r="K91">
+        <v>1</v>
+      </c>
       <c s="12" r="L91"/>
       <c s="12" r="M91"/>
       <c s="12" r="N91"/>
@@ -3875,16 +3906,16 @@
     <row ht="32.25" r="92" customHeight="1">
       <c s="16" r="A92"/>
       <c t="s" s="15" r="B92">
-        <v>41</v>
-      </c>
-      <c t="s" s="15" r="D92">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c t="s" s="13" r="D92">
+        <v>216</v>
       </c>
       <c t="s" r="F92">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="G92">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c s="7" r="H92"/>
       <c t="b" r="K92">
@@ -3896,42 +3927,31 @@
       <c s="12" r="O92"/>
       <c s="12" r="P92"/>
       <c s="12" r="Q92"/>
+      <c t="s" r="R92">
+        <v>219</v>
+      </c>
     </row>
     <row ht="32.25" r="93" customHeight="1">
       <c s="16" r="A93"/>
       <c t="s" s="15" r="B93">
-        <v>213</v>
-      </c>
-      <c t="s" s="13" r="D93">
-        <v>214</v>
-      </c>
-      <c t="s" r="F93">
-        <v>215</v>
-      </c>
-      <c t="s" r="G93">
-        <v>216</v>
-      </c>
-      <c s="7" r="H93"/>
+        <v>220</v>
+      </c>
+      <c t="s" s="13" r="C93">
+        <v>221</v>
+      </c>
       <c t="b" r="K93">
         <v>1</v>
       </c>
-      <c s="12" r="L93"/>
-      <c s="12" r="M93"/>
-      <c s="12" r="N93"/>
-      <c s="12" r="O93"/>
-      <c s="12" r="P93"/>
-      <c s="12" r="Q93"/>
-      <c t="s" r="R93">
-        <v>217</v>
-      </c>
     </row>
     <row ht="32.25" r="94" customHeight="1">
-      <c s="16" r="A94"/>
+      <c t="s" s="16" r="A94">
+        <v>222</v>
+      </c>
       <c t="s" s="15" r="B94">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c t="s" s="13" r="C94">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c t="b" r="K94">
         <v>1</v>
@@ -3940,17 +3960,14 @@
     <row ht="32.25" r="95" customHeight="1">
       <c s="16" r="A95"/>
       <c t="s" s="15" r="B95">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c s="13" r="C95"/>
-      <c t="b" r="K95">
-        <v>1</v>
-      </c>
     </row>
     <row ht="32.25" r="96" customHeight="1">
       <c s="16" r="A96"/>
       <c t="s" s="2" r="B96">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c s="13" r="C96"/>
       <c s="13" r="D96"/>
@@ -3963,11 +3980,11 @@
     <row ht="32.25" r="97" customHeight="1">
       <c s="16" r="A97"/>
       <c t="s" s="15" r="B97">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C97"/>
       <c t="s" s="15" r="D97">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c t="b" r="E97">
         <v>1</v>
@@ -3981,20 +3998,20 @@
         <v>37</v>
       </c>
       <c t="s" s="13" r="C98">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c s="15" r="D98"/>
       <c t="s" r="F98">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c t="s" r="G98">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c t="s" r="H98">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="I98">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c s="15" r="J98"/>
       <c t="b" r="K98">
@@ -4004,11 +4021,11 @@
     <row ht="32.25" r="99" customHeight="1">
       <c s="16" r="A99"/>
       <c t="s" s="15" r="B99">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C99"/>
       <c t="s" s="15" r="D99">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c t="b" r="E99">
         <v>1</v>
@@ -4022,20 +4039,20 @@
         <v>37</v>
       </c>
       <c t="s" s="13" r="C100">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c s="15" r="D100"/>
       <c t="s" r="F100">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="G100">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c t="s" r="H100">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c t="s" r="I100">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c s="15" r="J100"/>
       <c t="b" r="K100">
@@ -4051,16 +4068,16 @@
     <row ht="32.25" r="102" customHeight="1">
       <c s="16" r="A102"/>
       <c t="s" r="B102">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D102">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c t="s" r="F102">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c t="s" r="G102">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c t="b" r="K102">
         <v>1</v>
@@ -4069,16 +4086,16 @@
     <row ht="32.25" r="103" customHeight="1">
       <c s="16" r="A103"/>
       <c t="s" r="B103">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D103">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="F103">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c t="s" r="G103">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="b" r="K103">
         <v>1</v>
@@ -4087,16 +4104,16 @@
     <row ht="32.25" r="104" customHeight="1">
       <c s="16" r="A104"/>
       <c t="s" r="B104">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D104">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="F104">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c t="s" r="G104">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c t="b" r="K104">
         <v>1</v>
@@ -4105,16 +4122,16 @@
     <row ht="32.25" r="105" customHeight="1">
       <c s="16" r="A105"/>
       <c t="s" r="B105">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D105">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c t="s" r="F105">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="G105">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="b" r="K105">
         <v>1</v>
@@ -4129,7 +4146,7 @@
     <row ht="32.25" r="107" customHeight="1">
       <c s="16" r="A107"/>
       <c t="s" r="B107">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c t="b" r="K107">
         <v>1</v>
@@ -4138,7 +4155,7 @@
     <row ht="32.25" r="108" customHeight="1">
       <c s="16" r="A108"/>
       <c t="s" s="2" r="B108">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c s="13" r="C108"/>
       <c s="13" r="D108"/>
@@ -4151,11 +4168,11 @@
     <row ht="32.25" r="109" customHeight="1">
       <c s="16" r="A109"/>
       <c t="s" s="15" r="B109">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C109"/>
       <c t="s" s="15" r="D109">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="b" r="E109">
         <v>1</v>
@@ -4180,16 +4197,16 @@
       <c s="13" r="C111"/>
       <c s="15" r="D111"/>
       <c t="s" r="F111">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c t="s" r="G111">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="H111">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c t="s" r="I111">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c s="15" r="J111"/>
       <c t="b" r="K111">
@@ -4199,17 +4216,17 @@
     <row ht="32.25" r="112" customHeight="1">
       <c s="16" r="A112"/>
       <c t="s" r="B112">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="13" r="C112"/>
       <c t="s" r="D112">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c t="s" s="12" r="F112">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c t="s" r="G112">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c t="b" r="K112">
         <v>1</v>
@@ -4224,7 +4241,7 @@
     <row ht="32.25" r="114" customHeight="1">
       <c s="16" r="A114"/>
       <c t="s" s="11" r="B114">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c t="b" r="K114">
         <v>1</v>
@@ -4233,7 +4250,7 @@
     <row ht="32.25" r="115" customHeight="1">
       <c s="16" r="A115"/>
       <c t="s" s="8" r="B115">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c t="b" r="K115">
         <v>1</v>
@@ -4242,11 +4259,11 @@
     <row ht="32.25" r="116" customHeight="1">
       <c s="16" r="A116"/>
       <c t="s" s="15" r="B116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C116"/>
       <c t="s" s="15" r="D116">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c t="b" r="E116">
         <v>1</v>
@@ -4260,7 +4277,7 @@
         <v>54</v>
       </c>
       <c t="s" r="C117">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row ht="32.25" r="118" customHeight="1">
@@ -4271,16 +4288,16 @@
       <c s="13" r="C118"/>
       <c s="15" r="D118"/>
       <c t="s" s="12" r="F118">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c t="s" r="G118">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="H118">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c t="s" r="I118">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c s="15" r="J118"/>
       <c t="b" r="K118">
@@ -4289,66 +4306,66 @@
     </row>
     <row ht="32.25" r="119" customHeight="1">
       <c t="s" s="16" r="A119">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="B119">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D119">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c t="s" r="F119">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c t="s" r="G119">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row ht="32.25" r="120" customHeight="1">
       <c s="16" r="A120"/>
       <c t="s" r="B120">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D120">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="F120">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c t="s" r="G120">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row ht="32.25" r="121" customHeight="1">
       <c s="16" r="A121"/>
       <c t="s" r="B121">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D121">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="F121">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c t="s" r="G121">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row ht="32.25" r="122" customHeight="1">
       <c t="s" s="16" r="A122">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c t="s" r="B122">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D122">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c t="s" r="F122">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="G122">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="b" r="K122">
         <v>1</v>
@@ -4363,13 +4380,13 @@
     <row ht="32.25" r="124" customHeight="1">
       <c s="16" r="A124"/>
       <c t="s" s="11" r="B124">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row ht="32.25" r="125" customHeight="1">
       <c s="16" r="A125"/>
       <c t="s" s="8" r="B125">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c t="b" r="K125">
         <v>1</v>
@@ -4381,13 +4398,13 @@
         <v>41</v>
       </c>
       <c t="s" r="D126">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="F126">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="G126">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c t="b" r="K126">
         <v>1</v>
@@ -4399,13 +4416,13 @@
         <v>41</v>
       </c>
       <c t="s" r="D127">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c t="s" s="7" r="F127">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="G127">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c t="b" r="K127">
         <v>1</v>
@@ -4417,16 +4434,16 @@
         <v>45</v>
       </c>
       <c t="s" r="C128">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c t="s" r="D128">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c t="s" s="7" r="F128">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c t="s" r="G128">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row ht="32.25" r="129" customHeight="1">
@@ -4442,13 +4459,13 @@
         <v>41</v>
       </c>
       <c t="s" r="D130">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c t="s" s="5" r="F130">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c t="s" r="G130">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c t="b" r="K130">
         <v>1</v>
@@ -4456,22 +4473,22 @@
     </row>
     <row ht="32.25" r="131" customHeight="1">
       <c t="s" s="16" r="A131">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c t="s" s="15" r="B131">
         <v>45</v>
       </c>
       <c t="s" r="C131">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c t="s" r="D131">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c t="s" s="10" r="F131">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c t="s" r="G131">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row ht="32.25" r="132" customHeight="1">
@@ -4483,36 +4500,36 @@
     </row>
     <row ht="32.25" r="133" customHeight="1">
       <c t="s" s="16" r="A133">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c t="s" s="15" r="B133">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c t="s" r="D133">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c t="s" s="5" r="F133">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c t="s" r="G133">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row ht="32.25" r="134" customHeight="1">
       <c t="s" s="16" r="A134">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c t="s" s="15" r="B134">
         <v>41</v>
       </c>
       <c t="s" r="D134">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c t="s" r="F134">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="G134">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c t="b" r="K134">
         <v>1</v>
@@ -4520,7 +4537,7 @@
     </row>
     <row ht="32.25" r="135" customHeight="1">
       <c t="s" s="16" r="A135">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c t="s" r="B135">
         <v>41</v>
@@ -4529,50 +4546,50 @@
         <v>0</v>
       </c>
       <c t="s" r="D135">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c t="s" r="F135">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c t="s" r="G135">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row ht="32.25" r="136" customHeight="1">
       <c s="16" r="A136"/>
       <c t="s" r="B136">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c t="s" r="C136">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c s="7" r="F136"/>
     </row>
     <row ht="32.25" r="137" customHeight="1">
       <c s="16" r="A137"/>
       <c t="s" r="B137">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c t="s" r="C137">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c s="7" r="F137"/>
     </row>
     <row ht="32.25" r="138" customHeight="1">
       <c t="s" s="16" r="A138">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c t="s" r="B138">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="D138">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c t="s" r="F138">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c t="s" r="G138">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c t="b" r="K138">
         <v>1</v>
@@ -4590,37 +4607,37 @@
         <v>41</v>
       </c>
       <c t="s" r="D140">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c t="s" r="F140">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c t="s" r="G140">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row ht="32.25" r="141" customHeight="1">
       <c s="16" r="A141"/>
       <c t="s" s="13" r="B141">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c t="s" s="13" r="C141">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c t="s" s="13" r="D141">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c t="s" r="F141">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c t="s" s="7" r="G141">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c t="s" s="7" r="H141">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c t="s" s="7" r="I141">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c s="13" r="J141"/>
       <c s="12" r="L141"/>
@@ -4651,23 +4668,23 @@
     <row ht="32.25" r="143" customHeight="1">
       <c s="16" r="A143"/>
       <c t="s" s="13" r="B143">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c s="13" r="C143"/>
       <c t="s" s="15" r="D143">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" r="F143">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c t="s" s="7" r="G143">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c t="s" s="7" r="H143">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c t="s" s="5" r="I143">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c s="15" r="J143"/>
       <c t="b" r="K143">
@@ -4683,7 +4700,7 @@
     <row ht="32.25" r="144" customHeight="1">
       <c s="16" r="A144"/>
       <c t="s" s="2" r="B144">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c s="15" r="C144"/>
       <c s="15" r="D144"/>
@@ -4700,20 +4717,20 @@
     </row>
     <row ht="32.25" r="145" customHeight="1">
       <c t="s" s="16" r="A145">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c t="s" s="15" r="B145">
         <v>55</v>
       </c>
       <c s="15" r="C145"/>
       <c t="s" s="15" r="D145">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c t="s" r="F145">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c t="s" s="15" r="G145">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c s="7" r="H145"/>
       <c s="5" r="I145"/>
@@ -4734,13 +4751,13 @@
         <v>41</v>
       </c>
       <c t="s" r="D146">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c t="s" r="F146">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c t="s" r="G146">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c t="b" r="K146">
         <v>1</v>
@@ -4748,33 +4765,33 @@
     </row>
     <row ht="32.25" r="147" customHeight="1">
       <c t="s" s="16" r="A147">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c t="s" s="15" r="B147">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c t="s" r="C147">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c t="s" r="D147">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c t="s" r="F147">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c t="s" r="G147">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row ht="32.25" r="148" customHeight="1">
       <c t="s" s="16" r="A148">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c t="s" s="15" r="B148">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c t="s" s="13" r="C148">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c s="15" r="D148"/>
       <c s="15" r="G148"/>
@@ -4794,10 +4811,10 @@
     <row ht="32.25" r="149" customHeight="1">
       <c s="16" r="A149"/>
       <c t="s" s="15" r="B149">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c t="s" s="13" r="C149">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c s="15" r="D149"/>
       <c s="5" r="E149"/>
@@ -4819,11 +4836,11 @@
     <row ht="32.25" r="150" customHeight="1">
       <c s="16" r="A150"/>
       <c t="s" s="15" r="B150">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C150"/>
       <c t="s" s="15" r="D150">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c t="b" r="E150">
         <v>1</v>
@@ -4858,16 +4875,16 @@
       <c s="15" r="C152"/>
       <c s="15" r="D152"/>
       <c t="s" r="F152">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c t="s" r="G152">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c t="s" s="7" r="H152">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c t="s" s="5" r="I152">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c s="15" r="J152"/>
       <c t="b" r="K152">
@@ -4883,17 +4900,17 @@
     <row ht="32.25" r="153" customHeight="1">
       <c s="16" r="A153"/>
       <c t="s" s="13" r="B153">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="15" r="C153"/>
       <c t="s" s="15" r="D153">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c t="s" r="F153">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c t="s" r="G153">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c s="15" r="J153"/>
       <c s="12" r="L153"/>
@@ -4906,17 +4923,17 @@
     <row ht="32.25" r="154" customHeight="1">
       <c s="16" r="A154"/>
       <c t="s" s="13" r="B154">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="13" r="C154"/>
       <c t="s" s="13" r="D154">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c t="s" r="F154">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c t="s" s="7" r="G154">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c s="13" r="J154"/>
       <c t="b" r="K154">
@@ -4950,7 +4967,7 @@
     <row ht="32.25" r="156" customHeight="1">
       <c s="16" r="A156"/>
       <c t="s" s="13" r="B156">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c s="13" r="C156"/>
       <c s="13" r="D156"/>
@@ -4973,7 +4990,7 @@
     <row ht="32.25" r="157" customHeight="1">
       <c s="16" r="A157"/>
       <c t="s" s="2" r="B157">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c s="13" r="C157"/>
       <c s="13" r="D157"/>
@@ -4996,11 +5013,11 @@
     <row ht="32.25" r="158" customHeight="1">
       <c s="16" r="A158"/>
       <c t="s" s="15" r="B158">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C158"/>
       <c t="s" s="15" r="D158">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c t="b" r="E158">
         <v>1</v>
@@ -5036,10 +5053,10 @@
       <c s="15" r="D160"/>
       <c s="5" r="E160"/>
       <c t="s" s="7" r="F160">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c t="s" r="G160">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c s="7" r="H160"/>
       <c s="5" r="I160"/>
@@ -5054,7 +5071,7 @@
       <c s="12" r="P160"/>
       <c s="12" r="Q160"/>
       <c t="s" r="R160">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row ht="32.25" r="161" customHeight="1">
@@ -5063,16 +5080,16 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C161">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c s="15" r="D161"/>
       <c s="5" r="E161"/>
       <c s="7" r="F161"/>
       <c t="s" r="H161">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c t="s" r="I161">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c s="15" r="J161"/>
       <c s="12" r="L161"/>
@@ -5088,16 +5105,16 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C162">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c s="15" r="D162"/>
       <c s="5" r="E162"/>
       <c s="7" r="F162"/>
       <c t="s" r="H162">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c t="s" r="I162">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c s="15" r="J162"/>
       <c s="12" r="L162"/>
@@ -5113,16 +5130,16 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C163">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c s="15" r="D163"/>
       <c s="5" r="E163"/>
       <c s="7" r="F163"/>
       <c t="s" r="H163">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c t="s" r="I163">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c s="15" r="J163"/>
       <c s="12" r="L163"/>
@@ -5138,16 +5155,16 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C164">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c s="15" r="D164"/>
       <c s="5" r="E164"/>
       <c s="7" r="F164"/>
       <c t="s" r="H164">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c t="s" r="I164">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c s="15" r="J164"/>
       <c s="12" r="L164"/>
@@ -5163,16 +5180,16 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C165">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c s="15" r="D165"/>
       <c s="5" r="E165"/>
       <c s="7" r="F165"/>
       <c t="s" r="H165">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c t="s" r="I165">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c s="15" r="J165"/>
       <c s="12" r="L165"/>
@@ -5184,23 +5201,23 @@
     </row>
     <row ht="32.25" r="166" customHeight="1">
       <c t="s" s="16" r="A166">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c t="s" s="13" r="B166">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="C166">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c t="s" s="13" r="D166">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c s="7" r="E166"/>
       <c t="s" s="7" r="F166">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c t="s" s="7" r="G166">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c s="13" r="J166"/>
       <c t="b" r="K166">
@@ -5216,20 +5233,20 @@
     <row ht="32.25" r="167" customHeight="1">
       <c s="16" r="A167"/>
       <c t="s" s="13" r="B167">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="C167">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c t="s" s="13" r="D167">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c s="7" r="E167"/>
       <c t="s" s="7" r="F167">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c t="s" s="7" r="G167">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c s="13" r="J167"/>
       <c t="b" r="K167">
@@ -5245,19 +5262,19 @@
     <row ht="32.25" r="168" customHeight="1">
       <c s="16" r="A168"/>
       <c t="s" s="13" r="B168">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="C168">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c t="s" s="13" r="D168">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c t="s" r="F168">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c t="s" s="7" r="G168">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c s="13" r="J168"/>
       <c s="12" r="L168"/>
@@ -5269,22 +5286,22 @@
     </row>
     <row ht="32.25" r="169" customHeight="1">
       <c t="s" s="16" r="A169">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c t="s" s="13" r="B169">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="C169">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c t="s" s="13" r="D169">
+        <v>393</v>
+      </c>
+      <c t="s" r="F169">
         <v>389</v>
       </c>
-      <c t="s" r="F169">
-        <v>385</v>
-      </c>
       <c t="s" s="7" r="G169">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c s="13" r="J169"/>
       <c t="b" r="K169">
@@ -5300,20 +5317,20 @@
     <row ht="32.25" r="170" customHeight="1">
       <c s="16" r="A170"/>
       <c t="s" s="13" r="B170">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="C170">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c t="s" s="13" r="D170">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c s="12" r="E170"/>
       <c t="s" s="12" r="F170">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c t="s" s="7" r="G170">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c s="13" r="J170"/>
       <c t="b" r="K170">
@@ -5328,23 +5345,23 @@
     </row>
     <row ht="32.25" r="171" customHeight="1">
       <c t="s" s="16" r="A171">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c t="s" s="13" r="B171">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="C171">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c t="s" s="13" r="D171">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c s="12" r="E171"/>
       <c t="s" s="12" r="F171">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c t="s" s="7" r="G171">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c s="13" r="J171"/>
       <c t="b" r="K171">
@@ -5360,23 +5377,23 @@
     <row ht="32.25" r="172" customHeight="1">
       <c s="16" r="A172"/>
       <c t="s" s="13" r="B172">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="13" r="C172"/>
       <c t="s" s="13" r="D172">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c t="s" r="F172">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c t="s" s="7" r="G172">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c t="s" r="H172">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c t="s" r="I172">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c s="13" r="J172"/>
       <c t="b" r="K172">
@@ -5392,18 +5409,18 @@
     <row ht="32.25" r="173" customHeight="1">
       <c s="16" r="A173"/>
       <c t="s" s="13" r="B173">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="13" r="C173"/>
       <c t="s" s="13" r="D173">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="7" r="E173"/>
       <c t="s" s="7" r="F173">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c t="s" s="7" r="G173">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="13" r="J173"/>
       <c t="b" r="K173">
@@ -5437,7 +5454,7 @@
     <row ht="32.25" r="175" customHeight="1">
       <c s="16" r="A175"/>
       <c t="s" s="13" r="B175">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c s="13" r="C175"/>
       <c s="13" r="D175"/>
@@ -5457,7 +5474,7 @@
     <row ht="32.25" r="176" customHeight="1">
       <c s="16" r="A176"/>
       <c t="s" s="2" r="B176">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c s="13" r="C176"/>
       <c s="13" r="D176"/>
@@ -5477,11 +5494,11 @@
     <row ht="32.25" r="177" customHeight="1">
       <c s="16" r="A177"/>
       <c t="s" s="15" r="B177">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="15" r="C177"/>
       <c t="s" s="15" r="D177">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c t="b" r="E177">
         <v>1</v>
@@ -5517,16 +5534,16 @@
       <c s="15" r="D179"/>
       <c s="5" r="E179"/>
       <c t="s" s="7" r="F179">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c t="s" r="G179">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c t="s" s="7" r="H179">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" s="5" r="I179">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c s="15" r="J179"/>
       <c s="12" r="L179"/>
@@ -5542,14 +5559,14 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C180">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c s="7" r="F180"/>
       <c t="s" r="H180">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c t="s" r="I180">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c s="15" r="J180"/>
       <c s="12" r="L180"/>
@@ -5565,14 +5582,14 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C181">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c s="7" r="F181"/>
       <c t="s" r="H181">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c t="s" r="I181">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c s="15" r="J181"/>
       <c s="12" r="L181"/>
@@ -5588,14 +5605,14 @@
         <v>37</v>
       </c>
       <c t="s" s="15" r="C182">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c s="7" r="F182"/>
       <c t="s" r="H182">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c t="s" r="I182">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c s="15" r="J182"/>
       <c s="12" r="L182"/>
@@ -5608,18 +5625,18 @@
     <row ht="32.25" r="183" customHeight="1">
       <c s="16" r="A183"/>
       <c t="s" s="15" r="B183">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="15" r="C183"/>
       <c t="s" s="15" r="D183">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c s="5" r="E183"/>
       <c t="s" s="5" r="F183">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c t="s" s="7" r="G183">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="15" r="J183"/>
       <c s="12" r="L183"/>
@@ -5632,18 +5649,18 @@
     <row ht="32.25" r="184" customHeight="1">
       <c s="16" r="A184"/>
       <c t="s" s="13" r="B184">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="13" r="C184"/>
       <c t="s" s="13" r="D184">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="7" r="E184"/>
       <c t="s" s="7" r="F184">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c t="s" s="7" r="G184">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c s="13" r="J184"/>
       <c s="12" r="L184"/>
@@ -5674,7 +5691,7 @@
     <row ht="32.25" r="186" customHeight="1">
       <c s="16" r="A186"/>
       <c t="s" s="13" r="B186">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c s="13" r="C186"/>
       <c s="13" r="D186"/>
@@ -5710,7 +5727,7 @@
     <row ht="32.25" r="188" customHeight="1">
       <c s="16" r="A188"/>
       <c t="s" s="8" r="B188">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c s="13" r="C188"/>
       <c s="13" r="D188"/>
@@ -5729,27 +5746,27 @@
     </row>
     <row ht="32.25" r="189" customHeight="1">
       <c t="s" s="16" r="A189">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c t="s" s="13" r="B189">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c s="13" r="C189"/>
       <c t="s" s="13" r="D189">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c s="7" r="E189"/>
       <c t="s" s="7" r="F189">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c t="s" s="7" r="G189">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c s="7" r="H189"/>
       <c s="7" r="I189"/>
       <c s="13" r="J189"/>
       <c t="s" s="12" r="L189">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c s="12" r="M189"/>
       <c s="12" r="N189"/>
@@ -5777,21 +5794,21 @@
     </row>
     <row ht="32.25" r="191" customHeight="1">
       <c t="s" s="16" r="A191">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c t="s" s="13" r="B191">
         <v>41</v>
       </c>
       <c s="13" r="C191"/>
       <c t="s" s="13" r="D191">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c s="7" r="E191"/>
       <c t="s" s="7" r="F191">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c t="s" s="7" r="G191">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c s="7" r="H191"/>
       <c s="7" r="I191"/>
@@ -5806,20 +5823,20 @@
     <row ht="32.25" r="192" customHeight="1">
       <c s="16" r="A192"/>
       <c t="s" s="13" r="B192">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" s="13" r="C192">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c t="s" s="13" r="D192">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c s="7" r="E192"/>
       <c t="s" s="7" r="F192">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c t="s" s="7" r="G192">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c s="7" r="H192"/>
       <c s="7" r="I192"/>
@@ -5856,42 +5873,42 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c t="s" r="B2">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c t="s" r="B3">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c t="s" r="B4">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c t="s" r="B5">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c t="s" r="B6">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -5916,7 +5933,7 @@
   <sheetData>
     <row ht="15.75" r="1" customHeight="1">
       <c t="s" s="5" r="A1">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c t="s" s="5" r="B1">
         <v>3</v>
@@ -5928,35 +5945,35 @@
         <v>5</v>
       </c>
       <c t="s" r="E1">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row ht="15.75" r="2" customHeight="1">
       <c t="s" s="5" r="A2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c t="s" s="5" r="B2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c t="s" s="5" r="C2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c t="s" r="D2">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row ht="15.75" r="3" customHeight="1">
       <c t="s" s="5" r="A3">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c t="s" s="5" r="B3">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c t="s" s="5" r="C3">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c t="s" r="D3">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row ht="15.75" r="4" customHeight="1">
@@ -5966,30 +5983,30 @@
     </row>
     <row ht="15.75" r="5" customHeight="1">
       <c t="s" s="5" r="A5">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c t="s" s="5" r="B5">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c t="s" s="5" r="C5">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c t="s" r="D5">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row ht="15.75" r="6" customHeight="1">
       <c t="s" s="5" r="A6">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c t="s" s="5" r="B6">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c t="s" s="5" r="C6">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c t="s" r="D6">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row ht="15.75" r="7" customHeight="1">
@@ -5999,30 +6016,30 @@
     </row>
     <row ht="15.75" r="8" customHeight="1">
       <c t="s" s="5" r="A8">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c t="s" s="5" r="B8">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c t="s" s="5" r="C8">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c t="s" r="D8">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row ht="15.75" r="9" customHeight="1">
       <c t="s" s="5" r="A9">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c t="s" s="5" r="B9">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c t="s" s="5" r="C9">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c t="s" r="D9">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row ht="15.75" r="10" customHeight="1">
@@ -6032,30 +6049,30 @@
     </row>
     <row ht="15.75" r="11" customHeight="1">
       <c t="s" s="5" r="A11">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c t="s" s="5" r="B11">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c t="s" s="5" r="C11">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c t="s" r="D11">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row ht="15.75" r="12" customHeight="1">
       <c t="s" s="5" r="A12">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c t="s" s="5" r="B12">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c t="s" s="5" r="C12">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c t="s" r="D12">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13">
@@ -6069,86 +6086,86 @@
     </row>
     <row r="15">
       <c t="s" s="5" r="A15">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" s="5" r="B15">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c t="s" r="C15">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c t="s" r="D15">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16">
       <c t="s" s="5" r="A16">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" s="5" r="B16">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c t="s" r="C16">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c t="s" r="D16">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17">
       <c t="s" s="5" r="A17">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="B17">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c t="s" r="C17">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c t="s" r="D17">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20">
       <c t="s" r="A20">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c t="s" r="B20">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c t="s" r="C20">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c t="s" r="D20">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c t="s" r="B21">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c t="s" r="C21">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c t="s" r="D21">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22">
       <c t="s" r="A22">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c t="s" r="B22">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c t="s" r="C22">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c t="s" r="D22">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24">
@@ -6158,58 +6175,58 @@
     </row>
     <row r="25">
       <c t="s" s="5" r="A25">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" s="5" r="B25">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c t="s" s="5" r="C25">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c t="s" r="D25">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26">
       <c t="s" s="5" r="A26">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" r="B26">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c t="s" r="C26">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c t="s" r="D26">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27">
       <c t="s" s="5" r="A27">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" r="B27">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c t="s" r="C27">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c t="s" r="D27">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30">
       <c t="s" r="A30">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B30">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c t="s" s="7" r="C30">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c t="s" r="D30">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -6217,16 +6234,16 @@
     </row>
     <row r="31">
       <c t="s" r="A31">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B31">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c t="s" s="7" r="C31">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c t="s" r="D31">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6234,16 +6251,16 @@
     </row>
     <row r="32">
       <c t="s" r="A32">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B32">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c t="s" s="7" r="C32">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c t="s" r="D32">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -6251,16 +6268,16 @@
     </row>
     <row r="33">
       <c t="s" r="A33">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B33">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c t="s" s="7" r="C33">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c t="s" r="D33">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -6268,13 +6285,13 @@
     </row>
     <row r="34">
       <c t="s" r="A34">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B34">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c t="s" s="7" r="C34">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c s="11" r="D34"/>
       <c r="E34">
@@ -6283,13 +6300,13 @@
     </row>
     <row r="35">
       <c t="s" r="A35">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B35">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c t="s" s="7" r="C35">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c s="11" r="D35"/>
       <c r="E35">
@@ -6298,13 +6315,13 @@
     </row>
     <row r="36">
       <c t="s" r="A36">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B36">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c t="s" s="7" r="C36">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c s="11" r="D36"/>
       <c r="E36">
@@ -6313,13 +6330,13 @@
     </row>
     <row r="37">
       <c t="s" r="A37">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B37">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c t="s" s="7" r="C37">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c s="11" r="D37"/>
       <c r="E37">
@@ -6328,13 +6345,13 @@
     </row>
     <row r="38">
       <c t="s" r="A38">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B38">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c t="s" r="C38">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c s="11" r="D38"/>
       <c r="E38">
@@ -6343,13 +6360,13 @@
     </row>
     <row r="39">
       <c t="s" r="A39">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B39">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c t="s" r="C39">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c s="11" r="D39"/>
       <c r="E39">
@@ -6358,13 +6375,13 @@
     </row>
     <row r="40">
       <c t="s" r="A40">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B40">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c t="s" r="C40">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c s="11" r="D40"/>
       <c r="E40">
@@ -6373,13 +6390,13 @@
     </row>
     <row r="41">
       <c t="s" r="A41">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B41">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c t="s" r="C41">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c s="11" r="D41"/>
       <c r="E41">
@@ -6388,13 +6405,13 @@
     </row>
     <row r="42">
       <c t="s" r="A42">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c t="s" r="B42">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c t="s" r="C42">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c s="11" r="D42"/>
       <c r="E42">
@@ -6403,212 +6420,212 @@
     </row>
     <row r="45">
       <c t="s" r="A45">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B45">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c t="s" r="C45">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c t="s" r="D45">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46">
       <c t="s" r="A46">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B46">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c t="s" r="C46">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c t="s" r="D46">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47">
       <c t="s" r="A47">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B47">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c t="s" r="C47">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c t="s" r="D47">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48">
       <c t="s" r="A48">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" s="5" r="B48">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c t="s" s="5" r="C48">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c t="s" r="D48">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49">
       <c t="s" r="A49">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B49">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c t="s" s="5" r="C49">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c t="s" r="D49">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50">
       <c t="s" r="A50">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B50">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c t="s" r="C50">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c t="s" r="D50">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51">
       <c t="s" r="A51">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B51">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c t="s" r="C51">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c t="s" r="D51">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52">
       <c t="s" r="A52">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B52">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c t="s" r="C52">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c t="s" r="D52">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53">
       <c t="s" r="A53">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B53">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c t="s" r="C53">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c t="s" r="D53">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54">
       <c t="s" r="A54">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B54">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c t="s" r="C54">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c t="s" r="D54">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55">
       <c t="s" r="A55">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c t="s" r="B55">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c t="s" r="C55">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c t="s" r="D55">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58">
       <c t="s" r="A58">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c t="s" r="B58">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c t="s" r="C58">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c t="s" r="D58">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59">
       <c t="s" r="A59">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c t="s" r="B59">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c t="s" r="C59">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c t="s" r="D59">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60">
       <c t="s" r="A60">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c t="s" r="B60">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c t="s" r="C60">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c t="s" r="D60">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61">
       <c t="s" r="A61">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c t="s" r="B61">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c t="s" r="C61">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c t="s" r="D61">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="64">
@@ -6616,13 +6633,13 @@
         <v>34</v>
       </c>
       <c t="s" r="B64">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c t="s" r="C64">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c t="s" r="D64">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65">
@@ -6630,167 +6647,167 @@
         <v>34</v>
       </c>
       <c t="s" r="B65">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c t="s" r="C65">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c t="s" r="D65">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68">
       <c t="s" r="A68">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c t="s" r="B68">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c t="s" r="C68">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c t="s" r="D68">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69">
       <c t="s" r="A69">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c t="s" r="B69">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c t="s" r="C69">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c t="s" r="D69">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70">
       <c t="s" r="A70">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c t="s" r="B70">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c t="s" r="C70">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c t="s" r="D70">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71">
       <c t="s" r="A71">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c t="s" r="B71">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c t="s" r="C71">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c t="s" r="D71">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73">
       <c t="s" r="A73">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c t="s" r="B73">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c t="s" r="C73">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c t="s" r="D73">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74">
       <c t="s" r="A74">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c t="s" r="B74">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c t="s" r="C74">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c t="s" r="D74">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75">
       <c t="s" r="A75">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c t="s" r="B75">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c t="s" r="C75">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c t="s" r="D75">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77">
       <c t="s" r="A77">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c t="s" r="B77">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c t="s" r="C77">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c t="s" r="D77">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78">
       <c t="s" r="A78">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c t="s" r="B78">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c t="s" r="C78">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c t="s" r="D78">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80">
       <c t="s" r="A80">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c t="s" r="B80">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c t="s" r="C80">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c t="s" r="D80">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="81">
       <c t="s" r="A81">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c t="s" r="B81">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c t="s" r="C81">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c t="s" r="D81">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -6810,26 +6827,26 @@
   <sheetData>
     <row ht="15.75" r="1" customHeight="1">
       <c t="s" s="15" r="A1">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c t="s" s="15" r="B1">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c t="s" r="C1">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row ht="15.75" r="2" customHeight="1">
       <c t="s" s="15" r="A2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c t="s" s="15" r="B2">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="15" r="A3">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6837,13 +6854,13 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c t="s" r="B4">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c t="s" r="C4">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/form-files/IMNCI/upto2mo.xlsx
+++ b/form-files/IMNCI/upto2mo.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="480" windowWidth="14076" windowHeight="7884" activeTab="4"/>
+  </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="model" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="calculates" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="choices" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="settings" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="calculates" sheetId="3" r:id="rId3"/>
+    <sheet name="choices" sheetId="4" r:id="rId4"/>
+    <sheet name="settings" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645" count="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="645">
   <si>
     <t>comments</t>
   </si>
@@ -89,7 +92,7 @@
     <t>If the exact date is unknown use an approximate date.</t>
   </si>
   <si>
-    <t>अगर ठीक तारीक़ याद नही तो लगभग आस-पास की तारीक़ डालें. </t>
+    <t>अगर ठीक तारीक़ याद नही तो लगभग आस-पास की तारीक़ डालें.</t>
   </si>
   <si>
     <t>new Date(this.getValue()) &lt;= now()</t>
@@ -110,7 +113,7 @@
     <t>Weight in kilograms:</t>
   </si>
   <si>
-    <t>वज़न </t>
+    <t>वज़न</t>
   </si>
   <si>
     <t>select_one visit_type</t>
@@ -164,7 +167,7 @@
     <t>Count the breaths in one minute.</t>
   </si>
   <si>
-    <t>एक मिनिट के लिए साँस गिने. </t>
+    <t>एक मिनिट के लिए साँस गिने.</t>
   </si>
   <si>
     <t>data('breath_count') &gt;= 60</t>
@@ -197,7 +200,7 @@
     <t>YOUNG INFANT MUST BE  CALM</t>
   </si>
   <si>
-    <t>शिशु शांत रहना चाहिए. </t>
+    <t>शिशु शांत रहना चाहिए.</t>
   </si>
   <si>
     <t>./img/chestdrawing.jpg</t>
@@ -260,7 +263,7 @@
     <t>Feel  for fever:</t>
   </si>
   <si>
-    <t>तापमान देखें </t>
+    <t>तापमान देखें</t>
   </si>
   <si>
     <t>not(selected(data('fever_present'), 'present'))</t>
@@ -272,7 +275,7 @@
     <t>Feel for low body temperature:</t>
   </si>
   <si>
-    <t>तापमान कम होने के लिए महसूस करें </t>
+    <t>तापमान कम होने के लिए महसूस करें</t>
   </si>
   <si>
     <t>lethargic</t>
@@ -287,7 +290,7 @@
     <t>abnormal_movements</t>
   </si>
   <si>
-    <t>Look at the young infant’s movements. Are they less than normal? </t>
+    <t>Look at the young infant’s movements. Are they less than normal?</t>
   </si>
   <si>
     <t>शिशु का हिलना धुलना देखें, क्या वे सामान्य से कम है?</t>
@@ -314,7 +317,7 @@
     <t>umbilicus_draining_pus</t>
   </si>
   <si>
-    <t>Look at the  umbilicus. Is it red or draining pus? </t>
+    <t>Look at the  umbilicus. Is it red or draining pus?</t>
   </si>
   <si>
     <t>नाभि देखें, क्या नाभि लाल है या पीप निकल रा है?</t>
@@ -410,7 +413,7 @@
     <t>&lt;li&gt;Severe chest indrawing&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;पसली का अत्यधिक धसना&lt;/li&gt; </t>
+    <t>&lt;li&gt;पसली का अत्यधिक धसना&lt;/li&gt;</t>
   </si>
   <si>
     <t>selected(data('nasal_flaring'), 'yes')</t>
@@ -464,7 +467,7 @@
     <t>&lt;li&gt;Less than normal movements&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;सामान्य से कम हिलना डुलना&lt;/li&gt; </t>
+    <t>&lt;li&gt;सामान्य से कम हिलना डुलना&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;strong&gt;This child needs URGENT attention, complete the assessment and pre-referral treatment immediately so referral is not delayed.&lt;/strong&gt;</t>
@@ -482,10 +485,10 @@
     <t>give_first_dose_of_cotrimoxazole</t>
   </si>
   <si>
-    <t>Give first dose of cotrimoxazole if able to take orally (½ Pediatric tablet for an infant up to 1 month and 1 tablet for an infant 1-2 months) </t>
-  </si>
-  <si>
-    <t>अगर मूह से ले सकता है तो कोटरिमोक्षज़ोल की पहली खुराक (एक महीने की उम्र तक के शिशु को बाकछे वाली आधी गोली और १ से २ महीने तक के शिशु को बचे वाली १ गोली) दे. </t>
+    <t>Give first dose of cotrimoxazole if able to take orally (½ Pediatric tablet for an infant up to 1 month and 1 tablet for an infant 1-2 months)</t>
+  </si>
+  <si>
+    <t>अगर मूह से ले सकता है तो कोटरिमोक्षज़ोल की पहली खुराक (एक महीने की उम्र तक के शिशु को बाकछे वाली आधी गोली और १ से २ महीने तक के शिशु को बचे वाली १ गोली) दे.</t>
   </si>
   <si>
     <t>advise_continue_breastfeeding</t>
@@ -494,7 +497,7 @@
     <t>Advise mother to continue breastfeeding</t>
   </si>
   <si>
-    <t>स्तनपान जारी रखने की सलाह दे. </t>
+    <t>स्तनपान जारी रखने की सलाह दे.</t>
   </si>
   <si>
     <t>warm_infant_skin_to_skin</t>
@@ -551,7 +554,7 @@
     <t>Give oral cotrimoxazole for 5 days. (½ Pediatric tablet twice daily for an infant upto 1 month and 1 tablet for an infant 1-2 months)</t>
   </si>
   <si>
-    <t>कोटरिमोक्षज़ोल की खुराक (१ महीने की ऊम्र तक के शिशु को बाकछे वाली आधी गोली और १ से २ महीने तक के शिशु को बाकछे की १ गोली) ५ दिन तक दिन मैं दो बार दें. </t>
+    <t>कोटरिमोक्षज़ोल की खुराक (१ महीने की ऊम्र तक के शिशु को बाकछे वाली आधी गोली और १ से २ महीने तक के शिशु को बाकछे की १ गोली) ५ दिन तक दिन मैं दो बार दें.</t>
   </si>
   <si>
     <t>TODO: Use P.3 oral drug instructions?</t>
@@ -563,7 +566,7 @@
     <t>Teach mother to apply 0.5% Gentian Violet paint twice daily.</t>
   </si>
   <si>
-    <t>मा को संगयाए. ०.५% जनशन वायलाट ( जी वी) दावा दिन मैं दो बार लगायें. </t>
+    <t>मा को संगयाए. ०.५% जनशन वायलाट ( जी वी) दावा दिन मैं दो बार लगायें.</t>
   </si>
   <si>
     <t>follow_up_2_days</t>
@@ -602,7 +605,7 @@
     <t>Does the young infant have diarrhoea?</t>
   </si>
   <si>
-    <t>पूछें क्या शिशु को दस्त हैं? </t>
+    <t>पूछें क्या शिशु को दस्त हैं?</t>
   </si>
   <si>
     <t>What is diarrhoea in a young infant? 
@@ -610,7 +613,7 @@
 pattern and are many and watery (more 
 water than fecal matter). The normally 
 frequent or loose stools of a breastfed 
-baby are not diarrhoea. </t>
+baby are not diarrhoea.</t>
   </si>
   <si>
     <t>स्तनपान करने वाले बच्चे मैं साधारण: ज़्यादा या पतले माल को दस्त नही कहते है. यदि माल सामान्य की अपेक्षा बदल गया हो और पानी की तरह पतला हो या बहुत बार आ रहा हो तो ही दस्त कहलाता है.</t>
@@ -634,22 +637,22 @@
     <t>ASK: Is there blood in the stool?</t>
   </si>
   <si>
-    <t>पूछें क्या माल में खून आता है? </t>
+    <t>पूछें क्या माल में खून आता है?</t>
   </si>
   <si>
     <t>Look at the young infant’s general condition. Is the infant:</t>
   </si>
   <si>
-    <t>शिशु की सामानया स्थिति देखें. </t>
+    <t>शिशु की सामानया स्थिति देखें.</t>
   </si>
   <si>
     <t>lethargic_2</t>
   </si>
   <si>
-    <t>Lethargic or unconscious? </t>
-  </si>
-  <si>
-    <t>सुस्त या बेहोश है? </t>
+    <t>Lethargic or unconscious?</t>
+  </si>
+  <si>
+    <t>सुस्त या बेहोश है?</t>
   </si>
   <si>
     <t>equivalent(data('lethargic'), data('lethargic_2'))</t>
@@ -688,7 +691,7 @@
     <t>Pinch the skin of the abdomen. Does it go back:</t>
   </si>
   <si>
-    <t>पेट की त्वचा पर चिकोटी भरें, यह काए वापस जाता है? </t>
+    <t>पेट की त्वचा पर चिकोटी भरें, यह काए वापस जाता है?</t>
   </si>
   <si>
     <t>./img/pinchskin.jpg</t>
@@ -721,7 +724,7 @@
     <t>CLASSIFICATION: SOME DEHYDRATION</t>
   </si>
   <si>
-    <t>वर्गीकरण: कुछ निर्जलीकरण </t>
+    <t>वर्गीकरण: कुछ निर्जलीकरण</t>
   </si>
   <si>
     <t>Two of the following signs:
@@ -743,7 +746,7 @@
     <t>CLASSIFICATION: &lt;strong&gt;SEVERE DEHYDRATION&lt;/strong&gt;</t>
   </si>
   <si>
-    <t>वर्गीकरण &lt;strong&gt;गंभीर निर्जलीकरण&lt;/strong&gt; </t>
+    <t>वर्गीकरण &lt;strong&gt;गंभीर निर्जलीकरण&lt;/strong&gt;</t>
   </si>
   <si>
     <t>Two of the following signs:
@@ -765,7 +768,7 @@
   <si>
     <t>अगर मूह से ले सकता है तो कोटरिमोक्षज़ोल की पहली खुराक (एक महीने की उम्र 
 तक के शिशु को बाकछे वाली आधी गोली और १ से २ महीने तक के शिशु को बचे वाली
- १ गोली) दे. </t>
+ १ गोली) दे.</t>
   </si>
   <si>
     <t>Refer URGENTLY to hospital 
@@ -780,7 +783,7 @@
 breastfeeding.</t>
   </si>
   <si>
-    <t>मा को स्तनपान जारी रखने की सलाह दे </t>
+    <t>मा को स्तनपान जारी रखने की सलाह दे</t>
   </si>
   <si>
     <t>advise_keep_infant_warm</t>
@@ -789,7 +792,7 @@
     <t>Advise to keep the young infant warm.</t>
   </si>
   <si>
-    <t>शिशु को गर्म रखने की सलाह </t>
+    <t>शिशु को गर्म रखने की सलाह</t>
   </si>
   <si>
     <t>goto dehydration_end</t>
@@ -804,14 +807,14 @@
     <t>CLASSIFICATION: NO DEHYDRATION</t>
   </si>
   <si>
-    <t>निर्जलीकर्ण नही </t>
+    <t>निर्जलीकर्ण नही</t>
   </si>
   <si>
     <t>Not enough signs to classify as    
-  some or severe dehydration.   </t>
-  </si>
-  <si>
-    <t>निर्जलीकरण के पयापत चिन्ह का न होना. </t>
+  some or severe dehydration.</t>
+  </si>
+  <si>
+    <t>निर्जलीकरण के पयापत चिन्ह का न होना.</t>
   </si>
   <si>
     <t>dehydration_treatment</t>
@@ -840,14 +843,14 @@
     <t>CLASSIFICATION: SEVERE DYSENTERY</t>
   </si>
   <si>
-    <t>गंभीर पोचिश </t>
+    <t>गंभीर पोचिश</t>
   </si>
   <si>
     <t>Signs:
 &lt;p&gt;Blood  in the stool&lt;/p&gt;</t>
   </si>
   <si>
-    <t>चिन्ह &lt;p&gt;माल मैं खून&lt;/p&gt; </t>
+    <t>चिन्ह &lt;p&gt;माल मैं खून&lt;/p&gt;</t>
   </si>
   <si>
     <t>TODO: should this have the dosage specifics mentioned above</t>
@@ -928,7 +931,7 @@
     <t>ASK: How often does the infant receive other foods or drinks per 24 hours?</t>
   </si>
   <si>
-    <t>पूछो: कितनी बार शिशु प्रति 24 घंटे अन्य खाद्य पदार्थ या पेय प्राप्त करता है? </t>
+    <t>पूछो: कितनी बार शिशु प्रति 24 घंटे अन्य खाद्य पदार्थ या पेय प्राप्त करता है?</t>
   </si>
   <si>
     <t>I'm going with type of food for now because we ask about breastfeeding above</t>
@@ -943,7 +946,7 @@
     <t>ASK: What do you use to feed the infant?</t>
   </si>
   <si>
-    <t>पूछें: शिशु को पिलाने के लिए क्या प्रयोग करते हैं? </t>
+    <t>पूछें: शिशु को पिलाने के लिए क्या प्रयोग करते हैं?</t>
   </si>
   <si>
     <t>TODO: Infer yes by assigning indication_for_urgent_referral</t>
@@ -955,10 +958,10 @@
     <t>Is there any indication for urgent referral?</t>
   </si>
   <si>
-    <t>अगर तुरंत रेफरल की ज़रूरत न हो तो तभी स्तनपान का आकलन करें.? </t>
-  </si>
-  <si>
-    <t>Added back from original IMCNI chart based on correspondence with Amy/Manoj, then disabled based on Lysander's comment. </t>
+    <t>अगर तुरंत रेफरल की ज़रूरत न हो तो तभी स्तनपान का आकलन करें.?</t>
+  </si>
+  <si>
+    <t>Added back from original IMCNI chart based on correspondence with Amy/Manoj, then disabled based on Lysander's comment.</t>
   </si>
   <si>
     <t>breastfed_recently</t>
@@ -967,7 +970,7 @@
     <t>ASK: Has the infant breastfed in the previous hour?</t>
   </si>
   <si>
-    <t>पूछें: क्या शिशु को पिछले घंटे मैं स्तनपान मिला है? </t>
+    <t>पूछें: क्या शिशु को पिछले घंटे मैं स्तनपान मिला है?</t>
   </si>
   <si>
     <t>goto after_feeding_assessment</t>
@@ -988,7 +991,7 @@
     <t>Ask the mother to put her infant to the breast. Observe the breastfeed for 4 minutes.</t>
   </si>
   <si>
-    <t>मा से कहें की शिशु को स्तन से लगाए. चार मिनिट तक स्तनपान कराते देखें? </t>
+    <t>मा से कहें की शिशु को स्तन से लगाए. चार मिनिट तक स्तनपान कराते देखें?</t>
   </si>
   <si>
     <t>able_to_attach</t>
@@ -1031,13 +1034,13 @@
     <t>Is the infant suckling effectively (that is,  slow deep sucks, sometimes pausing)?</t>
   </si>
   <si>
-    <t>क्या शिशु प्रभावी डांग से स्तन चूस रहा है (जैसे, धीरे-धीरे गहरा चूसना और बीच-बीच मैं रूकना?). </t>
+    <t>क्या शिशु प्रभावी डांग से स्तन चूस रहा है (जैसे, धीरे-धीरे गहरा चूसना और बीच-बीच मैं रूकना?).</t>
   </si>
   <si>
     <t>Clear a blocked nose if it interferes with breastfeeding.</t>
   </si>
   <si>
-    <t>बंद नाक यदि स्तनपान मैं रुकावट डालती हो तो सॉफ करें. </t>
+    <t>बंद नाक यदि स्तनपान मैं रुकावट डालती हो तो सॉफ करें.</t>
   </si>
   <si>
     <t>label after_feeding_assessment</t>
@@ -1058,10 +1061,10 @@
     <t>breastfeeding_pain</t>
   </si>
   <si>
-    <t>ASK: Does the mother have pain while breastfeeding? </t>
-  </si>
-  <si>
-    <t>क्या स्तनपान कराते समय मा को दर्द होता है? </t>
+    <t>ASK: Does the mother have pain while breastfeeding?</t>
+  </si>
+  <si>
+    <t>क्या स्तनपान कराते समय मा को दर्द होता है?</t>
   </si>
   <si>
     <t>Modified to include flat/inverted/cracked nipple based on correspondence with Manoj</t>
@@ -1079,7 +1082,7 @@
     <t>Look and feel for breast problems:</t>
   </si>
   <si>
-    <t>देखें व महसूस करें दिकाट के लिए </t>
+    <t>देखें व महसूस करें दिकाट के लिए</t>
   </si>
   <si>
     <t>Based on correspondence w/ Amy using 'is_infant_breastfed' to determine "Able to feed"</t>
@@ -1109,7 +1112,7 @@
     <t>No signs of inadequate feeding.</t>
   </si>
   <si>
-    <t>कम स्तनपान के कोई चिन्ह नही </t>
+    <t>कम स्तनपान के कोई चिन्ह नही</t>
   </si>
   <si>
     <t>advise_home_care</t>
@@ -1118,7 +1121,7 @@
     <t>Advise to give home care.</t>
   </si>
   <si>
-    <t>घर पर देखभाल करने की सलाह दे </t>
+    <t>घर पर देखभाल करने की सलाह दे</t>
   </si>
   <si>
     <t>parse_mother_for_feeding</t>
@@ -1142,7 +1145,7 @@
     <t>CLASSIFICATION: FEEDING PROBLEM</t>
   </si>
   <si>
-    <t>वर्गीकरण:  दूध पिलाने संबधी समस्या </t>
+    <t>वर्गीकरण:  दूध पिलाने संबधी समस्या</t>
   </si>
   <si>
     <t>./img/attached.jpg</t>
@@ -1166,14 +1169,14 @@
 24 hours&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;स्तनपान ८ बार से कम २४ घंटो मैं.&lt;/li&gt; </t>
+    <t>&lt;li&gt;स्तनपान ८ बार से कम २४ घंटो मैं.&lt;/li&gt;</t>
   </si>
   <si>
     <t>&lt;li&gt;Receives other 
 foods or drinks&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;और कोई खाने या पीने की सुविधा&lt;/li&gt; </t>
+    <t>&lt;li&gt;और कोई खाने या पीने की सुविधा&lt;/li&gt;</t>
   </si>
   <si>
     <t>selected(data('ulcers_thrush'), 'present')</t>
@@ -1193,7 +1196,7 @@
     <t>&lt;li&gt;Breast or nipple problems&lt;/li&gt;</t>
   </si>
   <si>
-    <t>&lt;li&gt;स्तन या चुचक मैं समस्या होना&lt;/li&gt; </t>
+    <t>&lt;li&gt;स्तन या चुचक मैं समस्या होना&lt;/li&gt;</t>
   </si>
   <si>
     <t>TODO: Link to information section on P.4</t>
@@ -1205,7 +1208,7 @@
     <t>teach_correct_positioning</t>
   </si>
   <si>
-    <t>Infant is not well attached or not suckling effectively. Teach correct positioning and attachment.  </t>
+    <t>Infant is not well attached or not suckling effectively. Teach correct positioning and attachment.</t>
   </si>
   <si>
     <t>अगर शिशु का लगाव या चूसना ठीक न हो तो, सही स्तिति मैं लेना और स्तन से लगाना सिखाए.</t>
@@ -1217,7 +1220,7 @@
     <t>increase_frequency_of_feeding</t>
   </si>
   <si>
-    <t>Breastfeeding less than 8 times in 24 hours. Advise to increase frequency of feeding. </t>
+    <t>Breastfeeding less than 8 times in 24 hours. Advise to increase frequency of feeding.</t>
   </si>
   <si>
     <t>अगर २४ घंटे मे ८ बार से कम स्तनपान है तो मा को ज्यागा बार स्तनपान करने की सलाह दे.</t>
@@ -1226,10 +1229,10 @@
     <t>infant_other_food</t>
   </si>
   <si>
-    <t>Infant is receiving other foods or drinks. Counsel mother about breastfeeding more, reducing other foods or drinks, and using a cup and spoon. </t>
-  </si>
-  <si>
-    <t>अगर शिशु दूसरा पेया पदार्थ लेता है? तो मा को समझाए की स्तनपान ज़्यादा कराए द धीरे-धीरे दूसरे पेया-पदार्थ को कम करें व कटोरी-चम्मच का प्रयोग करें. </t>
+    <t>Infant is receiving other foods or drinks. Counsel mother about breastfeeding more, reducing other foods or drinks, and using a cup and spoon.</t>
+  </si>
+  <si>
+    <t>अगर शिशु दूसरा पेया पदार्थ लेता है? तो मा को समझाए की स्तनपान ज़्यादा कराए द धीरे-धीरे दूसरे पेया-पदार्थ को कम करें व कटोरी-चम्मच का प्रयोग करें.</t>
   </si>
   <si>
     <t>TODO: Link to information</t>
@@ -1249,20 +1252,20 @@
   <si>
     <t>For thrush teach the mother to 
 apply 0.25% Gentian Violet 
-paint twice daily </t>
+paint twice daily</t>
   </si>
   <si>
     <t>अगर मूँह में छाले या सफेद दाग ज़ीवी द्वा (०.२५%) २ बार लगाय.</t>
   </si>
   <si>
-    <t>TODO: Link to information section on P.4 Will need to ref breast_problems </t>
+    <t>TODO: Link to information section on P.4 Will need to ref breast_problems</t>
   </si>
   <si>
     <t>teach_mother</t>
   </si>
   <si>
     <t>Teach the mother to treat breast 
-or nipple problems. </t>
+or nipple problems.</t>
   </si>
   <si>
     <t>अगर चूचक व स्तन की समस्या है तो उसका इलाज समझाए.</t>
@@ -1281,10 +1284,10 @@
     <t>(Breastfeed infant exclusively, keep infant warm, apply nothing to cord, ask mother to wash hands and explain danger signs in the infant)</t>
   </si>
   <si>
-    <t>स्तनपान सिर्फ़ शिशु को करें, शिशु को गर्म रखें. </t>
-  </si>
-  <si>
-    <t>दो दिन बाद पुन: देखें. </t>
+    <t>स्तनपान सिर्फ़ शिशु को करें, शिशु को गर्म रखें.</t>
+  </si>
+  <si>
+    <t>दो दिन बाद पुन: देखें.</t>
   </si>
   <si>
     <t>label cannot_feed_possible_serious_bacterial_infection</t>
@@ -1298,10 +1301,10 @@
 POSSIBLE SERIOUS BACTERIAL INFECTION&lt;/p&gt;</t>
   </si>
   <si>
-    <t>वर्गीकरण : &lt;p&gt;बिल्कुल स्तनपान नही कर पाना संभावित गंभीर जीवाणु संक्रमण.&lt;/p&gt; </t>
-  </si>
-  <si>
-    <t>चिन्ह </t>
+    <t>वर्गीकरण : &lt;p&gt;बिल्कुल स्तनपान नही कर पाना संभावित गंभीर जीवाणु संक्रमण.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>चिन्ह</t>
   </si>
   <si>
     <t>&lt;li&gt;Not able to feed &lt;/li&gt;</t>
@@ -1310,7 +1313,7 @@
     <t>&lt;li&gt;लगाव बिल्कुल नही&lt;/li&gt;</t>
   </si>
   <si>
-    <t>selected(data('able_to_attach'),'no') </t>
+    <t>selected(data('able_to_attach'),'no')</t>
   </si>
   <si>
     <t>&lt;li&gt;No attachment at all&lt;/li&gt;</t>
@@ -1331,10 +1334,10 @@
     <t>warm_skin_to_skin</t>
   </si>
   <si>
-    <t>यदि शिशु ठंडा हो तो त्वचा से त्वचा लगा कर गर्म रखें. </t>
-  </si>
-  <si>
-    <t>तुरंत अस्पताल रेफर करें. </t>
+    <t>यदि शिशु ठंडा हो तो त्वचा से त्वचा लगा कर गर्म रखें.</t>
+  </si>
+  <si>
+    <t>तुरंत अस्पताल रेफर करें.</t>
   </si>
   <si>
     <t>label check_immunization_status</t>
@@ -1388,7 +1391,7 @@
     <t>Refer the child to a doctor for detailed assessment.</t>
   </si>
   <si>
-    <t>शिशु को डॉक्टर के पास रेफर करें. </t>
+    <t>शिशु को डॉक्टर के पास रेफर करें.</t>
   </si>
   <si>
     <t>goto less_than_2mo_breakdowns</t>
@@ -1460,7 +1463,7 @@
     <t>Present</t>
   </si>
   <si>
-    <t>है </t>
+    <t>है</t>
   </si>
   <si>
     <t>not_present</t>
@@ -1478,7 +1481,7 @@
     <t>Agree</t>
   </si>
   <si>
-    <t>राज़ी </t>
+    <t>राज़ी</t>
   </si>
   <si>
     <t>disagree</t>
@@ -1499,7 +1502,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>पुरुष </t>
+    <t>पुरुष</t>
   </si>
   <si>
     <t>female</t>
@@ -1514,16 +1517,16 @@
     <t>very_slow</t>
   </si>
   <si>
-    <t>Very slowly (longer than 2 seconds)? </t>
-  </si>
-  <si>
-    <t>बहुत  धीरे  ( २  सेकेंड  से  ज़्यादा) </t>
+    <t>Very slowly (longer than 2 seconds)?</t>
+  </si>
+  <si>
+    <t>बहुत  धीरे  ( २  सेकेंड  से  ज़्यादा)</t>
   </si>
   <si>
     <t>slow</t>
   </si>
   <si>
-    <t>     Slowly?</t>
+    <t>Slowly?</t>
   </si>
   <si>
     <t>धीरे?</t>
@@ -1565,7 +1568,7 @@
     <t>Good attachment.</t>
   </si>
   <si>
-    <t>अच्छा लगाव </t>
+    <t>अच्छा लगाव</t>
   </si>
   <si>
     <t>Not suckling at all.</t>
@@ -1589,7 +1592,7 @@
     <t>Suckling effectively.</t>
   </si>
   <si>
-    <t>स्तन को प्रभावी डांग से चूसना </t>
+    <t>स्तन को प्रभावी डांग से चूसना</t>
   </si>
   <si>
     <t>bcg</t>
@@ -1598,7 +1601,7 @@
     <t>BCG</t>
   </si>
   <si>
-    <t>बी. सी. गी </t>
+    <t>बी. सी. गी</t>
   </si>
   <si>
     <t>opv0</t>
@@ -1607,7 +1610,7 @@
     <t>OPV-0</t>
   </si>
   <si>
-    <t>ओ. पी. वी.-०  </t>
+    <t>ओ. पी. वी.-०</t>
   </si>
   <si>
     <t>dpt1</t>
@@ -1625,7 +1628,7 @@
     <t>OPV-1 + Hepatitis B-1</t>
   </si>
   <si>
-    <t>ओ. पी. वी.-१ + हेपतितस बी-१ </t>
+    <t>ओ. पी. वी.-१ + हेपतितस बी-१</t>
   </si>
   <si>
     <t>dpt2</t>
@@ -1763,7 +1766,7 @@
     <t>Cooked wheat/rice based with undiluted milk and sugar</t>
   </si>
   <si>
-    <t>पक्की हुई रोति / चावल शूध दूष और चीनी के साथ. </t>
+    <t>पक्की हुई रोति / चावल शूध दूष और चीनी के साथ.</t>
   </si>
   <si>
     <t>water_based_wheat/rice</t>
@@ -1772,7 +1775,7 @@
     <t>Cooked wheat/rice based with dal/lentil water</t>
   </si>
   <si>
-    <t>पक्की हुई रोति / चावल डाल और पानी के साथ.  </t>
+    <t>पक्की हुई रोति / चावल डाल और पानी के साथ.</t>
   </si>
   <si>
     <t>khichri</t>
@@ -1799,7 +1802,7 @@
     <t>Boiled or cooked vegetables</t>
   </si>
   <si>
-    <t>उबली  या  पक्की  हुई  सब्ज़ियाँ. </t>
+    <t>उबली  या  पक्की  हुई  सब्ज़ियाँ.</t>
   </si>
   <si>
     <t>mixed_food</t>
@@ -1808,7 +1811,7 @@
     <t>Normal mixed food as adults</t>
   </si>
   <si>
-    <t>बढ़ों जैसे सामान्य खाना. </t>
+    <t>बढ़ों जैसे सामान्य खाना.</t>
   </si>
   <si>
     <t>attachment_quality_sign</t>
@@ -1820,7 +1823,7 @@
     <t>Chin touching breast</t>
   </si>
   <si>
-    <t>तोढी स्तन को चू रही है. </t>
+    <t>तोढी स्तन को चू रही है.</t>
   </si>
   <si>
     <t>mouth_wide_open</t>
@@ -1829,7 +1832,7 @@
     <t>Mouth wide open</t>
   </si>
   <si>
-    <t>मूँह पूरा खुला हुआ है. </t>
+    <t>मूँह पूरा खुला हुआ है.</t>
   </si>
   <si>
     <t>lower_lip_outward</t>
@@ -1838,7 +1841,7 @@
     <t>Lower lip turned outward</t>
   </si>
   <si>
-    <t>निचला होंठ बाहर की तरफ मूधा हुआ है. </t>
+    <t>निचला होंठ बाहर की तरफ मूधा हुआ है.</t>
   </si>
   <si>
     <t>visible_areola</t>
@@ -1848,7 +1851,7 @@
 mouth</t>
   </si>
   <si>
-    <t>नीचे की अपेक्षा उपर एरियोला अधिक दिख रहा है. </t>
+    <t>नीचे की अपेक्षा उपर एरियोला अधिक दिख रहा है.</t>
   </si>
   <si>
     <t>initial_visit</t>
@@ -1857,7 +1860,7 @@
     <t>Initial vist</t>
   </si>
   <si>
-    <t>प्रथम भेट. </t>
+    <t>प्रथम भेट.</t>
   </si>
   <si>
     <t>followup</t>
@@ -1866,7 +1869,7 @@
     <t>Follow-up</t>
   </si>
   <si>
-    <t>पुन: भेट </t>
+    <t>पुन: भेट</t>
   </si>
   <si>
     <t>flat_nipple</t>
@@ -1875,7 +1878,7 @@
     <t>Flat/inverted nipple</t>
   </si>
   <si>
-    <t>चुचक के घाव </t>
+    <t>चुचक के घाव</t>
   </si>
   <si>
     <t>sore_nipple</t>
@@ -1890,7 +1893,7 @@
     <t>Engorged breasts</t>
   </si>
   <si>
-    <t>स्तानो मैं सूजन </t>
+    <t>स्तानो मैं सूजन</t>
   </si>
   <si>
     <t>breast_abscess</t>
@@ -1899,7 +1902,7 @@
     <t>Breast abscess</t>
   </si>
   <si>
-    <t>स्तानो मैं फोड़े </t>
+    <t>स्तानो मैं फोड़े</t>
   </si>
   <si>
     <t>no_some_severe</t>
@@ -1920,7 +1923,7 @@
     <t>बहुत</t>
   </si>
   <si>
-    <t> katori_teaspoon</t>
+    <t>katori_teaspoon</t>
   </si>
   <si>
     <t>katori</t>
@@ -1929,7 +1932,7 @@
     <t>Katori</t>
   </si>
   <si>
-    <t>कटोरी </t>
+    <t>कटोरी</t>
   </si>
   <si>
     <t>katori_teaspoon</t>
@@ -1992,131 +1995,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2132,25 +2059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,12 +2089,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2209,4701 +2112,4990 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="2" fillId="3" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="3" fillId="4" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="5" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="4" fillId="6" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="6" fillId="7" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="8" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="7" fillId="9" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="10" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="11" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="8" fillId="12" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="9" fillId="13" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="14" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="11" fillId="15" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" defaultColWidth="13.71" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="25.0"/>
-    <col max="2" min="2" customWidth="1" width="37.14"/>
-    <col max="3" min="3" customWidth="1" width="45.86"/>
-    <col max="4" min="4" customWidth="1" width="33.43"/>
-    <col max="6" min="6" customWidth="1" width="62.0"/>
-    <col max="7" min="7" customWidth="1" width="15.86"/>
-    <col max="8" min="8" customWidth="1" width="43.43"/>
-    <col max="11" min="11" customWidth="1" width="7.86"/>
-    <col max="12" min="12" customWidth="1" width="21.57"/>
-    <col max="13" min="13" customWidth="1" width="20.71"/>
-    <col max="15" min="15" customWidth="1" width="22.71"/>
-    <col max="16" min="16" customWidth="1" width="6.86"/>
-    <col max="17" min="17" customWidth="1" width="9.43"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="6" max="6" width="62" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="15" r="A1">
+    <row r="1" spans="1:17" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="14" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="14" r="C1">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="14" r="D1">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="6" r="E1">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="6" r="F1">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="6" r="G1">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="6" r="H1">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="6" r="I1">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="14" r="K1">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="14" r="L1">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="6" r="M1">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="6" r="N1">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="14" r="O1">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="14" r="P1">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c s="14" r="Q1"/>
-    </row>
-    <row ht="32.25" r="2" customHeight="1">
-      <c s="15" r="A2"/>
-      <c t="s" s="6" r="B2">
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="F2">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="6" r="G2">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c s="6" r="H2"/>
-      <c s="6" r="I2"/>
-    </row>
-    <row ht="32.25" r="3" customHeight="1">
-      <c s="15" r="A3"/>
-      <c t="s" s="14" r="B3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c s="14" r="C3"/>
-      <c t="s" s="14" r="D3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c s="6" r="E3"/>
-      <c t="s" s="6" r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="7" r="G3">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="6" r="H3">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="6" r="I3">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c t="b" r="K3">
-        <v>1</v>
-      </c>
-      <c t="s" r="L3">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="M3">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="11" r="N3">
+      <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row ht="32.25" r="4" customHeight="1">
-      <c s="15" r="A4"/>
-      <c t="s" s="12" r="B4">
+    <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c s="12" r="C4"/>
-      <c t="s" s="12" r="D4">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c s="7" r="E4"/>
-      <c t="s" s="7" r="F4">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="7" r="G4">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c s="7" r="H4"/>
-      <c s="7" r="I4"/>
-      <c s="11" r="L4"/>
-      <c s="11" r="M4"/>
-      <c s="11" r="N4"/>
-      <c s="11" r="O4"/>
-      <c s="11" r="P4"/>
-      <c s="11" r="Q4"/>
-    </row>
-    <row ht="32.25" r="5" customHeight="1">
-      <c s="15" r="A5"/>
-      <c t="s" s="12" r="B5">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c s="12" r="C5"/>
-      <c t="s" s="12" r="D5">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c s="7" r="E5"/>
-      <c t="s" s="7" r="F5">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="7" r="G5">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c s="7" r="H5"/>
-      <c s="7" r="I5"/>
-      <c s="11" r="L5"/>
-      <c s="11" r="M5"/>
-      <c s="11" r="N5"/>
-      <c s="11" r="O5"/>
-      <c s="11" r="P5"/>
-      <c s="11" r="Q5"/>
-    </row>
-    <row ht="32.25" r="6" customHeight="1">
-      <c s="15" r="A6"/>
-      <c t="s" s="6" r="B6">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="6" r="C6">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c s="6" r="D6"/>
-      <c s="6" r="E6"/>
-      <c s="6" r="F6"/>
-      <c s="7" r="G6"/>
-      <c s="6" r="H6"/>
-      <c s="6" r="I6"/>
-    </row>
-    <row ht="32.25" r="7" customHeight="1">
-      <c s="15" r="A7"/>
-      <c t="s" s="6" r="B7">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="6" r="C7">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c s="6" r="D7"/>
-      <c s="6" r="E7"/>
-      <c s="6" r="F7"/>
-      <c s="6" r="G7"/>
-      <c s="6" r="H7"/>
-      <c s="6" r="I7"/>
-    </row>
-    <row ht="32.25" r="8" customHeight="1">
-      <c s="15" r="A8"/>
-      <c t="s" s="14" r="B8">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
-      <c s="14" r="C8"/>
-      <c t="s" s="14" r="D8">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c s="6" r="E8"/>
-      <c t="s" s="14" r="F8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="6" r="G8">
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c s="14" r="H8"/>
-      <c s="14" r="I8"/>
-      <c t="b" r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="9" customHeight="1">
-      <c t="s" s="15" r="A9">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="6" r="B9">
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c t="b" s="6" r="C9">
+      <c r="C9" s="3" t="b">
         <v>0</v>
       </c>
-      <c t="s" s="6" r="D9">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c s="6" r="E9"/>
-      <c t="s" s="6" r="F9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>45</v>
       </c>
-      <c s="6" r="G9"/>
-      <c s="6" r="I9"/>
-    </row>
-    <row ht="32.25" r="10" customHeight="1">
-      <c s="15" r="A10"/>
-      <c t="s" s="14" r="B10">
+      <c r="G9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c s="14" r="C10"/>
-      <c t="s" s="14" r="D10">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c s="6" r="E10"/>
-      <c t="s" s="14" r="F10">
+      <c r="E10" s="3"/>
+      <c r="F10" s="9" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="7" r="G10">
+      <c r="G10" s="4" t="s">
         <v>49</v>
       </c>
-      <c s="14" r="H10"/>
-      <c s="14" r="I10"/>
-    </row>
-    <row ht="32.25" r="11" customHeight="1">
-      <c s="15" r="A11"/>
-      <c t="s" s="14" r="B11">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="C11">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="14" r="D11">
+      <c r="D11" s="9" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="14" r="F11">
+      <c r="F11" s="9" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="11" r="G11">
+      <c r="G11" s="7" t="s">
         <v>53</v>
       </c>
-      <c s="6" r="H11"/>
-      <c s="6" r="I11"/>
-    </row>
-    <row ht="32.25" r="12" customHeight="1">
-      <c s="15" r="A12"/>
-      <c t="s" s="14" r="B12">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="14" r="D12"/>
-      <c s="14" r="F12"/>
-      <c s="6" r="H12"/>
-    </row>
-    <row ht="32.25" r="13" customHeight="1">
-      <c s="15" r="A13"/>
-      <c t="s" s="14" r="B13">
+      <c r="D12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="12" r="D13">
+      <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
-      <c s="7" r="E13"/>
-      <c t="s" s="12" r="F13">
+      <c r="E13" s="4"/>
+      <c r="F13" s="8" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="7" r="G13">
+      <c r="G13" s="4" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="7" r="H13">
+      <c r="H13" s="4" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="I13">
+      <c r="I13" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="J13">
+      <c r="J13" t="s">
         <v>61</v>
       </c>
-      <c t="b" r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="14" customHeight="1">
-      <c s="15" r="A14"/>
-      <c t="s" s="14" r="B14">
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="12" r="D14">
+      <c r="D14" s="8" t="s">
         <v>62</v>
       </c>
-      <c s="7" r="E14"/>
-      <c t="s" s="12" r="F14">
+      <c r="E14" s="4"/>
+      <c r="F14" s="8" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="7" r="G14">
+      <c r="G14" s="4" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="7" r="H14">
+      <c r="H14" s="4" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="I14">
+      <c r="I14" t="s">
         <v>60</v>
       </c>
-      <c t="b" r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="15" customHeight="1">
-      <c s="15" r="A15"/>
-      <c t="s" s="14" r="B15">
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="12" r="D15">
+      <c r="D15" s="8" t="s">
         <v>65</v>
       </c>
-      <c s="7" r="E15"/>
-      <c t="s" s="12" r="F15">
+      <c r="E15" s="4"/>
+      <c r="F15" s="8" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="7" r="G15">
+      <c r="G15" s="4" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="7" r="H15">
+      <c r="H15" s="4" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="I15">
+      <c r="I15" t="s">
         <v>60</v>
       </c>
-      <c t="b" r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="16" customHeight="1">
-      <c s="15" r="A16"/>
-      <c t="s" s="14" r="B16">
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="D16"/>
-      <c s="7" r="E16"/>
-      <c s="12" r="F16"/>
-      <c s="7" r="G16"/>
-      <c s="7" r="H16"/>
-    </row>
-    <row ht="32.25" r="17" customHeight="1">
-      <c s="15" r="A17"/>
-      <c t="s" s="14" r="B17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="12" r="D17"/>
-      <c s="7" r="E17"/>
-      <c s="12" r="F17"/>
-      <c s="7" r="G17"/>
-      <c s="7" r="H17"/>
-    </row>
-    <row ht="32.25" r="18" customHeight="1">
-      <c s="15" r="A18"/>
-      <c t="s" s="14" r="B18">
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D18">
+      <c r="D18" s="8" t="s">
         <v>69</v>
       </c>
-      <c s="7" r="E18"/>
-      <c t="s" s="12" r="F18">
+      <c r="E18" s="4"/>
+      <c r="F18" s="8" t="s">
         <v>70</v>
       </c>
-      <c t="s" s="7" r="G18">
+      <c r="G18" s="4" t="s">
         <v>71</v>
       </c>
-      <c s="7" r="H18"/>
-      <c t="b" r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="19" customHeight="1">
-      <c s="15" r="A19"/>
-      <c t="s" s="14" r="B19">
+      <c r="H18" s="4"/>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="C19">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c t="s" s="12" r="D19">
+      <c r="D19" s="8" t="s">
         <v>73</v>
       </c>
-      <c s="7" r="E19"/>
-      <c t="s" s="12" r="F19">
+      <c r="E19" s="4"/>
+      <c r="F19" s="8" t="s">
         <v>74</v>
       </c>
-      <c t="s" s="7" r="G19">
+      <c r="G19" s="4" t="s">
         <v>75</v>
       </c>
-      <c t="s" s="7" r="H19">
+      <c r="H19" s="4" t="s">
         <v>76</v>
       </c>
-      <c t="s" s="11" r="I19">
+      <c r="I19" s="7" t="s">
         <v>77</v>
       </c>
-      <c t="b" r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="20" customHeight="1">
-      <c s="15" r="A20"/>
-      <c t="s" s="14" r="B20">
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="D20"/>
-      <c s="7" r="E20"/>
-      <c s="12" r="F20"/>
-      <c s="7" r="G20"/>
-      <c s="7" r="H20"/>
-    </row>
-    <row ht="32.25" r="21" customHeight="1">
-      <c s="15" r="A21"/>
-      <c t="s" s="14" r="B21">
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="C21">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c s="12" r="D21"/>
-      <c s="7" r="E21"/>
-      <c s="12" r="F21"/>
-      <c s="7" r="G21"/>
-      <c s="7" r="H21"/>
-    </row>
-    <row ht="32.25" r="22" customHeight="1">
-      <c s="15" r="A22"/>
-      <c t="s" s="14" r="B22">
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="12" r="D22">
+      <c r="D22" s="8" t="s">
         <v>79</v>
       </c>
-      <c s="7" r="E22"/>
-      <c t="s" s="12" r="F22">
+      <c r="E22" s="4"/>
+      <c r="F22" s="8" t="s">
         <v>80</v>
       </c>
-      <c t="s" s="7" r="G22">
+      <c r="G22" s="4" t="s">
         <v>81</v>
       </c>
-      <c s="7" r="H22"/>
-    </row>
-    <row ht="32.25" r="23" customHeight="1">
-      <c s="15" r="A23"/>
-      <c t="s" s="14" r="B23">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="C23">
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c t="s" s="12" r="D23">
+      <c r="D23" s="8" t="s">
         <v>83</v>
       </c>
-      <c s="7" r="E23"/>
-      <c t="s" s="12" r="F23">
+      <c r="E23" s="4"/>
+      <c r="F23" s="8" t="s">
         <v>84</v>
       </c>
-      <c t="s" s="7" r="G23">
+      <c r="G23" s="4" t="s">
         <v>85</v>
       </c>
-      <c s="7" r="H23"/>
-    </row>
-    <row ht="32.25" r="24" customHeight="1">
-      <c s="15" r="A24"/>
-      <c t="s" s="14" r="B24">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="D24"/>
-      <c s="12" r="F24"/>
-      <c s="7" r="H24"/>
-    </row>
-    <row ht="32.25" r="25" customHeight="1">
-      <c s="15" r="A25"/>
-      <c t="s" s="14" r="B25">
+      <c r="D24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D25">
+      <c r="D25" s="8" t="s">
         <v>86</v>
       </c>
-      <c s="7" r="E25"/>
-      <c t="s" s="12" r="F25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="8" t="s">
         <v>87</v>
       </c>
-      <c t="s" s="7" r="G25">
+      <c r="G25" s="4" t="s">
         <v>88</v>
       </c>
-      <c s="7" r="H25"/>
-      <c t="b" r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="26" customHeight="1">
-      <c s="15" r="A26"/>
-      <c t="s" s="14" r="B26">
+      <c r="H25" s="4"/>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D26">
+      <c r="D26" s="8" t="s">
         <v>89</v>
       </c>
-      <c s="7" r="E26"/>
-      <c t="s" s="12" r="F26">
+      <c r="E26" s="4"/>
+      <c r="F26" s="8" t="s">
         <v>90</v>
       </c>
-      <c t="s" s="7" r="G26">
+      <c r="G26" s="4" t="s">
         <v>91</v>
       </c>
-      <c s="7" r="H26"/>
-      <c t="b" r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="27" customHeight="1">
-      <c s="15" r="A27"/>
-      <c t="s" s="14" r="B27">
+      <c r="H26" s="4"/>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="12" r="D27"/>
-      <c s="7" r="E27"/>
-      <c s="12" r="F27"/>
-      <c s="7" r="G27"/>
-      <c s="7" r="H27"/>
-    </row>
-    <row ht="32.25" r="28" customHeight="1">
-      <c s="15" r="A28"/>
-      <c t="s" s="14" r="B28">
+      <c r="D27" s="8"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D28">
+      <c r="D28" s="8" t="s">
         <v>92</v>
       </c>
-      <c s="7" r="E28"/>
-      <c t="s" s="12" r="F28">
+      <c r="E28" s="4"/>
+      <c r="F28" s="8" t="s">
         <v>93</v>
       </c>
-      <c t="s" s="7" r="G28">
+      <c r="G28" s="4" t="s">
         <v>94</v>
       </c>
-      <c s="7" r="H28"/>
-      <c t="b" r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="29" customHeight="1">
-      <c s="15" r="A29"/>
-      <c t="s" s="14" r="B29">
+      <c r="H28" s="4"/>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="14" r="C29">
+      <c r="C29" s="9" t="s">
         <v>95</v>
       </c>
-      <c t="s" s="12" r="D29">
+      <c r="D29" s="8" t="s">
         <v>96</v>
       </c>
-      <c s="7" r="E29"/>
-      <c t="s" s="12" r="F29">
+      <c r="E29" s="4"/>
+      <c r="F29" s="8" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="7" r="G29">
+      <c r="G29" s="4" t="s">
         <v>94</v>
       </c>
-      <c s="7" r="H29"/>
-      <c t="b" r="K29">
-        <v>1</v>
-      </c>
-      <c s="11" r="L29"/>
-      <c s="11" r="M29"/>
-      <c s="11" r="N29"/>
-      <c s="11" r="O29"/>
-      <c s="11" r="P29"/>
-      <c s="11" r="Q29"/>
-    </row>
-    <row ht="32.25" r="30" customHeight="1">
-      <c s="15" r="A30"/>
-      <c t="s" s="14" r="B30">
+      <c r="H29" s="4"/>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="D30"/>
-      <c s="7" r="E30"/>
-      <c s="12" r="F30"/>
-      <c s="7" r="G30"/>
-      <c s="7" r="H30"/>
-      <c s="11" r="L30"/>
-      <c s="11" r="M30"/>
-      <c s="11" r="N30"/>
-      <c s="11" r="O30"/>
-      <c s="11" r="P30"/>
-      <c s="11" r="Q30"/>
-    </row>
-    <row ht="32.25" r="31" customHeight="1">
-      <c s="15" r="A31"/>
-      <c t="s" s="14" r="B31">
+      <c r="D30" s="8"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D31">
+      <c r="D31" s="8" t="s">
         <v>98</v>
       </c>
-      <c s="7" r="E31"/>
-      <c t="s" s="12" r="F31">
+      <c r="E31" s="4"/>
+      <c r="F31" s="8" t="s">
         <v>99</v>
       </c>
-      <c t="s" s="7" r="G31">
+      <c r="G31" s="4" t="s">
         <v>100</v>
       </c>
-      <c s="7" r="H31"/>
-      <c t="b" r="K31">
-        <v>1</v>
-      </c>
-      <c s="11" r="L31"/>
-      <c s="11" r="M31"/>
-      <c s="11" r="N31"/>
-      <c s="11" r="O31"/>
-      <c s="11" r="P31"/>
-      <c s="11" r="Q31"/>
-    </row>
-    <row ht="32.25" r="32" customHeight="1">
-      <c s="15" r="A32"/>
-      <c t="s" s="14" r="B32">
+      <c r="H31" s="4"/>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" s="14" r="C32">
+      <c r="C32" s="9" t="s">
         <v>102</v>
       </c>
-      <c s="14" r="D32"/>
-      <c s="14" r="F32"/>
-      <c s="14" r="H32"/>
-      <c s="14" r="I32"/>
-    </row>
-    <row ht="32.25" r="33" customHeight="1">
-      <c s="15" r="A33"/>
-      <c t="s" s="14" r="B33">
+      <c r="D32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" s="14" r="C33">
+      <c r="C33" s="9" t="s">
         <v>103</v>
       </c>
-      <c s="12" r="D33"/>
-      <c s="12" r="F33"/>
-      <c s="7" r="H33"/>
-      <c s="6" r="I33"/>
-      <c s="11" r="L33"/>
-      <c s="11" r="M33"/>
-      <c s="11" r="N33"/>
-      <c s="11" r="O33"/>
-      <c s="11" r="P33"/>
-      <c s="11" r="Q33"/>
-    </row>
-    <row ht="32.25" r="34" customHeight="1">
-      <c s="15" r="A34"/>
-      <c t="s" s="14" r="B34">
+      <c r="D33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" s="14" r="C34">
+      <c r="C34" s="9" t="s">
         <v>104</v>
       </c>
-      <c s="12" r="D34"/>
-      <c s="12" r="F34"/>
-      <c s="7" r="H34"/>
-      <c s="6" r="I34"/>
-      <c s="11" r="L34"/>
-      <c s="11" r="M34"/>
-      <c s="11" r="N34"/>
-      <c s="11" r="O34"/>
-      <c s="11" r="P34"/>
-      <c s="11" r="Q34"/>
-    </row>
-    <row ht="32.25" r="35" customHeight="1">
-      <c s="15" r="A35"/>
-      <c t="s" s="14" r="B35">
+      <c r="D34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C35">
+      <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c s="12" r="D35"/>
-      <c s="7" r="E35"/>
-      <c s="12" r="F35"/>
-      <c s="7" r="G35"/>
-      <c s="7" r="H35"/>
-      <c s="11" r="L35"/>
-      <c s="11" r="M35"/>
-      <c s="11" r="N35"/>
-      <c s="11" r="O35"/>
-      <c s="11" r="P35"/>
-      <c s="11" r="Q35"/>
-    </row>
-    <row ht="32.25" r="36" customHeight="1">
-      <c s="15" r="A36"/>
-      <c t="s" s="14" r="B36">
+      <c r="D35" s="8"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C36">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c s="12" r="D36"/>
-      <c s="12" r="F36"/>
-      <c s="7" r="H36"/>
-      <c s="11" r="L36"/>
-      <c s="11" r="M36"/>
-      <c s="11" r="N36"/>
-      <c s="11" r="O36"/>
-      <c s="11" r="P36"/>
-      <c s="11" r="Q36"/>
-    </row>
-    <row ht="36.0" r="37" customHeight="1">
-      <c s="15" r="A37"/>
-      <c t="s" s="14" r="B37">
+      <c r="D36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="H36" s="4"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C37">
+      <c r="C37" t="s">
         <v>107</v>
       </c>
-      <c s="12" r="D37"/>
-      <c s="12" r="F37"/>
-      <c s="7" r="H37"/>
-      <c s="11" r="L37"/>
-      <c s="11" r="M37"/>
-      <c s="11" r="N37"/>
-      <c s="11" r="O37"/>
-      <c s="11" r="P37"/>
-      <c s="11" r="Q37"/>
-    </row>
-    <row ht="32.25" r="38" customHeight="1">
-      <c s="15" r="A38"/>
-      <c t="s" s="14" r="B38">
+      <c r="D37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="H37" s="4"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C38">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c s="12" r="D38"/>
-      <c s="12" r="F38"/>
-      <c s="7" r="H38"/>
-      <c s="11" r="L38"/>
-      <c s="11" r="M38"/>
-      <c s="11" r="N38"/>
-      <c s="11" r="O38"/>
-      <c s="11" r="P38"/>
-      <c s="11" r="Q38"/>
-    </row>
-    <row ht="32.25" r="39" customHeight="1">
-      <c s="15" r="A39"/>
-      <c t="s" s="14" r="B39">
+      <c r="D38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="H38" s="4"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C39">
+      <c r="C39" t="s">
         <v>109</v>
       </c>
-      <c s="12" r="D39"/>
-      <c s="12" r="F39"/>
-      <c s="7" r="H39"/>
-      <c s="11" r="L39"/>
-      <c s="11" r="M39"/>
-      <c s="11" r="N39"/>
-      <c s="11" r="O39"/>
-      <c s="11" r="P39"/>
-      <c s="11" r="Q39"/>
-    </row>
-    <row ht="32.25" r="40" customHeight="1">
-      <c s="15" r="A40"/>
-      <c t="s" s="14" r="B40">
+      <c r="D39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="H39" s="4"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C40">
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c s="12" r="D40"/>
-      <c s="12" r="F40"/>
-      <c s="7" r="H40"/>
-      <c s="11" r="L40"/>
-      <c s="11" r="M40"/>
-      <c s="11" r="N40"/>
-      <c s="11" r="O40"/>
-      <c s="11" r="P40"/>
-      <c s="11" r="Q40"/>
-    </row>
-    <row ht="32.25" r="41" customHeight="1">
-      <c s="15" r="A41"/>
-      <c t="s" s="14" r="B41">
+      <c r="D40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="H40" s="4"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C41">
+      <c r="C41" t="s">
         <v>111</v>
       </c>
-      <c s="12" r="D41"/>
-      <c s="12" r="F41"/>
-      <c s="7" r="H41"/>
-      <c s="11" r="L41"/>
-      <c s="11" r="M41"/>
-      <c s="11" r="N41"/>
-      <c s="11" r="O41"/>
-      <c s="11" r="P41"/>
-      <c s="11" r="Q41"/>
-    </row>
-    <row ht="32.25" r="42" customHeight="1">
-      <c s="15" r="A42"/>
-      <c t="s" s="14" r="B42">
+      <c r="D41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="H41" s="4"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9" t="s">
         <v>101</v>
       </c>
-      <c t="s" r="C42">
+      <c r="C42" t="s">
         <v>112</v>
       </c>
-      <c s="12" r="D42"/>
-      <c s="12" r="F42"/>
-      <c s="7" r="H42"/>
-      <c s="11" r="L42"/>
-      <c s="11" r="M42"/>
-      <c s="11" r="N42"/>
-      <c s="11" r="O42"/>
-      <c s="11" r="P42"/>
-      <c s="11" r="Q42"/>
-    </row>
-    <row ht="32.25" r="43" customHeight="1">
-      <c s="15" r="A43"/>
-      <c t="s" s="14" r="B43">
+      <c r="D42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="H42" s="4"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="C43">
+      <c r="C43" t="s">
         <v>114</v>
       </c>
-      <c s="12" r="D43"/>
-      <c s="12" r="F43"/>
-      <c s="7" r="H43"/>
-      <c s="11" r="L43"/>
-      <c s="11" r="M43"/>
-      <c s="11" r="N43"/>
-      <c s="11" r="O43"/>
-      <c s="11" r="P43"/>
-      <c s="11" r="Q43"/>
-    </row>
-    <row ht="32.25" r="44" customHeight="1">
-      <c s="15" r="A44"/>
-      <c t="s" s="14" r="B44">
+      <c r="D43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="H43" s="4"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9" t="s">
         <v>113</v>
       </c>
-      <c t="s" r="C44">
+      <c r="C44" t="s">
         <v>115</v>
       </c>
-      <c s="12" r="D44"/>
-      <c s="12" r="F44"/>
-      <c s="7" r="H44"/>
-      <c s="11" r="L44"/>
-      <c s="11" r="M44"/>
-      <c s="11" r="N44"/>
-      <c s="11" r="O44"/>
-      <c s="11" r="P44"/>
-      <c s="11" r="Q44"/>
-    </row>
-    <row ht="32.25" r="45" customHeight="1">
-      <c s="15" r="A45"/>
-      <c t="s" s="14" r="B45">
+      <c r="D44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="H44" s="4"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9" t="s">
         <v>116</v>
       </c>
-      <c s="12" r="D45"/>
-      <c s="12" r="F45"/>
-      <c s="11" r="L45"/>
-      <c s="11" r="M45"/>
-      <c s="11" r="N45"/>
-      <c s="11" r="O45"/>
-      <c s="11" r="P45"/>
-      <c s="11" r="Q45"/>
-    </row>
-    <row ht="32.25" r="46" customHeight="1">
-      <c s="15" r="A46"/>
-      <c t="s" s="2" r="B46">
+      <c r="D45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c s="12" r="C46"/>
-      <c s="12" r="D46"/>
-      <c s="7" r="F46"/>
-    </row>
-    <row ht="32.25" r="47" customHeight="1">
-      <c s="15" r="A47"/>
-      <c t="s" s="14" r="B47">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C47"/>
-      <c t="s" s="14" r="D47">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
         <v>119</v>
       </c>
-      <c t="b" r="E47">
-        <v>1</v>
-      </c>
-      <c s="6" r="F47"/>
-    </row>
-    <row ht="32.25" r="48" customHeight="1">
-      <c s="15" r="A48"/>
-      <c t="s" s="16" r="B48">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c s="16" r="C48"/>
-      <c s="16" r="D48"/>
-      <c s="16" r="F48"/>
-    </row>
-    <row ht="32.25" r="49" customHeight="1">
-      <c s="15" r="A49"/>
-      <c t="s" s="14" r="B49">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="F49">
+      <c r="F49" t="s">
         <v>121</v>
       </c>
-      <c t="s" r="G49">
+      <c r="G49" t="s">
         <v>122</v>
       </c>
-      <c t="s" r="H49">
+      <c r="H49" t="s">
         <v>123</v>
       </c>
-      <c t="s" r="I49">
+      <c r="I49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row ht="32.25" r="50" customHeight="1">
-      <c s="15" r="A50"/>
-      <c t="s" s="14" r="B50">
+    <row r="50" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C50">
+      <c r="C50" t="s">
         <v>102</v>
       </c>
-      <c t="s" r="H50">
+      <c r="H50" t="s">
         <v>125</v>
       </c>
-      <c t="s" r="I50">
+      <c r="I50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row ht="32.25" r="51" customHeight="1">
-      <c s="15" r="A51"/>
-      <c t="s" s="14" r="B51">
+    <row r="51" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C51">
+      <c r="C51" t="s">
         <v>103</v>
       </c>
-      <c t="s" r="H51">
+      <c r="H51" t="s">
         <v>127</v>
       </c>
-      <c t="s" r="I51">
+      <c r="I51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row ht="32.25" r="52" customHeight="1">
-      <c s="15" r="A52"/>
-      <c t="s" s="14" r="B52">
+    <row r="52" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C52">
+      <c r="C52" t="s">
         <v>129</v>
       </c>
-      <c t="s" r="H52">
+      <c r="H52" t="s">
         <v>130</v>
       </c>
-      <c t="s" r="I52">
+      <c r="I52" t="s">
         <v>131</v>
       </c>
     </row>
-    <row ht="32.25" r="53" customHeight="1">
-      <c s="15" r="A53"/>
-      <c t="s" s="14" r="B53">
+    <row r="53" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C53">
+      <c r="C53" t="s">
         <v>132</v>
       </c>
-      <c t="s" r="H53">
+      <c r="H53" t="s">
         <v>133</v>
       </c>
-      <c t="s" s="7" r="I53">
+      <c r="I53" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row ht="32.25" r="54" customHeight="1">
-      <c s="15" r="A54"/>
-      <c t="s" s="14" r="B54">
+    <row r="54" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C54">
+      <c r="C54" t="s">
         <v>135</v>
       </c>
-      <c t="s" r="H54">
+      <c r="H54" t="s">
         <v>136</v>
       </c>
-      <c t="s" r="I54">
+      <c r="I54" t="s">
         <v>137</v>
       </c>
     </row>
-    <row ht="32.25" r="55" customHeight="1">
-      <c s="15" r="A55"/>
-      <c t="s" s="14" r="B55">
+    <row r="55" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C55">
+      <c r="C55" t="s">
         <v>112</v>
       </c>
-      <c t="s" r="H55">
+      <c r="H55" t="s">
         <v>138</v>
       </c>
-      <c t="s" s="7" r="I55">
+      <c r="I55" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row ht="32.25" r="56" customHeight="1">
-      <c s="15" r="A56"/>
-      <c t="s" s="14" r="B56">
+    <row r="56" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C56">
+      <c r="C56" t="s">
         <v>107</v>
       </c>
-      <c t="s" r="H56">
+      <c r="H56" t="s">
         <v>140</v>
       </c>
-      <c t="s" r="I56">
+      <c r="I56" t="s">
         <v>141</v>
       </c>
     </row>
-    <row ht="32.25" r="57" customHeight="1">
-      <c s="15" r="A57"/>
-      <c t="s" s="14" r="B57">
+    <row r="57" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C57">
+      <c r="C57" t="s">
         <v>108</v>
       </c>
-      <c t="s" r="H57">
+      <c r="H57" t="s">
         <v>142</v>
       </c>
-      <c t="s" r="I57">
+      <c r="I57" t="s">
         <v>143</v>
       </c>
     </row>
-    <row ht="32.25" r="58" customHeight="1">
-      <c s="15" r="A58"/>
-      <c t="s" s="14" r="B58">
+    <row r="58" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C58">
+      <c r="C58" t="s">
         <v>109</v>
       </c>
-      <c t="s" r="H58">
+      <c r="H58" t="s">
         <v>144</v>
       </c>
-      <c t="s" r="I58">
+      <c r="I58" t="s">
         <v>145</v>
       </c>
     </row>
-    <row ht="32.25" r="59" customHeight="1">
-      <c s="15" r="A59"/>
-      <c t="s" s="14" r="B59">
+    <row r="59" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C59">
+      <c r="C59" t="s">
         <v>110</v>
       </c>
-      <c t="s" r="H59">
+      <c r="H59" t="s">
         <v>146</v>
       </c>
-      <c t="s" r="I59">
+      <c r="I59" t="s">
         <v>147</v>
       </c>
     </row>
-    <row ht="32.25" r="60" customHeight="1">
-      <c s="15" r="A60"/>
-      <c t="s" s="14" r="B60">
+    <row r="60" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C60">
+      <c r="C60" t="s">
         <v>111</v>
       </c>
-      <c t="s" r="H60">
+      <c r="H60" t="s">
         <v>148</v>
       </c>
-      <c t="s" r="I60">
+      <c r="I60" t="s">
         <v>149</v>
       </c>
     </row>
-    <row ht="32.25" r="61" customHeight="1">
-      <c s="15" r="A61"/>
-      <c t="s" s="12" r="B61">
+    <row r="61" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="8" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="F61">
+      <c r="F61" t="s">
         <v>150</v>
       </c>
-      <c t="s" s="11" r="G61">
+      <c r="G61" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row ht="32.25" r="62" customHeight="1">
-      <c t="s" s="15" r="A62">
+    <row r="62" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>152</v>
       </c>
-      <c t="s" s="12" r="B62">
+      <c r="B62" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="D62">
+      <c r="D62" s="8" t="s">
         <v>154</v>
       </c>
-      <c t="s" s="7" r="F62">
+      <c r="F62" s="4" t="s">
         <v>155</v>
       </c>
-      <c t="s" r="G62">
+      <c r="G62" t="s">
         <v>156</v>
       </c>
-      <c t="b" r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="63" customHeight="1">
-      <c s="15" r="A63"/>
-      <c t="s" s="12" r="B63">
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="D63">
+      <c r="D63" s="8" t="s">
         <v>157</v>
       </c>
-      <c t="s" s="7" r="F63">
+      <c r="F63" s="4" t="s">
         <v>158</v>
       </c>
-      <c t="s" r="G63">
+      <c r="G63" t="s">
         <v>159</v>
       </c>
-      <c t="b" r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="64" customHeight="1">
-      <c s="15" r="A64"/>
-      <c t="s" s="12" r="B64">
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="D64">
+      <c r="D64" s="8" t="s">
         <v>160</v>
       </c>
-      <c t="s" s="7" r="F64">
+      <c r="F64" s="4" t="s">
         <v>161</v>
       </c>
-      <c t="s" r="G64">
+      <c r="G64" t="s">
         <v>162</v>
       </c>
-      <c t="b" r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="65" customHeight="1">
-      <c s="15" r="A65"/>
-      <c t="s" s="12" r="B65">
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="D65">
+      <c r="D65" s="8" t="s">
         <v>163</v>
       </c>
-      <c t="s" s="7" r="F65">
+      <c r="F65" s="4" t="s">
         <v>164</v>
       </c>
-      <c t="s" r="G65">
+      <c r="G65" t="s">
         <v>165</v>
       </c>
-      <c t="b" r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="66" customHeight="1">
-      <c s="15" r="A66"/>
-      <c t="s" s="16" r="B66">
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11" t="s">
         <v>68</v>
       </c>
-      <c s="16" r="C66"/>
-      <c t="s" s="16" r="D66">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
         <v>119</v>
       </c>
-      <c s="16" r="F66"/>
-    </row>
-    <row ht="32.25" r="67" customHeight="1">
-      <c s="15" r="A67"/>
-      <c t="s" s="14" r="B67">
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="9" t="s">
         <v>166</v>
       </c>
-      <c s="14" r="C67"/>
-      <c s="14" r="D67"/>
-      <c s="6" r="F67"/>
-    </row>
-    <row ht="32.25" r="68" customHeight="1">
-      <c s="15" r="A68"/>
-      <c t="s" s="2" r="B68">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="1" t="s">
         <v>167</v>
       </c>
-      <c s="12" r="C68"/>
-      <c s="12" r="D68"/>
-      <c s="7" r="F68"/>
-      <c t="b" r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="69" customHeight="1">
-      <c s="15" r="A69"/>
-      <c t="s" s="14" r="B69">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="F68" s="4"/>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C69"/>
-      <c t="s" s="14" r="D69">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
         <v>168</v>
       </c>
-      <c t="b" r="E69">
-        <v>1</v>
-      </c>
-      <c s="6" r="F69"/>
-    </row>
-    <row ht="32.25" r="70" customHeight="1">
-      <c s="15" r="A70"/>
-      <c t="s" s="16" r="B70">
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11" t="s">
         <v>54</v>
       </c>
-      <c s="16" r="C70"/>
-      <c s="16" r="D70"/>
-    </row>
-    <row ht="32.25" r="71" customHeight="1">
-      <c s="15" r="A71"/>
-      <c t="s" s="14" r="B71">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="9" t="s">
         <v>120</v>
       </c>
-      <c s="14" r="C71"/>
-      <c t="s" s="16" r="D71">
+      <c r="C71" s="9"/>
+      <c r="D71" s="11" t="s">
         <v>169</v>
       </c>
-      <c t="s" r="F71">
+      <c r="F71" t="s">
         <v>170</v>
       </c>
-      <c t="s" r="G71">
+      <c r="G71" t="s">
         <v>171</v>
       </c>
-      <c t="s" r="H71">
+      <c r="H71" t="s">
         <v>123</v>
       </c>
-      <c t="s" r="I71">
+      <c r="I71" t="s">
         <v>124</v>
       </c>
     </row>
-    <row ht="32.25" r="72" customHeight="1">
-      <c s="15" r="A72"/>
-      <c t="s" s="14" r="B72">
+    <row r="72" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C72">
+      <c r="C72" t="s">
         <v>114</v>
       </c>
-      <c s="14" r="D72"/>
-      <c t="s" r="H72">
+      <c r="D72" s="9"/>
+      <c r="H72" t="s">
         <v>172</v>
       </c>
-      <c t="s" s="7" r="I72">
+      <c r="I72" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row ht="32.25" r="73" customHeight="1">
-      <c s="15" r="A73"/>
-      <c t="s" s="14" r="B73">
+    <row r="73" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="C73">
+      <c r="C73" t="s">
         <v>115</v>
       </c>
-      <c s="14" r="D73"/>
-      <c t="s" r="H73">
+      <c r="D73" s="9"/>
+      <c r="H73" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="7" r="I73">
+      <c r="I73" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row ht="32.25" r="74" customHeight="1">
-      <c t="s" s="15" r="A74">
+    <row r="74" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>152</v>
       </c>
-      <c t="s" s="12" r="B74">
+      <c r="B74" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="D74">
+      <c r="D74" s="8" t="s">
         <v>176</v>
       </c>
-      <c t="s" s="7" r="F74">
+      <c r="F74" s="4" t="s">
         <v>177</v>
       </c>
-      <c t="s" r="G74">
+      <c r="G74" t="s">
         <v>178</v>
       </c>
-      <c t="b" r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="75" customHeight="1">
-      <c t="s" s="15" r="A75">
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>179</v>
       </c>
-      <c t="s" s="12" r="B75">
+      <c r="B75" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="D75">
+      <c r="D75" s="8" t="s">
         <v>180</v>
       </c>
-      <c t="s" s="7" r="F75">
+      <c r="F75" s="4" t="s">
         <v>181</v>
       </c>
-      <c t="s" r="G75">
+      <c r="G75" t="s">
         <v>182</v>
       </c>
-      <c t="b" r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="76" customHeight="1">
-      <c s="15" r="A76"/>
-      <c t="s" s="12" r="B76">
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="D76">
+      <c r="D76" s="8" t="s">
         <v>183</v>
       </c>
-      <c t="s" s="7" r="F76">
+      <c r="F76" s="4" t="s">
         <v>184</v>
       </c>
-      <c t="s" r="G76">
+      <c r="G76" t="s">
         <v>185</v>
       </c>
-      <c t="b" r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="77" customHeight="1">
-      <c s="15" r="A77"/>
-      <c t="s" s="16" r="B77">
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11" t="s">
         <v>68</v>
       </c>
-      <c s="16" r="C77"/>
-      <c t="s" s="16" r="D77">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11" t="s">
         <v>168</v>
       </c>
-      <c s="16" r="F77"/>
-      <c t="b" r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="78" customHeight="1">
-      <c s="15" r="A78"/>
-      <c t="s" s="14" r="B78">
+      <c r="F77" s="11"/>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="9" t="s">
         <v>166</v>
       </c>
-      <c s="14" r="F78"/>
-    </row>
-    <row ht="32.25" r="79" customHeight="1">
-      <c t="s" s="15" r="A79">
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>186</v>
       </c>
-      <c t="s" s="2" r="B79">
+      <c r="B79" s="1" t="s">
         <v>187</v>
       </c>
-      <c s="14" r="F79"/>
-    </row>
-    <row ht="32.25" r="80" customHeight="1">
-      <c s="15" r="A80"/>
-      <c t="s" s="14" r="B80">
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C80"/>
-      <c t="s" s="14" r="D80">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9" t="s">
         <v>188</v>
       </c>
-      <c t="b" r="E80">
-        <v>1</v>
-      </c>
-      <c s="6" r="F80"/>
-    </row>
-    <row ht="32.25" r="81" customHeight="1">
-      <c s="15" r="A81"/>
-      <c t="s" s="14" r="B81">
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" r="F81">
+      <c r="F81" t="s">
         <v>189</v>
       </c>
-      <c t="s" r="G81">
+      <c r="G81" t="s">
         <v>190</v>
       </c>
     </row>
-    <row ht="32.25" r="82" customHeight="1">
-      <c s="15" r="A82"/>
-      <c t="s" s="14" r="B82">
+    <row r="82" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="9" t="s">
         <v>166</v>
       </c>
-      <c s="14" r="F82"/>
-    </row>
-    <row ht="32.25" r="83" customHeight="1">
-      <c s="15" r="A83"/>
-      <c t="s" s="3" r="B83">
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="2" t="s">
         <v>191</v>
       </c>
-      <c s="14" r="F83"/>
-    </row>
-    <row ht="32.25" r="84" customHeight="1">
-      <c s="15" r="A84"/>
-      <c t="s" s="2" r="B84">
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="1" t="s">
         <v>192</v>
       </c>
-      <c s="12" r="F84"/>
-      <c t="b" r="K84">
-        <v>1</v>
-      </c>
-      <c s="11" r="L84"/>
-      <c s="11" r="M84"/>
-      <c s="11" r="N84"/>
-      <c s="11" r="O84"/>
-      <c s="11" r="P84"/>
-      <c s="11" r="Q84"/>
-    </row>
-    <row ht="32.25" r="85" customHeight="1">
-      <c s="15" r="A85"/>
-      <c t="s" s="14" r="B85">
+      <c r="F84" s="8"/>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+    </row>
+    <row r="85" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D85">
+      <c r="D85" s="8" t="s">
         <v>193</v>
       </c>
-      <c s="7" r="E85"/>
-      <c t="s" s="12" r="F85">
+      <c r="E85" s="4"/>
+      <c r="F85" s="8" t="s">
         <v>194</v>
       </c>
-      <c t="s" s="7" r="G85">
+      <c r="G85" s="4" t="s">
         <v>195</v>
       </c>
-      <c t="s" s="7" r="H85">
+      <c r="H85" s="4" t="s">
         <v>196</v>
       </c>
-      <c t="s" r="I85">
+      <c r="I85" t="s">
         <v>197</v>
       </c>
-      <c t="b" r="K85">
-        <v>1</v>
-      </c>
-      <c s="11" r="L85"/>
-      <c s="11" r="M85"/>
-      <c s="11" r="N85"/>
-      <c s="11" r="O85"/>
-      <c s="11" r="P85"/>
-      <c s="11" r="Q85"/>
-    </row>
-    <row ht="32.25" r="86" customHeight="1">
-      <c t="s" s="15" r="A86">
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+    </row>
+    <row r="86" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>198</v>
       </c>
-      <c t="s" s="14" r="B86">
+      <c r="B86" s="9" t="s">
         <v>199</v>
       </c>
-      <c t="s" s="12" r="C86">
+      <c r="C86" s="8" t="s">
         <v>200</v>
       </c>
-      <c s="12" r="D86"/>
-      <c s="12" r="F86"/>
-      <c t="b" r="K86">
-        <v>1</v>
-      </c>
-      <c s="11" r="L86"/>
-      <c s="11" r="M86"/>
-      <c s="11" r="N86"/>
-      <c s="11" r="O86"/>
-      <c s="11" r="P86"/>
-      <c s="11" r="Q86"/>
-    </row>
-    <row ht="32.25" r="87" customHeight="1">
-      <c s="15" r="A87"/>
-      <c t="s" s="2" r="B87">
+      <c r="D86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+    </row>
+    <row r="87" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="1" t="s">
         <v>201</v>
       </c>
-      <c s="12" r="F87"/>
-      <c t="b" r="K87">
-        <v>1</v>
-      </c>
-      <c s="11" r="L87"/>
-      <c s="11" r="M87"/>
-      <c s="11" r="N87"/>
-      <c s="11" r="O87"/>
-      <c s="11" r="P87"/>
-      <c s="11" r="Q87"/>
-    </row>
-    <row ht="32.25" r="88" customHeight="1">
-      <c s="15" r="A88"/>
-      <c t="s" s="14" r="B88">
+      <c r="F87" s="8"/>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+    </row>
+    <row r="88" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="12" r="D88">
+      <c r="D88" s="8" t="s">
         <v>202</v>
       </c>
-      <c t="s" s="12" r="F88">
+      <c r="F88" s="8" t="s">
         <v>203</v>
       </c>
-      <c t="s" r="G88">
+      <c r="G88" t="s">
         <v>204</v>
       </c>
-      <c t="b" r="K88">
-        <v>1</v>
-      </c>
-      <c s="11" r="L88"/>
-      <c s="11" r="M88"/>
-      <c s="11" r="N88"/>
-      <c s="11" r="O88"/>
-      <c s="11" r="P88"/>
-      <c s="11" r="Q88"/>
-    </row>
-    <row ht="32.25" r="89" customHeight="1">
-      <c s="15" r="A89"/>
-      <c t="s" s="14" r="B89">
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+    </row>
+    <row r="89" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="12" r="F89"/>
-      <c t="b" r="K89">
-        <v>1</v>
-      </c>
-      <c s="11" r="L89"/>
-      <c s="11" r="M89"/>
-      <c s="11" r="N89"/>
-      <c s="11" r="O89"/>
-      <c s="11" r="P89"/>
-      <c s="11" r="Q89"/>
-    </row>
-    <row ht="32.25" r="90" customHeight="1">
-      <c s="15" r="A90"/>
-      <c t="s" s="14" r="B90">
+      <c r="F89" s="8"/>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+    </row>
+    <row r="90" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="9" t="s">
         <v>120</v>
       </c>
-      <c s="14" r="D90"/>
-      <c t="s" s="12" r="F90">
+      <c r="D90" s="9"/>
+      <c r="F90" s="8" t="s">
         <v>205</v>
       </c>
-      <c t="s" r="G90">
+      <c r="G90" t="s">
         <v>206</v>
       </c>
-      <c s="11" r="L90"/>
-      <c s="11" r="M90"/>
-      <c s="11" r="N90"/>
-      <c s="11" r="O90"/>
-      <c s="11" r="P90"/>
-      <c s="11" r="Q90"/>
-    </row>
-    <row ht="32.25" r="91" customHeight="1">
-      <c s="15" r="A91"/>
-      <c t="s" s="14" r="B91">
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+    </row>
+    <row r="91" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D91">
+      <c r="D91" t="s">
         <v>207</v>
       </c>
-      <c t="s" s="14" r="F91">
+      <c r="F91" s="9" t="s">
         <v>208</v>
       </c>
-      <c t="s" r="G91">
+      <c r="G91" t="s">
         <v>209</v>
       </c>
-      <c t="b" r="K91">
-        <v>1</v>
-      </c>
-      <c t="s" s="11" r="L91">
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="7" t="s">
         <v>210</v>
       </c>
-      <c t="s" s="11" r="M91">
+      <c r="M91" s="7" t="s">
         <v>211</v>
       </c>
-      <c t="s" s="11" r="N91">
+      <c r="N91" s="7" t="s">
         <v>212</v>
       </c>
-      <c s="11" r="O91"/>
-      <c s="11" r="P91"/>
-      <c s="11" r="Q91"/>
-    </row>
-    <row ht="32.25" r="92" customHeight="1">
-      <c s="15" r="A92"/>
-      <c t="s" s="14" r="B92">
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+    </row>
+    <row r="92" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D92">
+      <c r="D92" t="s">
         <v>213</v>
       </c>
-      <c t="s" s="14" r="F92">
+      <c r="F92" s="9" t="s">
         <v>214</v>
       </c>
-      <c t="s" r="G92">
+      <c r="G92" t="s">
         <v>215</v>
       </c>
-      <c t="b" r="K92">
-        <v>1</v>
-      </c>
-      <c s="11" r="L92"/>
-      <c s="11" r="M92"/>
-      <c s="11" r="N92"/>
-      <c s="11" r="O92"/>
-      <c s="11" r="P92"/>
-      <c s="11" r="Q92"/>
-    </row>
-    <row ht="32.25" r="93" customHeight="1">
-      <c s="15" r="A93"/>
-      <c t="s" s="14" r="B93">
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+    </row>
+    <row r="93" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="9" t="s">
         <v>68</v>
       </c>
-      <c s="7" r="H93"/>
-      <c t="b" r="K93">
-        <v>1</v>
-      </c>
-      <c s="11" r="L93"/>
-      <c s="11" r="M93"/>
-      <c s="11" r="N93"/>
-      <c s="11" r="O93"/>
-      <c s="11" r="P93"/>
-      <c s="11" r="Q93"/>
-    </row>
-    <row ht="32.25" r="94" customHeight="1">
-      <c s="15" r="A94"/>
-      <c t="s" s="14" r="B94">
+      <c r="H93" s="4"/>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+    </row>
+    <row r="94" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="14" r="D94">
+      <c r="D94" s="9" t="s">
         <v>216</v>
       </c>
-      <c t="s" r="F94">
+      <c r="F94" t="s">
         <v>217</v>
       </c>
-      <c t="s" r="G94">
+      <c r="G94" t="s">
         <v>218</v>
       </c>
-      <c s="7" r="H94"/>
-      <c t="b" r="K94">
-        <v>1</v>
-      </c>
-      <c s="11" r="L94"/>
-      <c s="11" r="M94"/>
-      <c s="11" r="N94"/>
-      <c s="11" r="O94"/>
-      <c s="11" r="P94"/>
-      <c s="11" r="Q94"/>
-    </row>
-    <row ht="32.25" r="95" customHeight="1">
-      <c s="15" r="A95"/>
-      <c t="s" s="14" r="B95">
+      <c r="H94" s="4"/>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+    </row>
+    <row r="95" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="9" t="s">
         <v>219</v>
       </c>
-      <c t="s" s="12" r="D95">
+      <c r="D95" s="8" t="s">
         <v>220</v>
       </c>
-      <c t="s" r="F95">
+      <c r="F95" t="s">
         <v>221</v>
       </c>
-      <c t="s" r="G95">
+      <c r="G95" t="s">
         <v>222</v>
       </c>
-      <c s="7" r="H95"/>
-      <c t="s" r="J95">
+      <c r="H95" s="4"/>
+      <c r="J95" t="s">
         <v>223</v>
       </c>
-      <c t="b" r="K95">
-        <v>1</v>
-      </c>
-      <c s="11" r="L95"/>
-      <c s="11" r="M95"/>
-      <c s="11" r="N95"/>
-      <c s="11" r="O95"/>
-      <c s="11" r="P95"/>
-      <c s="11" r="Q95"/>
-    </row>
-    <row ht="32.25" r="96" customHeight="1">
-      <c s="15" r="A96"/>
-      <c t="s" s="14" r="B96">
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+    </row>
+    <row r="96" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+      <c r="B96" s="9" t="s">
         <v>224</v>
       </c>
-      <c t="s" s="12" r="C96">
+      <c r="C96" s="8" t="s">
         <v>225</v>
       </c>
-      <c t="b" r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="97" customHeight="1">
-      <c t="s" s="15" r="A97">
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
         <v>226</v>
       </c>
-      <c t="s" s="14" r="B97">
+      <c r="B97" s="9" t="s">
         <v>227</v>
       </c>
-      <c t="s" s="12" r="C97">
+      <c r="C97" s="8" t="s">
         <v>228</v>
       </c>
-      <c t="b" r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="98" customHeight="1">
-      <c s="15" r="A98"/>
-      <c t="s" s="14" r="B98">
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="9" t="s">
         <v>199</v>
       </c>
-      <c s="12" r="C98"/>
-    </row>
-    <row ht="32.25" r="99" customHeight="1">
-      <c s="15" r="A99"/>
-      <c t="s" s="2" r="B99">
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+      <c r="B99" s="1" t="s">
         <v>229</v>
       </c>
-      <c s="12" r="C99"/>
-      <c s="12" r="D99"/>
-      <c s="7" r="F99"/>
-      <c t="b" r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="100" customHeight="1">
-      <c s="15" r="A100"/>
-      <c t="s" s="14" r="B100">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="F99" s="4"/>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C100"/>
-      <c t="s" s="14" r="D100">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9" t="s">
         <v>230</v>
       </c>
-      <c t="b" r="E100">
-        <v>1</v>
-      </c>
-      <c s="6" r="F100"/>
-    </row>
-    <row ht="32.25" r="101" customHeight="1">
-      <c s="15" r="A101"/>
-      <c t="s" s="14" r="B101">
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
+      <c r="B101" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="12" r="C101">
+      <c r="C101" s="8" t="s">
         <v>231</v>
       </c>
-      <c s="14" r="D101"/>
-      <c t="s" r="F101">
+      <c r="D101" s="9"/>
+      <c r="F101" t="s">
         <v>232</v>
       </c>
-      <c t="s" r="G101">
+      <c r="G101" t="s">
         <v>233</v>
       </c>
-      <c t="s" r="H101">
+      <c r="H101" t="s">
         <v>234</v>
       </c>
-      <c t="s" r="I101">
+      <c r="I101" t="s">
         <v>235</v>
       </c>
-      <c t="b" r="K101">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="102" customHeight="1">
-      <c s="15" r="A102"/>
-      <c t="s" s="14" r="B102">
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C102"/>
-      <c t="s" s="14" r="D102">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9" t="s">
         <v>236</v>
       </c>
-      <c t="b" r="E102">
-        <v>1</v>
-      </c>
-      <c s="6" r="F102"/>
-    </row>
-    <row ht="32.25" r="103" customHeight="1">
-      <c s="15" r="A103"/>
-      <c t="s" s="14" r="B103">
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="12" r="C103">
+      <c r="C103" s="8" t="s">
         <v>237</v>
       </c>
-      <c s="14" r="D103"/>
-      <c t="s" r="F103">
+      <c r="D103" s="9"/>
+      <c r="F103" t="s">
         <v>238</v>
       </c>
-      <c t="s" r="G103">
+      <c r="G103" t="s">
         <v>239</v>
       </c>
-      <c t="s" r="H103">
+      <c r="H103" t="s">
         <v>240</v>
       </c>
-      <c t="s" r="I103">
+      <c r="I103" t="s">
         <v>241</v>
       </c>
-      <c t="b" r="K103">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="104" customHeight="1">
-      <c s="15" r="A104"/>
-      <c t="s" r="B104">
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" t="s">
         <v>54</v>
       </c>
     </row>
-    <row ht="32.25" r="105" customHeight="1">
-      <c s="15" r="A105"/>
-      <c t="s" r="B105">
+    <row r="105" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D105">
+      <c r="D105" t="s">
         <v>242</v>
       </c>
-      <c t="s" r="F105">
+      <c r="F105" t="s">
         <v>243</v>
       </c>
-      <c t="s" r="G105">
+      <c r="G105" t="s">
         <v>244</v>
       </c>
-      <c t="b" r="K105">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="106" customHeight="1">
-      <c s="15" r="A106"/>
-      <c t="s" r="B106">
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+      <c r="B106" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D106">
+      <c r="D106" t="s">
         <v>163</v>
       </c>
-      <c t="s" r="F106">
+      <c r="F106" t="s">
         <v>245</v>
       </c>
-      <c t="s" r="G106">
+      <c r="G106" t="s">
         <v>246</v>
       </c>
-      <c t="b" r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="107" customHeight="1">
-      <c s="15" r="A107"/>
-      <c t="s" r="B107">
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D107">
+      <c r="D107" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="F107">
+      <c r="F107" t="s">
         <v>247</v>
       </c>
-      <c t="s" r="G107">
+      <c r="G107" t="s">
         <v>248</v>
       </c>
-      <c t="b" r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="108" customHeight="1">
-      <c s="15" r="A108"/>
-      <c t="s" r="B108">
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D108">
+      <c r="D108" t="s">
         <v>249</v>
       </c>
-      <c t="s" r="F108">
+      <c r="F108" t="s">
         <v>250</v>
       </c>
-      <c t="s" r="G108">
+      <c r="G108" t="s">
         <v>251</v>
       </c>
-      <c t="b" r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="109" customHeight="1">
-      <c s="15" r="A109"/>
-      <c t="s" r="B109">
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" t="s">
         <v>68</v>
       </c>
     </row>
-    <row ht="32.25" r="110" customHeight="1">
-      <c s="15" r="A110"/>
-      <c t="s" r="B110">
+    <row r="110" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" t="s">
         <v>252</v>
       </c>
-      <c t="b" r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="111" customHeight="1">
-      <c s="15" r="A111"/>
-      <c t="s" s="2" r="B111">
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="1" t="s">
         <v>253</v>
       </c>
-      <c s="12" r="C111"/>
-      <c s="12" r="D111"/>
-      <c s="7" r="F111"/>
-      <c t="b" r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="112" customHeight="1">
-      <c s="15" r="A112"/>
-      <c t="s" s="14" r="B112">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="F111" s="4"/>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C112"/>
-      <c t="s" s="14" r="D112">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9" t="s">
         <v>254</v>
       </c>
-      <c t="b" r="E112">
-        <v>1</v>
-      </c>
-      <c s="6" r="F112"/>
-    </row>
-    <row ht="32.25" r="113" customHeight="1">
-      <c s="15" r="A113"/>
-      <c t="s" s="14" r="B113">
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="12" r="C113"/>
-      <c s="14" r="D113"/>
-    </row>
-    <row ht="32.25" r="114" customHeight="1">
-      <c s="15" r="A114"/>
-      <c t="s" s="14" r="B114">
+      <c r="C113" s="8"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="10"/>
+      <c r="B114" s="9" t="s">
         <v>120</v>
       </c>
-      <c s="12" r="C114"/>
-      <c s="14" r="D114"/>
-      <c t="s" r="F114">
+      <c r="C114" s="8"/>
+      <c r="D114" s="9"/>
+      <c r="F114" t="s">
         <v>255</v>
       </c>
-      <c t="s" r="G114">
+      <c r="G114" t="s">
         <v>256</v>
       </c>
-      <c t="s" r="H114">
+      <c r="H114" t="s">
         <v>257</v>
       </c>
-      <c t="s" r="I114">
+      <c r="I114" t="s">
         <v>258</v>
       </c>
-      <c t="b" r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="115" customHeight="1">
-      <c s="15" r="A115"/>
-      <c t="s" r="B115">
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
+      <c r="B115" t="s">
         <v>153</v>
       </c>
-      <c s="12" r="C115"/>
-      <c t="s" r="D115">
+      <c r="C115" s="8"/>
+      <c r="D115" t="s">
         <v>259</v>
       </c>
-      <c t="s" r="F115">
+      <c r="F115" t="s">
         <v>260</v>
       </c>
-      <c t="s" s="11" r="G115">
+      <c r="G115" s="7" t="s">
         <v>261</v>
       </c>
-      <c t="b" r="K115">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="116" customHeight="1">
-      <c s="15" r="A116"/>
-      <c t="s" r="B116">
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+      <c r="B116" t="s">
         <v>68</v>
       </c>
     </row>
-    <row ht="32.25" r="117" customHeight="1">
-      <c s="15" r="A117"/>
-      <c t="s" s="10" r="B117">
+    <row r="117" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+      <c r="B117" s="6" t="s">
         <v>262</v>
       </c>
-      <c t="b" r="K117">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="118" customHeight="1">
-      <c s="15" r="A118"/>
-      <c t="s" s="8" r="B118">
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="5" t="s">
         <v>263</v>
       </c>
-      <c t="b" r="K118">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="119" customHeight="1">
-      <c s="15" r="A119"/>
-      <c t="s" s="14" r="B119">
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+      <c r="B119" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C119"/>
-      <c t="s" s="14" r="D119">
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
         <v>264</v>
       </c>
-      <c t="b" r="E119">
-        <v>1</v>
-      </c>
-      <c s="6" r="F119"/>
-    </row>
-    <row ht="32.25" r="120" customHeight="1">
-      <c s="15" r="A120"/>
-      <c t="s" r="B120">
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="C120">
+      <c r="C120" t="s">
         <v>265</v>
       </c>
     </row>
-    <row ht="32.25" r="121" customHeight="1">
-      <c s="15" r="A121"/>
-      <c t="s" s="14" r="B121">
+    <row r="121" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="9" t="s">
         <v>120</v>
       </c>
-      <c s="12" r="C121"/>
-      <c s="14" r="D121"/>
-      <c t="s" r="F121">
+      <c r="C121" s="8"/>
+      <c r="D121" s="9"/>
+      <c r="F121" t="s">
         <v>266</v>
       </c>
-      <c t="s" s="11" r="G121">
+      <c r="G121" s="7" t="s">
         <v>267</v>
       </c>
-      <c t="s" r="H121">
+      <c r="H121" t="s">
         <v>268</v>
       </c>
-      <c t="s" r="I121">
+      <c r="I121" t="s">
         <v>269</v>
       </c>
-      <c t="b" r="K121">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="122" customHeight="1">
-      <c t="s" s="15" r="A122">
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>270</v>
       </c>
-      <c t="s" r="B122">
+      <c r="B122" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D122">
+      <c r="D122" t="s">
         <v>271</v>
       </c>
-      <c t="s" r="F122">
+      <c r="F122" t="s">
         <v>272</v>
       </c>
-      <c t="s" r="G122">
+      <c r="G122" t="s">
         <v>244</v>
       </c>
     </row>
-    <row ht="32.25" r="123" customHeight="1">
-      <c s="15" r="A123"/>
-      <c t="s" r="B123">
+    <row r="123" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D123">
+      <c r="D123" t="s">
         <v>163</v>
       </c>
-      <c t="s" r="F123">
+      <c r="F123" t="s">
         <v>273</v>
       </c>
-      <c t="s" r="G123">
+      <c r="G123" t="s">
         <v>246</v>
       </c>
-      <c t="b" r="K123">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="124" customHeight="1">
-      <c s="15" r="A124"/>
-      <c t="s" r="B124">
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D124">
+      <c r="D124" t="s">
         <v>157</v>
       </c>
-      <c t="s" r="F124">
+      <c r="F124" t="s">
         <v>274</v>
       </c>
-      <c t="s" r="G124">
+      <c r="G124" t="s">
         <v>248</v>
       </c>
     </row>
-    <row ht="32.25" r="125" customHeight="1">
-      <c t="s" s="15" r="A125">
+    <row r="125" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
         <v>275</v>
       </c>
-      <c t="s" r="B125">
+      <c r="B125" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D125">
+      <c r="D125" t="s">
         <v>249</v>
       </c>
-      <c t="s" r="F125">
+      <c r="F125" t="s">
         <v>250</v>
       </c>
-      <c t="s" r="G125">
+      <c r="G125" t="s">
         <v>251</v>
       </c>
-      <c t="b" r="K125">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="126" customHeight="1">
-      <c s="15" r="A126"/>
-      <c t="s" r="B126">
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+      <c r="B126" t="s">
         <v>68</v>
       </c>
     </row>
-    <row ht="32.25" r="127" customHeight="1">
-      <c s="15" r="A127"/>
-      <c t="s" s="10" r="B127">
+    <row r="127" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+      <c r="B127" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row ht="32.25" r="128" customHeight="1">
-      <c s="15" r="A128"/>
-      <c t="s" s="8" r="B128">
+    <row r="128" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10"/>
+      <c r="B128" s="5" t="s">
         <v>277</v>
       </c>
-      <c t="b" r="K128">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="129" customHeight="1">
-      <c s="15" r="A129"/>
-      <c t="s" s="14" r="B129">
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+      <c r="B129" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D129">
+      <c r="D129" t="s">
         <v>278</v>
       </c>
-      <c t="s" r="F129">
+      <c r="F129" t="s">
         <v>279</v>
       </c>
-      <c t="s" r="G129">
+      <c r="G129" t="s">
         <v>280</v>
       </c>
-      <c t="b" r="K129">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="130" customHeight="1">
-      <c s="15" r="A130"/>
-      <c t="s" s="14" r="B130">
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D130">
+      <c r="D130" t="s">
         <v>281</v>
       </c>
-      <c t="s" r="F130">
+      <c r="F130" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="7" r="G130">
+      <c r="G130" s="4" t="s">
         <v>283</v>
       </c>
-      <c t="b" r="K130">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="131" customHeight="1">
-      <c s="15" r="A131"/>
-      <c t="s" s="14" r="B131">
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+      <c r="B131" s="9" t="s">
         <v>284</v>
       </c>
-      <c t="s" r="C131">
+      <c r="C131" t="s">
         <v>285</v>
       </c>
-      <c t="s" r="D131">
+      <c r="D131" t="s">
         <v>286</v>
       </c>
-      <c t="s" r="F131">
+      <c r="F131" t="s">
         <v>287</v>
       </c>
-      <c t="s" s="7" r="G131">
+      <c r="G131" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row ht="32.25" r="132" customHeight="1">
-      <c s="15" r="A132"/>
-      <c t="s" s="14" r="B132">
+    <row r="132" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+      <c r="B132" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="6" r="G132"/>
-    </row>
-    <row ht="32.25" r="133" customHeight="1">
-      <c s="15" r="A133"/>
-      <c t="s" s="14" r="B133">
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
+      <c r="B133" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D133">
+      <c r="D133" t="s">
         <v>289</v>
       </c>
-      <c t="s" r="F133">
+      <c r="F133" t="s">
         <v>290</v>
       </c>
-      <c t="s" s="6" r="G133">
+      <c r="G133" s="3" t="s">
         <v>291</v>
       </c>
-      <c t="b" r="K133">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="134" customHeight="1">
-      <c t="s" s="15" r="A134">
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
         <v>292</v>
       </c>
-      <c t="s" s="14" r="B134">
+      <c r="B134" s="9" t="s">
         <v>284</v>
       </c>
-      <c t="s" r="C134">
+      <c r="C134" t="s">
         <v>293</v>
       </c>
-      <c t="s" r="D134">
+      <c r="D134" t="s">
         <v>294</v>
       </c>
-      <c t="s" r="F134">
+      <c r="F134" t="s">
         <v>295</v>
       </c>
-      <c t="s" s="7" r="G134">
+      <c r="G134" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row ht="32.25" r="135" customHeight="1">
-      <c s="15" r="A135"/>
-      <c t="s" s="14" r="B135">
+    <row r="135" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="10"/>
+      <c r="B135" s="9" t="s">
         <v>68</v>
       </c>
-      <c s="6" r="G135"/>
-    </row>
-    <row ht="32.25" r="136" customHeight="1">
-      <c t="s" s="15" r="A136">
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
         <v>297</v>
       </c>
-      <c t="s" s="14" r="B136">
+      <c r="B136" s="9" t="s">
         <v>298</v>
       </c>
-      <c t="s" r="D136">
+      <c r="D136" t="s">
         <v>299</v>
       </c>
-      <c t="s" r="F136">
+      <c r="F136" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="6" r="G136">
+      <c r="G136" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row ht="32.25" r="137" customHeight="1">
-      <c t="s" s="15" r="A137">
+    <row r="137" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
         <v>302</v>
       </c>
-      <c t="s" s="14" r="B137">
+      <c r="B137" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D137">
+      <c r="D137" t="s">
         <v>303</v>
       </c>
-      <c t="s" r="F137">
+      <c r="F137" t="s">
         <v>304</v>
       </c>
-      <c t="s" r="G137">
+      <c r="G137" t="s">
         <v>305</v>
       </c>
-      <c t="b" r="K137">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="138" customHeight="1">
-      <c t="s" s="15" r="A138">
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
         <v>306</v>
       </c>
-      <c t="s" r="B138">
+      <c r="B138" t="s">
         <v>39</v>
       </c>
-      <c t="b" r="C138">
+      <c r="C138" t="b">
         <v>0</v>
       </c>
-      <c t="s" r="D138">
+      <c r="D138" t="s">
         <v>307</v>
       </c>
-      <c t="s" r="F138">
+      <c r="F138" t="s">
         <v>308</v>
       </c>
-      <c t="s" r="G138">
+      <c r="G138" t="s">
         <v>309</v>
       </c>
     </row>
-    <row ht="32.25" r="139" customHeight="1">
-      <c s="15" r="A139"/>
-      <c t="s" r="B139">
+    <row r="139" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" t="s">
         <v>310</v>
       </c>
-      <c t="s" r="C139">
+      <c r="C139" t="s">
         <v>311</v>
       </c>
-      <c s="7" r="G139"/>
-    </row>
-    <row ht="32.25" r="140" customHeight="1">
-      <c s="15" r="A140"/>
-      <c t="s" r="B140">
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" t="s">
         <v>310</v>
       </c>
-      <c t="s" r="C140">
+      <c r="C140" t="s">
         <v>312</v>
       </c>
-      <c s="7" r="G140"/>
-    </row>
-    <row ht="32.25" r="141" customHeight="1">
-      <c t="s" s="15" r="A141">
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>313</v>
       </c>
-      <c t="s" r="B141">
+      <c r="B141" t="s">
         <v>153</v>
       </c>
-      <c t="s" r="D141">
+      <c r="D141" t="s">
         <v>314</v>
       </c>
-      <c t="s" r="F141">
+      <c r="F141" t="s">
         <v>315</v>
       </c>
-      <c t="s" r="G141">
+      <c r="G141" t="s">
         <v>316</v>
       </c>
-      <c t="b" r="K141">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="142" customHeight="1">
-      <c s="15" r="A142"/>
-      <c t="s" r="B142">
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+      <c r="B142" t="s">
         <v>54</v>
       </c>
     </row>
-    <row ht="32.25" r="143" customHeight="1">
-      <c s="15" r="A143"/>
-      <c t="s" r="B143">
+    <row r="143" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
+      <c r="B143" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D143">
+      <c r="D143" t="s">
         <v>317</v>
       </c>
-      <c t="s" r="F143">
+      <c r="F143" t="s">
         <v>318</v>
       </c>
-      <c t="s" r="G143">
+      <c r="G143" t="s">
         <v>319</v>
       </c>
     </row>
-    <row ht="32.25" r="144" customHeight="1">
-      <c s="15" r="A144"/>
-      <c t="s" s="12" r="B144">
+    <row r="144" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
+      <c r="B144" s="8" t="s">
         <v>320</v>
       </c>
-      <c t="s" s="12" r="C144">
+      <c r="C144" s="8" t="s">
         <v>321</v>
       </c>
-      <c t="s" s="12" r="D144">
+      <c r="D144" s="8" t="s">
         <v>322</v>
       </c>
-      <c t="s" s="7" r="F144">
+      <c r="F144" s="4" t="s">
         <v>323</v>
       </c>
-      <c t="s" r="G144">
+      <c r="G144" t="s">
         <v>324</v>
       </c>
-      <c t="s" s="7" r="H144">
+      <c r="H144" s="4" t="s">
         <v>325</v>
       </c>
-      <c t="s" s="7" r="I144">
+      <c r="I144" s="4" t="s">
         <v>326</v>
       </c>
-      <c s="11" r="L144"/>
-      <c s="11" r="M144"/>
-      <c s="11" r="N144"/>
-      <c s="11" r="O144"/>
-      <c s="11" r="P144"/>
-      <c s="11" r="Q144"/>
-    </row>
-    <row ht="32.25" r="145" customHeight="1">
-      <c s="15" r="A145"/>
-      <c t="s" s="12" r="B145">
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+    </row>
+    <row r="145" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="10"/>
+      <c r="B145" s="8" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="C145"/>
-      <c s="14" r="D145"/>
-      <c s="7" r="F145"/>
-      <c s="7" r="H145"/>
-      <c s="6" r="I145"/>
-      <c s="11" r="L145"/>
-      <c s="11" r="M145"/>
-      <c s="11" r="N145"/>
-      <c s="11" r="O145"/>
-      <c s="11" r="P145"/>
-      <c s="11" r="Q145"/>
-    </row>
-    <row ht="32.25" r="146" customHeight="1">
-      <c s="15" r="A146"/>
-      <c t="s" s="12" r="B146">
+      <c r="C145" s="8"/>
+      <c r="D145" s="9"/>
+      <c r="F145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="3"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+    </row>
+    <row r="146" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="10"/>
+      <c r="B146" s="8" t="s">
         <v>327</v>
       </c>
-      <c s="12" r="C146"/>
-      <c t="s" s="14" r="D146">
+      <c r="C146" s="8"/>
+      <c r="D146" s="9" t="s">
         <v>328</v>
       </c>
-      <c t="s" s="7" r="F146">
+      <c r="F146" s="4" t="s">
         <v>329</v>
       </c>
-      <c t="s" r="G146">
+      <c r="G146" t="s">
         <v>330</v>
       </c>
-      <c t="s" s="7" r="H146">
+      <c r="H146" s="4" t="s">
         <v>331</v>
       </c>
-      <c t="s" s="6" r="I146">
+      <c r="I146" s="3" t="s">
         <v>332</v>
       </c>
-      <c t="b" r="K146">
-        <v>1</v>
-      </c>
-      <c s="11" r="L146"/>
-      <c s="11" r="M146"/>
-      <c s="11" r="N146"/>
-      <c s="11" r="O146"/>
-      <c s="11" r="P146"/>
-      <c s="11" r="Q146"/>
-    </row>
-    <row ht="32.25" r="147" customHeight="1">
-      <c s="15" r="A147"/>
-      <c t="s" s="2" r="B147">
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+    </row>
+    <row r="147" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
+      <c r="B147" s="1" t="s">
         <v>333</v>
       </c>
-      <c s="14" r="C147"/>
-      <c s="14" r="D147"/>
-      <c s="6" r="F147"/>
-      <c s="7" r="H147"/>
-      <c s="6" r="I147"/>
-      <c s="11" r="L147"/>
-      <c s="11" r="M147"/>
-      <c s="11" r="N147"/>
-      <c s="11" r="O147"/>
-      <c s="11" r="P147"/>
-      <c s="11" r="Q147"/>
-    </row>
-    <row ht="32.25" r="148" customHeight="1">
-      <c t="s" s="15" r="A148">
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="F147" s="3"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="3"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+    </row>
+    <row r="148" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
         <v>334</v>
       </c>
-      <c t="s" s="14" r="B148">
+      <c r="B148" s="9" t="s">
         <v>55</v>
       </c>
-      <c s="14" r="C148"/>
-      <c t="s" s="14" r="D148">
+      <c r="C148" s="9"/>
+      <c r="D148" s="9" t="s">
         <v>335</v>
       </c>
-      <c t="s" s="14" r="F148">
+      <c r="F148" s="9" t="s">
         <v>336</v>
       </c>
-      <c t="s" r="G148">
+      <c r="G148" t="s">
         <v>337</v>
       </c>
-      <c s="7" r="H148"/>
-      <c s="6" r="I148"/>
-      <c t="b" r="K148">
-        <v>1</v>
-      </c>
-      <c s="11" r="L148"/>
-      <c s="11" r="M148"/>
-      <c s="11" r="N148"/>
-      <c s="11" r="O148"/>
-      <c s="11" r="P148"/>
-      <c s="11" r="Q148"/>
-    </row>
-    <row ht="32.25" r="149" customHeight="1">
-      <c s="15" r="A149"/>
-      <c t="s" s="14" r="B149">
+      <c r="H148" s="4"/>
+      <c r="I148" s="3"/>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+    </row>
+    <row r="149" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
+      <c r="B149" s="9" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="D149">
+      <c r="D149" t="s">
         <v>338</v>
       </c>
-      <c t="s" r="F149">
+      <c r="F149" t="s">
         <v>339</v>
       </c>
-      <c t="s" r="G149">
+      <c r="G149" t="s">
         <v>340</v>
       </c>
-      <c t="b" r="K149">
-        <v>1</v>
-      </c>
-    </row>
-    <row ht="32.25" r="150" customHeight="1">
-      <c t="s" s="15" r="A150">
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
         <v>341</v>
       </c>
-      <c t="s" s="14" r="B150">
+      <c r="B150" s="9" t="s">
         <v>342</v>
       </c>
-      <c t="s" r="C150">
+      <c r="C150" t="s">
         <v>343</v>
       </c>
-      <c t="s" r="D150">
+      <c r="D150" t="s">
         <v>344</v>
       </c>
-      <c t="s" r="F150">
+      <c r="F150" t="s">
         <v>345</v>
       </c>
-      <c t="s" r="G150">
+      <c r="G150" t="s">
         <v>346</v>
       </c>
     </row>
-    <row ht="32.25" r="151" customHeight="1">
-      <c t="s" s="15" r="A151">
+    <row r="151" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
         <v>347</v>
       </c>
-      <c t="s" s="14" r="B151">
+      <c r="B151" s="9" t="s">
         <v>348</v>
       </c>
-      <c t="s" s="12" r="C151">
+      <c r="C151" s="8" t="s">
         <v>349</v>
       </c>
-      <c s="14" r="D151"/>
-      <c s="14" r="F151"/>
-      <c s="7" r="H151"/>
-      <c s="6" r="I151"/>
-      <c t="b" r="K151">
-        <v>1</v>
-      </c>
-      <c s="11" r="L151"/>
-      <c s="11" r="M151"/>
-      <c s="11" r="N151"/>
-      <c s="11" r="O151"/>
-      <c s="11" r="P151"/>
-      <c s="11" r="Q151"/>
-    </row>
-    <row ht="32.25" r="152" customHeight="1">
-      <c s="15" r="A152"/>
-      <c t="s" s="14" r="B152">
+      <c r="D151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+    </row>
+    <row r="152" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
+      <c r="B152" s="9" t="s">
         <v>350</v>
       </c>
-      <c t="s" s="12" r="C152">
+      <c r="C152" s="8" t="s">
         <v>351</v>
       </c>
-      <c s="14" r="D152"/>
-      <c s="6" r="E152"/>
-      <c s="14" r="F152"/>
-      <c s="7" r="G152"/>
-      <c s="7" r="H152"/>
-      <c s="6" r="I152"/>
-      <c t="b" r="K152">
-        <v>1</v>
-      </c>
-      <c s="11" r="L152"/>
-      <c s="11" r="M152"/>
-      <c s="11" r="N152"/>
-      <c s="11" r="O152"/>
-      <c s="11" r="P152"/>
-      <c s="11" r="Q152"/>
-    </row>
-    <row ht="32.25" r="153" customHeight="1">
-      <c s="15" r="A153"/>
-      <c t="s" s="14" r="B153">
+      <c r="D152" s="9"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="3"/>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+    </row>
+    <row r="153" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+      <c r="B153" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C153"/>
-      <c t="s" s="14" r="D153">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9" t="s">
         <v>352</v>
       </c>
-      <c t="b" r="E153">
-        <v>1</v>
-      </c>
-      <c s="6" r="F153"/>
-    </row>
-    <row ht="32.25" r="154" customHeight="1">
-      <c s="15" r="A154"/>
-      <c t="s" s="14" r="B154">
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+      <c r="B154" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="14" r="C154"/>
-      <c s="14" r="D154"/>
-      <c s="6" r="E154"/>
-      <c s="7" r="G154"/>
-      <c s="7" r="H154"/>
-      <c s="6" r="I154"/>
-      <c s="11" r="L154"/>
-      <c s="11" r="M154"/>
-      <c s="11" r="N154"/>
-      <c s="11" r="O154"/>
-      <c s="11" r="P154"/>
-      <c s="11" r="Q154"/>
-    </row>
-    <row ht="32.25" r="155" customHeight="1">
-      <c s="15" r="A155"/>
-      <c t="s" s="14" r="B155">
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="3"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="3"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7"/>
+    </row>
+    <row r="155" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="B155" s="9" t="s">
         <v>120</v>
       </c>
-      <c s="14" r="C155"/>
-      <c s="14" r="D155"/>
-      <c t="s" r="F155">
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="F155" t="s">
         <v>353</v>
       </c>
-      <c t="s" r="G155">
+      <c r="G155" t="s">
         <v>354</v>
       </c>
-      <c t="s" s="7" r="H155">
+      <c r="H155" s="4" t="s">
         <v>355</v>
       </c>
-      <c t="s" s="6" r="I155">
+      <c r="I155" s="3" t="s">
         <v>356</v>
       </c>
-      <c t="b" r="K155">
-        <v>1</v>
-      </c>
-      <c s="11" r="L155"/>
-      <c s="11" r="M155"/>
-      <c s="11" r="N155"/>
-      <c s="11" r="O155"/>
-      <c s="11" r="P155"/>
-      <c s="11" r="Q155"/>
-    </row>
-    <row ht="32.25" r="156" customHeight="1">
-      <c s="15" r="A156"/>
-      <c t="s" s="12" r="B156">
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+    </row>
+    <row r="156" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="8" t="s">
         <v>153</v>
       </c>
-      <c s="14" r="C156"/>
-      <c t="s" s="14" r="D156">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9" t="s">
         <v>357</v>
       </c>
-      <c t="s" r="F156">
+      <c r="F156" t="s">
         <v>358</v>
       </c>
-      <c t="s" r="G156">
+      <c r="G156" t="s">
         <v>359</v>
       </c>
-      <c s="11" r="L156"/>
-      <c s="11" r="M156"/>
-      <c s="11" r="N156"/>
-      <c s="11" r="O156"/>
-      <c s="11" r="P156"/>
-      <c s="11" r="Q156"/>
-    </row>
-    <row ht="32.25" r="157" customHeight="1">
-      <c s="15" r="A157"/>
-      <c t="s" s="12" r="B157">
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+    </row>
+    <row r="157" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+      <c r="B157" s="8" t="s">
         <v>153</v>
       </c>
-      <c s="12" r="C157"/>
-      <c t="s" s="12" r="D157">
+      <c r="C157" s="8"/>
+      <c r="D157" s="8" t="s">
         <v>360</v>
       </c>
-      <c t="s" s="7" r="F157">
+      <c r="F157" s="4" t="s">
         <v>361</v>
       </c>
-      <c t="s" r="G157">
+      <c r="G157" t="s">
         <v>362</v>
       </c>
-      <c t="b" r="K157">
-        <v>1</v>
-      </c>
-      <c s="11" r="L157"/>
-      <c s="11" r="M157"/>
-      <c s="11" r="N157"/>
-      <c s="11" r="O157"/>
-      <c s="11" r="P157"/>
-      <c s="11" r="Q157"/>
-    </row>
-    <row ht="32.25" r="158" customHeight="1">
-      <c s="15" r="A158"/>
-      <c t="s" s="12" r="B158">
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+    </row>
+    <row r="158" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="8" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="C158"/>
-      <c s="12" r="D158"/>
-      <c s="7" r="E158"/>
-      <c s="7" r="F158"/>
-      <c s="7" r="G158"/>
-      <c s="11" r="L158"/>
-      <c s="11" r="M158"/>
-      <c s="11" r="N158"/>
-      <c s="11" r="O158"/>
-      <c s="11" r="P158"/>
-      <c s="11" r="Q158"/>
-    </row>
-    <row ht="32.25" r="159" customHeight="1">
-      <c s="15" r="A159"/>
-      <c t="s" s="12" r="B159">
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+    </row>
+    <row r="159" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+      <c r="B159" s="8" t="s">
         <v>363</v>
       </c>
-      <c s="12" r="C159"/>
-      <c s="12" r="D159"/>
-      <c s="7" r="E159"/>
-      <c s="7" r="F159"/>
-      <c s="7" r="G159"/>
-      <c s="7" r="H159"/>
-      <c s="7" r="I159"/>
-      <c t="b" r="K159">
-        <v>1</v>
-      </c>
-      <c s="11" r="L159"/>
-      <c s="11" r="M159"/>
-      <c s="11" r="N159"/>
-      <c s="11" r="O159"/>
-      <c s="11" r="P159"/>
-      <c s="11" r="Q159"/>
-    </row>
-    <row ht="32.25" r="160" customHeight="1">
-      <c s="15" r="A160"/>
-      <c t="s" s="2" r="B160">
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+    </row>
+    <row r="160" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="1" t="s">
         <v>364</v>
       </c>
-      <c s="12" r="C160"/>
-      <c s="12" r="D160"/>
-      <c s="7" r="E160"/>
-      <c s="7" r="F160"/>
-      <c s="7" r="G160"/>
-      <c s="7" r="H160"/>
-      <c s="7" r="I160"/>
-      <c t="b" r="K160">
-        <v>1</v>
-      </c>
-      <c s="11" r="L160"/>
-      <c s="11" r="M160"/>
-      <c s="11" r="N160"/>
-      <c s="11" r="O160"/>
-      <c s="11" r="P160"/>
-      <c s="11" r="Q160"/>
-    </row>
-    <row ht="32.25" r="161" customHeight="1">
-      <c s="15" r="A161"/>
-      <c t="s" s="14" r="B161">
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+    </row>
+    <row r="161" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="B161" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C161"/>
-      <c t="s" s="14" r="D161">
+      <c r="C161" s="9"/>
+      <c r="D161" s="9" t="s">
         <v>365</v>
       </c>
-      <c t="b" r="E161">
-        <v>1</v>
-      </c>
-      <c s="6" r="F161"/>
-    </row>
-    <row ht="32.25" r="162" customHeight="1">
-      <c s="15" r="A162"/>
-      <c t="s" s="14" r="B162">
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="B162" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="14" r="C162"/>
-      <c s="14" r="D162"/>
-      <c s="6" r="E162"/>
-      <c s="7" r="G162"/>
-      <c s="7" r="H162"/>
-      <c s="6" r="I162"/>
-      <c s="11" r="L162"/>
-      <c s="11" r="M162"/>
-      <c s="11" r="N162"/>
-      <c s="11" r="O162"/>
-      <c s="11" r="P162"/>
-      <c s="11" r="Q162"/>
-    </row>
-    <row ht="32.25" r="163" customHeight="1">
-      <c s="15" r="A163"/>
-      <c t="s" s="14" r="B163">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="3"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="3"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+    </row>
+    <row r="163" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+      <c r="B163" s="9" t="s">
         <v>120</v>
       </c>
-      <c s="14" r="C163"/>
-      <c s="14" r="D163"/>
-      <c s="6" r="E163"/>
-      <c t="s" r="F163">
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="3"/>
+      <c r="F163" t="s">
         <v>366</v>
       </c>
-      <c t="s" s="7" r="G163">
+      <c r="G163" s="4" t="s">
         <v>367</v>
       </c>
-      <c s="7" r="H163"/>
-      <c s="6" r="I163"/>
-      <c t="s" r="J163">
+      <c r="H163" s="4"/>
+      <c r="I163" s="3"/>
+      <c r="J163" t="s">
         <v>368</v>
       </c>
-      <c t="b" r="K163">
-        <v>1</v>
-      </c>
-      <c s="11" r="L163"/>
-      <c s="11" r="M163"/>
-      <c s="11" r="N163"/>
-      <c s="11" r="O163"/>
-      <c s="11" r="P163"/>
-      <c s="11" r="Q163"/>
-    </row>
-    <row ht="32.25" r="164" customHeight="1">
-      <c s="15" r="A164"/>
-      <c t="s" s="14" r="B164">
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7"/>
+    </row>
+    <row r="164" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+      <c r="B164" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C164">
+      <c r="C164" s="9" t="s">
         <v>369</v>
       </c>
-      <c s="14" r="D164"/>
-      <c s="6" r="E164"/>
-      <c s="7" r="G164"/>
-      <c t="s" r="H164">
+      <c r="D164" s="9"/>
+      <c r="E164" s="3"/>
+      <c r="G164" s="4"/>
+      <c r="H164" t="s">
         <v>370</v>
       </c>
-      <c t="s" r="I164">
+      <c r="I164" t="s">
         <v>371</v>
       </c>
-      <c s="11" r="L164"/>
-      <c s="11" r="M164"/>
-      <c s="11" r="N164"/>
-      <c s="11" r="O164"/>
-      <c s="11" r="P164"/>
-      <c s="11" r="Q164"/>
-    </row>
-    <row ht="32.25" r="165" customHeight="1">
-      <c s="15" r="A165"/>
-      <c t="s" s="14" r="B165">
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+    </row>
+    <row r="165" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+      <c r="B165" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C165">
+      <c r="C165" s="9" t="s">
         <v>372</v>
       </c>
-      <c s="14" r="D165"/>
-      <c s="6" r="E165"/>
-      <c s="7" r="G165"/>
-      <c t="s" r="H165">
+      <c r="D165" s="9"/>
+      <c r="E165" s="3"/>
+      <c r="G165" s="4"/>
+      <c r="H165" t="s">
         <v>373</v>
       </c>
-      <c t="s" r="I165">
+      <c r="I165" t="s">
         <v>374</v>
       </c>
-      <c s="11" r="L165"/>
-      <c s="11" r="M165"/>
-      <c s="11" r="N165"/>
-      <c s="11" r="O165"/>
-      <c s="11" r="P165"/>
-      <c s="11" r="Q165"/>
-    </row>
-    <row ht="32.25" r="166" customHeight="1">
-      <c s="15" r="A166"/>
-      <c t="s" s="14" r="B166">
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+    </row>
+    <row r="166" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+      <c r="B166" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C166">
+      <c r="C166" s="9" t="s">
         <v>293</v>
       </c>
-      <c s="14" r="D166"/>
-      <c s="6" r="E166"/>
-      <c s="7" r="G166"/>
-      <c t="s" r="H166">
+      <c r="D166" s="9"/>
+      <c r="E166" s="3"/>
+      <c r="G166" s="4"/>
+      <c r="H166" t="s">
         <v>375</v>
       </c>
-      <c t="s" r="I166">
+      <c r="I166" t="s">
         <v>376</v>
       </c>
-      <c s="11" r="L166"/>
-      <c s="11" r="M166"/>
-      <c s="11" r="N166"/>
-      <c s="11" r="O166"/>
-      <c s="11" r="P166"/>
-      <c s="11" r="Q166"/>
-    </row>
-    <row ht="32.25" r="167" customHeight="1">
-      <c s="15" r="A167"/>
-      <c t="s" s="14" r="B167">
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7"/>
+    </row>
+    <row r="167" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+      <c r="B167" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C167">
+      <c r="C167" s="9" t="s">
         <v>377</v>
       </c>
-      <c s="14" r="D167"/>
-      <c s="6" r="E167"/>
-      <c s="7" r="G167"/>
-      <c t="s" r="H167">
+      <c r="D167" s="9"/>
+      <c r="E167" s="3"/>
+      <c r="G167" s="4"/>
+      <c r="H167" t="s">
         <v>378</v>
       </c>
-      <c t="s" r="I167">
+      <c r="I167" t="s">
         <v>379</v>
       </c>
-      <c s="11" r="L167"/>
-      <c s="11" r="M167"/>
-      <c s="11" r="N167"/>
-      <c s="11" r="O167"/>
-      <c s="11" r="P167"/>
-      <c s="11" r="Q167"/>
-    </row>
-    <row ht="32.25" r="168" customHeight="1">
-      <c s="15" r="A168"/>
-      <c t="s" s="14" r="B168">
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+    </row>
+    <row r="168" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C168">
+      <c r="C168" s="9" t="s">
         <v>380</v>
       </c>
-      <c s="14" r="D168"/>
-      <c s="6" r="E168"/>
-      <c s="7" r="G168"/>
-      <c t="s" r="H168">
+      <c r="D168" s="9"/>
+      <c r="E168" s="3"/>
+      <c r="G168" s="4"/>
+      <c r="H168" t="s">
         <v>381</v>
       </c>
-      <c t="s" r="I168">
+      <c r="I168" t="s">
         <v>382</v>
       </c>
-      <c s="11" r="L168"/>
-      <c s="11" r="M168"/>
-      <c s="11" r="N168"/>
-      <c s="11" r="O168"/>
-      <c s="11" r="P168"/>
-      <c s="11" r="Q168"/>
-    </row>
-    <row ht="32.25" r="169" customHeight="1">
-      <c t="s" s="15" r="A169">
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+    </row>
+    <row r="169" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
         <v>383</v>
       </c>
-      <c t="s" s="12" r="B169">
+      <c r="B169" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="C169">
+      <c r="C169" s="8" t="s">
         <v>384</v>
       </c>
-      <c t="s" s="12" r="D169">
+      <c r="D169" s="8" t="s">
         <v>385</v>
       </c>
-      <c s="7" r="E169"/>
-      <c t="s" s="7" r="F169">
+      <c r="E169" s="4"/>
+      <c r="F169" s="4" t="s">
         <v>386</v>
       </c>
-      <c t="s" s="7" r="G169">
+      <c r="G169" s="4" t="s">
         <v>387</v>
       </c>
-      <c t="b" r="K169">
-        <v>1</v>
-      </c>
-      <c s="11" r="L169"/>
-      <c s="11" r="M169"/>
-      <c s="11" r="N169"/>
-      <c s="11" r="O169"/>
-      <c s="11" r="P169"/>
-      <c s="11" r="Q169"/>
-    </row>
-    <row ht="32.25" r="170" customHeight="1">
-      <c s="15" r="A170"/>
-      <c t="s" s="12" r="B170">
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+    </row>
+    <row r="170" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="C170">
+      <c r="C170" s="8" t="s">
         <v>388</v>
       </c>
-      <c t="s" s="12" r="D170">
+      <c r="D170" s="8" t="s">
         <v>389</v>
       </c>
-      <c s="7" r="E170"/>
-      <c t="s" s="7" r="F170">
+      <c r="E170" s="4"/>
+      <c r="F170" s="4" t="s">
         <v>390</v>
       </c>
-      <c t="s" s="7" r="G170">
+      <c r="G170" s="4" t="s">
         <v>391</v>
       </c>
-      <c t="b" r="K170">
-        <v>1</v>
-      </c>
-      <c s="11" r="L170"/>
-      <c s="11" r="M170"/>
-      <c s="11" r="N170"/>
-      <c s="11" r="O170"/>
-      <c s="11" r="P170"/>
-      <c s="11" r="Q170"/>
-    </row>
-    <row ht="32.25" r="171" customHeight="1">
-      <c s="15" r="A171"/>
-      <c t="s" s="12" r="B171">
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+    </row>
+    <row r="171" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="C171">
+      <c r="C171" s="8" t="s">
         <v>293</v>
       </c>
-      <c t="s" s="12" r="D171">
+      <c r="D171" s="8" t="s">
         <v>392</v>
       </c>
-      <c t="s" s="7" r="F171">
+      <c r="F171" s="4" t="s">
         <v>393</v>
       </c>
-      <c t="s" r="G171">
+      <c r="G171" t="s">
         <v>394</v>
       </c>
-      <c s="11" r="L171"/>
-      <c s="11" r="M171"/>
-      <c s="11" r="N171"/>
-      <c s="11" r="O171"/>
-      <c s="11" r="P171"/>
-      <c s="11" r="Q171"/>
-    </row>
-    <row ht="32.25" r="172" customHeight="1">
-      <c t="s" s="15" r="A172">
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+    </row>
+    <row r="172" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
         <v>395</v>
       </c>
-      <c t="s" s="12" r="B172">
+      <c r="B172" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="C172">
+      <c r="C172" s="8" t="s">
         <v>396</v>
       </c>
-      <c t="s" s="12" r="D172">
+      <c r="D172" s="8" t="s">
         <v>397</v>
       </c>
-      <c t="s" s="7" r="F172">
+      <c r="F172" s="4" t="s">
         <v>398</v>
       </c>
-      <c t="s" r="G172">
+      <c r="G172" t="s">
         <v>394</v>
       </c>
-      <c t="b" r="K172">
-        <v>1</v>
-      </c>
-      <c s="11" r="L172"/>
-      <c s="11" r="M172"/>
-      <c s="11" r="N172"/>
-      <c s="11" r="O172"/>
-      <c s="11" r="P172"/>
-      <c s="11" r="Q172"/>
-    </row>
-    <row ht="32.25" r="173" customHeight="1">
-      <c s="15" r="A173"/>
-      <c t="s" s="12" r="B173">
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+    </row>
+    <row r="173" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="B173" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="C173">
+      <c r="C173" s="8" t="s">
         <v>377</v>
       </c>
-      <c t="s" s="12" r="D173">
+      <c r="D173" s="8" t="s">
         <v>399</v>
       </c>
-      <c s="11" r="E173"/>
-      <c t="s" s="7" r="F173">
+      <c r="E173" s="7"/>
+      <c r="F173" s="4" t="s">
         <v>400</v>
       </c>
-      <c t="s" s="11" r="G173">
+      <c r="G173" s="7" t="s">
         <v>401</v>
       </c>
-      <c t="b" r="K173">
-        <v>1</v>
-      </c>
-      <c s="11" r="L173"/>
-      <c s="11" r="M173"/>
-      <c s="11" r="N173"/>
-      <c s="11" r="O173"/>
-      <c s="11" r="P173"/>
-      <c s="11" r="Q173"/>
-    </row>
-    <row ht="32.25" r="174" customHeight="1">
-      <c t="s" s="15" r="A174">
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
+    </row>
+    <row r="174" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
         <v>402</v>
       </c>
-      <c t="s" s="12" r="B174">
+      <c r="B174" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="C174">
+      <c r="C174" s="8" t="s">
         <v>380</v>
       </c>
-      <c t="s" s="12" r="D174">
+      <c r="D174" s="8" t="s">
         <v>403</v>
       </c>
-      <c s="11" r="E174"/>
-      <c t="s" s="7" r="F174">
+      <c r="E174" s="7"/>
+      <c r="F174" s="4" t="s">
         <v>404</v>
       </c>
-      <c t="s" s="11" r="G174">
+      <c r="G174" s="7" t="s">
         <v>405</v>
       </c>
-      <c t="b" r="K174">
-        <v>1</v>
-      </c>
-      <c s="11" r="L174"/>
-      <c s="11" r="M174"/>
-      <c s="11" r="N174"/>
-      <c s="11" r="O174"/>
-      <c s="11" r="P174"/>
-      <c s="11" r="Q174"/>
-    </row>
-    <row ht="32.25" r="175" customHeight="1">
-      <c s="15" r="A175"/>
-      <c t="s" s="12" r="B175">
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+    </row>
+    <row r="175" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="B175" s="8" t="s">
         <v>153</v>
       </c>
-      <c s="12" r="C175"/>
-      <c t="s" s="12" r="D175">
+      <c r="C175" s="8"/>
+      <c r="D175" s="8" t="s">
         <v>406</v>
       </c>
-      <c t="s" s="7" r="F175">
+      <c r="F175" s="4" t="s">
         <v>407</v>
       </c>
-      <c t="s" r="G175">
+      <c r="G175" t="s">
         <v>408</v>
       </c>
-      <c t="s" r="H175">
+      <c r="H175" t="s">
         <v>409</v>
       </c>
-      <c t="s" r="I175">
+      <c r="I175" t="s">
         <v>410</v>
       </c>
-      <c t="b" r="K175">
-        <v>1</v>
-      </c>
-      <c s="11" r="L175"/>
-      <c s="11" r="M175"/>
-      <c s="11" r="N175"/>
-      <c s="11" r="O175"/>
-      <c s="11" r="P175"/>
-      <c s="11" r="Q175"/>
-    </row>
-    <row ht="32.25" r="176" customHeight="1">
-      <c s="15" r="A176"/>
-      <c t="s" s="12" r="B176">
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+    </row>
+    <row r="176" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+      <c r="B176" s="8" t="s">
         <v>153</v>
       </c>
-      <c s="12" r="C176"/>
-      <c t="s" s="12" r="D176">
+      <c r="C176" s="8"/>
+      <c r="D176" s="8" t="s">
         <v>183</v>
       </c>
-      <c s="7" r="E176"/>
-      <c t="s" s="7" r="F176">
+      <c r="E176" s="4"/>
+      <c r="F176" s="4" t="s">
         <v>184</v>
       </c>
-      <c t="s" s="7" r="G176">
+      <c r="G176" s="4" t="s">
         <v>411</v>
       </c>
-      <c t="b" r="K176">
-        <v>1</v>
-      </c>
-      <c s="11" r="L176"/>
-      <c s="11" r="M176"/>
-      <c s="11" r="N176"/>
-      <c s="11" r="O176"/>
-      <c s="11" r="P176"/>
-      <c s="11" r="Q176"/>
-    </row>
-    <row ht="32.25" r="177" customHeight="1">
-      <c s="15" r="A177"/>
-      <c t="s" s="12" r="B177">
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+    </row>
+    <row r="177" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
+      <c r="B177" s="8" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="C177"/>
-      <c s="12" r="D177"/>
-      <c s="7" r="E177"/>
-      <c s="7" r="F177"/>
-      <c s="7" r="G177"/>
-      <c s="11" r="L177"/>
-      <c s="11" r="M177"/>
-      <c s="11" r="N177"/>
-      <c s="11" r="O177"/>
-      <c s="11" r="P177"/>
-      <c s="11" r="Q177"/>
-    </row>
-    <row ht="32.25" r="178" customHeight="1">
-      <c s="15" r="A178"/>
-      <c t="s" s="12" r="B178">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+    </row>
+    <row r="178" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="B178" s="8" t="s">
         <v>363</v>
       </c>
-      <c s="12" r="C178"/>
-      <c s="12" r="D178"/>
-      <c s="7" r="E178"/>
-      <c s="7" r="F178"/>
-      <c s="7" r="G178"/>
-      <c s="7" r="H178"/>
-      <c s="7" r="I178"/>
-      <c s="11" r="L178"/>
-      <c s="11" r="M178"/>
-      <c s="11" r="N178"/>
-      <c s="11" r="O178"/>
-      <c s="11" r="P178"/>
-      <c s="11" r="Q178"/>
-    </row>
-    <row ht="32.25" r="179" customHeight="1">
-      <c s="15" r="A179"/>
-      <c t="s" s="2" r="B179">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+    </row>
+    <row r="179" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="B179" s="1" t="s">
         <v>412</v>
       </c>
-      <c s="12" r="C179"/>
-      <c s="12" r="D179"/>
-      <c s="7" r="E179"/>
-      <c s="7" r="F179"/>
-      <c s="7" r="G179"/>
-      <c s="7" r="H179"/>
-      <c s="7" r="I179"/>
-      <c s="11" r="L179"/>
-      <c s="11" r="M179"/>
-      <c s="11" r="N179"/>
-      <c s="11" r="O179"/>
-      <c s="11" r="P179"/>
-      <c s="11" r="Q179"/>
-    </row>
-    <row ht="32.25" r="180" customHeight="1">
-      <c s="15" r="A180"/>
-      <c t="s" s="14" r="B180">
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+    </row>
+    <row r="180" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="9" t="s">
         <v>118</v>
       </c>
-      <c s="14" r="C180"/>
-      <c t="s" s="14" r="D180">
+      <c r="C180" s="9"/>
+      <c r="D180" s="9" t="s">
         <v>413</v>
       </c>
-      <c t="b" r="E180">
-        <v>1</v>
-      </c>
-      <c s="6" r="F180"/>
-    </row>
-    <row ht="32.25" r="181" customHeight="1">
-      <c s="15" r="A181"/>
-      <c t="s" s="14" r="B181">
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="B181" s="9" t="s">
         <v>54</v>
       </c>
-      <c s="14" r="C181"/>
-      <c s="14" r="D181"/>
-      <c s="6" r="E181"/>
-      <c s="7" r="G181"/>
-      <c s="7" r="H181"/>
-      <c s="6" r="I181"/>
-      <c s="11" r="L181"/>
-      <c s="11" r="M181"/>
-      <c s="11" r="N181"/>
-      <c s="11" r="O181"/>
-      <c s="11" r="P181"/>
-      <c s="11" r="Q181"/>
-    </row>
-    <row ht="32.25" r="182" customHeight="1">
-      <c s="15" r="A182"/>
-      <c t="s" s="14" r="B182">
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="3"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="3"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="7"/>
+    </row>
+    <row r="182" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="B182" s="9" t="s">
         <v>120</v>
       </c>
-      <c s="14" r="C182"/>
-      <c s="14" r="D182"/>
-      <c s="6" r="E182"/>
-      <c t="s" r="F182">
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="3"/>
+      <c r="F182" t="s">
         <v>414</v>
       </c>
-      <c t="s" s="7" r="G182">
+      <c r="G182" s="4" t="s">
         <v>415</v>
       </c>
-      <c t="s" s="7" r="H182">
+      <c r="H182" s="4" t="s">
         <v>123</v>
       </c>
-      <c t="s" s="6" r="I182">
+      <c r="I182" s="3" t="s">
         <v>416</v>
       </c>
-      <c s="11" r="L182"/>
-      <c s="11" r="M182"/>
-      <c s="11" r="N182"/>
-      <c s="11" r="O182"/>
-      <c s="11" r="P182"/>
-      <c s="11" r="Q182"/>
-    </row>
-    <row ht="32.25" r="183" customHeight="1">
-      <c s="15" r="A183"/>
-      <c t="s" s="14" r="B183">
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
+    </row>
+    <row r="183" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="B183" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C183">
+      <c r="C183" s="9" t="s">
         <v>396</v>
       </c>
-      <c s="7" r="G183"/>
-      <c t="s" r="H183">
+      <c r="G183" s="4"/>
+      <c r="H183" t="s">
         <v>417</v>
       </c>
-      <c t="s" r="I183">
+      <c r="I183" t="s">
         <v>418</v>
       </c>
-      <c s="11" r="L183"/>
-      <c s="11" r="M183"/>
-      <c s="11" r="N183"/>
-      <c s="11" r="O183"/>
-      <c s="11" r="P183"/>
-      <c s="11" r="Q183"/>
-    </row>
-    <row ht="32.25" r="184" customHeight="1">
-      <c s="15" r="A184"/>
-      <c t="s" s="14" r="B184">
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="7"/>
+    </row>
+    <row r="184" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+      <c r="B184" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C184">
+      <c r="C184" s="9" t="s">
         <v>419</v>
       </c>
-      <c s="7" r="G184"/>
-      <c t="s" r="H184">
+      <c r="G184" s="4"/>
+      <c r="H184" t="s">
         <v>420</v>
       </c>
-      <c t="s" r="I184">
+      <c r="I184" t="s">
         <v>421</v>
       </c>
-      <c s="11" r="L184"/>
-      <c s="11" r="M184"/>
-      <c s="11" r="N184"/>
-      <c s="11" r="O184"/>
-      <c s="11" r="P184"/>
-      <c s="11" r="Q184"/>
-    </row>
-    <row ht="32.25" r="185" customHeight="1">
-      <c s="15" r="A185"/>
-      <c t="s" s="14" r="B185">
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7"/>
+    </row>
+    <row r="185" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
+      <c r="B185" s="9" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="14" r="C185">
+      <c r="C185" s="9" t="s">
         <v>422</v>
       </c>
-      <c s="7" r="G185"/>
-      <c t="s" r="H185">
+      <c r="G185" s="4"/>
+      <c r="H185" t="s">
         <v>423</v>
       </c>
-      <c t="s" r="I185">
+      <c r="I185" t="s">
         <v>424</v>
       </c>
-      <c s="11" r="L185"/>
-      <c s="11" r="M185"/>
-      <c s="11" r="N185"/>
-      <c s="11" r="O185"/>
-      <c s="11" r="P185"/>
-      <c s="11" r="Q185"/>
-    </row>
-    <row ht="32.25" r="186" customHeight="1">
-      <c s="15" r="A186"/>
-      <c t="s" s="14" r="B186">
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+    </row>
+    <row r="186" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="B186" s="9" t="s">
         <v>153</v>
       </c>
-      <c s="14" r="C186"/>
-      <c t="s" s="14" r="D186">
+      <c r="C186" s="9"/>
+      <c r="D186" s="9" t="s">
         <v>425</v>
       </c>
-      <c s="6" r="E186"/>
-      <c t="s" s="7" r="F186">
+      <c r="E186" s="3"/>
+      <c r="F186" s="4" t="s">
         <v>161</v>
       </c>
-      <c t="s" s="6" r="G186">
+      <c r="G186" s="3" t="s">
         <v>426</v>
       </c>
-      <c s="11" r="L186"/>
-      <c s="11" r="M186"/>
-      <c s="11" r="N186"/>
-      <c s="11" r="O186"/>
-      <c s="11" r="P186"/>
-      <c s="11" r="Q186"/>
-    </row>
-    <row ht="32.25" r="187" customHeight="1">
-      <c s="15" r="A187"/>
-      <c t="s" s="12" r="B187">
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="7"/>
+    </row>
+    <row r="187" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+      <c r="B187" s="8" t="s">
         <v>153</v>
       </c>
-      <c s="12" r="C187"/>
-      <c t="s" s="12" r="D187">
+      <c r="C187" s="8"/>
+      <c r="D187" s="8" t="s">
         <v>163</v>
       </c>
-      <c s="7" r="E187"/>
-      <c t="s" s="7" r="F187">
+      <c r="E187" s="4"/>
+      <c r="F187" s="4" t="s">
         <v>273</v>
       </c>
-      <c t="s" s="7" r="G187">
+      <c r="G187" s="4" t="s">
         <v>427</v>
       </c>
-      <c t="b" r="K187">
-        <v>1</v>
-      </c>
-      <c s="11" r="L187"/>
-      <c s="11" r="M187"/>
-      <c s="11" r="N187"/>
-      <c s="11" r="O187"/>
-      <c s="11" r="P187"/>
-      <c s="11" r="Q187"/>
-    </row>
-    <row ht="32.25" r="188" customHeight="1">
-      <c s="15" r="A188"/>
-      <c t="s" r="B188">
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7"/>
+      <c r="Q187" s="7"/>
+    </row>
+    <row r="188" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+      <c r="B188" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="C188"/>
-      <c s="12" r="D188"/>
-      <c s="7" r="E188"/>
-      <c s="7" r="F188"/>
-      <c s="7" r="G188"/>
-      <c s="11" r="L188"/>
-      <c s="11" r="M188"/>
-      <c s="11" r="N188"/>
-      <c s="11" r="O188"/>
-      <c s="11" r="P188"/>
-      <c s="11" r="Q188"/>
-    </row>
-    <row ht="32.25" r="189" customHeight="1">
-      <c s="15" r="A189"/>
-      <c t="s" s="12" r="B189">
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
+    </row>
+    <row r="189" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+      <c r="B189" s="8" t="s">
         <v>363</v>
       </c>
-      <c s="12" r="C189"/>
-      <c s="12" r="D189"/>
-      <c s="7" r="E189"/>
-      <c s="7" r="F189"/>
-      <c s="7" r="G189"/>
-      <c s="7" r="H189"/>
-      <c s="7" r="I189"/>
-      <c s="11" r="L189"/>
-      <c s="11" r="M189"/>
-      <c s="11" r="N189"/>
-      <c s="11" r="O189"/>
-      <c s="11" r="P189"/>
-      <c s="11" r="Q189"/>
-    </row>
-    <row ht="32.25" r="190" customHeight="1">
-      <c s="12" r="C190"/>
-      <c s="12" r="D190"/>
-      <c s="7" r="E190"/>
-      <c s="7" r="F190"/>
-      <c s="7" r="G190"/>
-      <c s="7" r="H190"/>
-      <c s="7" r="I190"/>
-      <c s="11" r="L190"/>
-      <c s="11" r="M190"/>
-      <c s="11" r="N190"/>
-      <c s="11" r="O190"/>
-      <c s="11" r="P190"/>
-      <c s="11" r="Q190"/>
-    </row>
-    <row ht="32.25" r="191" customHeight="1">
-      <c s="15" r="A191"/>
-      <c t="s" s="8" r="B191">
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
+    </row>
+    <row r="190" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
+    </row>
+    <row r="191" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
+      <c r="B191" s="5" t="s">
         <v>428</v>
       </c>
-      <c s="12" r="C191"/>
-      <c s="12" r="D191"/>
-      <c s="7" r="E191"/>
-      <c s="7" r="F191"/>
-      <c s="7" r="G191"/>
-      <c s="7" r="H191"/>
-      <c s="7" r="I191"/>
-      <c s="11" r="L191"/>
-      <c s="11" r="M191"/>
-      <c s="11" r="N191"/>
-      <c s="11" r="O191"/>
-      <c s="11" r="P191"/>
-      <c s="11" r="Q191"/>
-    </row>
-    <row ht="32.25" r="192" customHeight="1">
-      <c s="15" r="A192"/>
-      <c t="s" s="12" r="B192">
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
+    </row>
+    <row r="192" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
+      <c r="B192" s="8" t="s">
         <v>429</v>
       </c>
-      <c s="12" r="C192"/>
-      <c t="s" s="12" r="D192">
+      <c r="C192" s="8"/>
+      <c r="D192" s="8" t="s">
         <v>430</v>
       </c>
-      <c s="7" r="E192"/>
-      <c t="s" s="7" r="F192">
+      <c r="E192" s="4"/>
+      <c r="F192" s="4" t="s">
         <v>431</v>
       </c>
-      <c t="s" s="7" r="G192">
+      <c r="G192" s="4" t="s">
         <v>432</v>
       </c>
-      <c s="7" r="H192"/>
-      <c s="7" r="I192"/>
-      <c s="11" r="L192"/>
-      <c s="11" r="M192"/>
-      <c s="11" r="N192"/>
-      <c t="s" s="11" r="O192">
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7" t="s">
         <v>433</v>
       </c>
-      <c s="11" r="P192"/>
-      <c s="11" r="Q192"/>
-    </row>
-    <row ht="32.25" r="193" customHeight="1">
-      <c s="15" r="A193"/>
-      <c t="s" s="7" r="B193">
+      <c r="P192" s="7"/>
+      <c r="Q192" s="7"/>
+    </row>
+    <row r="193" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
+      <c r="B193" s="4" t="s">
         <v>429</v>
       </c>
-      <c s="7" r="C193"/>
-      <c t="s" s="7" r="D193">
+      <c r="C193" s="4"/>
+      <c r="D193" s="4" t="s">
         <v>434</v>
       </c>
-      <c s="7" r="E193"/>
-      <c t="s" s="7" r="F193">
+      <c r="E193" s="4"/>
+      <c r="F193" s="4" t="s">
         <v>435</v>
       </c>
-      <c t="s" s="7" r="G193">
+      <c r="G193" s="4" t="s">
         <v>436</v>
       </c>
-      <c s="7" r="H193"/>
-      <c s="7" r="J193"/>
-      <c s="11" r="L193"/>
-      <c t="s" r="O193">
+      <c r="H193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="L193" s="7"/>
+      <c r="O193" t="s">
         <v>437</v>
       </c>
     </row>
-    <row ht="32.25" r="194" customHeight="1">
-      <c t="s" s="15" r="A194">
+    <row r="194" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
         <v>438</v>
       </c>
-      <c t="s" s="12" r="B194">
+      <c r="B194" s="8" t="s">
         <v>39</v>
       </c>
-      <c s="12" r="C194"/>
-      <c t="s" s="12" r="D194">
+      <c r="C194" s="8"/>
+      <c r="D194" s="8" t="s">
         <v>439</v>
       </c>
-      <c s="7" r="E194"/>
-      <c t="s" s="7" r="F194">
+      <c r="E194" s="4"/>
+      <c r="F194" s="4" t="s">
         <v>440</v>
       </c>
-      <c t="s" s="7" r="G194">
+      <c r="G194" s="4" t="s">
         <v>441</v>
       </c>
-      <c s="7" r="H194"/>
-      <c s="7" r="I194"/>
-      <c s="11" r="L194"/>
-      <c s="11" r="M194"/>
-      <c s="11" r="N194"/>
-      <c s="11" r="O194"/>
-      <c s="11" r="P194"/>
-      <c s="11" r="Q194"/>
-    </row>
-    <row ht="32.25" r="195" customHeight="1">
-      <c s="15" r="A195"/>
-      <c t="s" s="12" r="B195">
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7"/>
+    </row>
+    <row r="195" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
+      <c r="B195" s="8" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="12" r="C195">
+      <c r="C195" s="8" t="s">
         <v>442</v>
       </c>
-      <c t="s" s="12" r="D195">
+      <c r="D195" s="8" t="s">
         <v>443</v>
       </c>
-      <c s="7" r="E195"/>
-      <c t="s" s="7" r="F195">
+      <c r="E195" s="4"/>
+      <c r="F195" s="4" t="s">
         <v>444</v>
       </c>
-      <c t="s" s="7" r="G195">
+      <c r="G195" s="4" t="s">
         <v>445</v>
       </c>
-      <c s="7" r="H195"/>
-      <c s="7" r="I195"/>
-      <c s="11" r="L195"/>
-      <c s="11" r="M195"/>
-      <c s="11" r="N195"/>
-      <c s="11" r="O195"/>
-      <c s="11" r="P195"/>
-      <c s="11" r="Q195"/>
-    </row>
-    <row ht="32.25" r="196" customHeight="1">
-      <c s="15" r="A196"/>
-      <c t="s" s="12" r="B196">
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
+    </row>
+    <row r="196" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+      <c r="B196" s="8" t="s">
         <v>446</v>
       </c>
-      <c s="12" r="C196"/>
-      <c s="12" r="D196"/>
-      <c s="7" r="E196"/>
-      <c s="7" r="F196"/>
-      <c s="7" r="G196"/>
-      <c s="7" r="H196"/>
-      <c s="7" r="I196"/>
-      <c s="11" r="L196"/>
-      <c s="11" r="M196"/>
-      <c s="11" r="N196"/>
-      <c s="11" r="O196"/>
-      <c s="11" r="P196"/>
-      <c s="11" r="Q196"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="24.43"/>
-    <col max="2" min="2" customWidth="1" width="27.0"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>448</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>450</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>452</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>454</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>456</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>457</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="13.71" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="22.57"/>
-    <col max="2" min="2" customWidth="1" width="16.86"/>
-    <col max="3" min="3" customWidth="1" width="36.14"/>
-    <col max="5" min="5" customWidth="1" width="11.86"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" customHeight="1">
-      <c t="s" s="6" r="A1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>458</v>
       </c>
-      <c t="s" s="6" r="B1">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="6" r="C1">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row ht="15.75" r="2" customHeight="1">
-      <c t="s" s="6" r="A2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>460</v>
       </c>
-      <c t="s" s="6" r="B2">
+      <c r="B2" s="3" t="s">
         <v>461</v>
       </c>
-      <c t="s" s="6" r="C2">
+      <c r="C2" s="3" t="s">
         <v>462</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row ht="15.75" r="3" customHeight="1">
-      <c t="s" s="6" r="A3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>460</v>
       </c>
-      <c t="s" s="6" r="B3">
+      <c r="B3" s="3" t="s">
         <v>464</v>
       </c>
-      <c t="s" s="6" r="C3">
+      <c r="C3" s="3" t="s">
         <v>465</v>
       </c>
-      <c t="s" r="D3">
+      <c r="D3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row ht="15.75" r="4" customHeight="1">
-      <c s="6" r="A4"/>
-      <c s="6" r="B4"/>
-      <c s="6" r="C4"/>
-    </row>
-    <row ht="15.75" r="5" customHeight="1">
-      <c t="s" s="6" r="A5">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>467</v>
       </c>
-      <c t="s" s="6" r="B5">
+      <c r="B5" s="3" t="s">
         <v>467</v>
       </c>
-      <c t="s" s="6" r="C5">
+      <c r="C5" s="3" t="s">
         <v>468</v>
       </c>
-      <c t="s" r="D5">
+      <c r="D5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row ht="15.75" r="6" customHeight="1">
-      <c t="s" s="6" r="A6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>467</v>
       </c>
-      <c t="s" s="6" r="B6">
+      <c r="B6" s="3" t="s">
         <v>470</v>
       </c>
-      <c t="s" s="6" r="C6">
+      <c r="C6" s="3" t="s">
         <v>471</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row ht="15.75" r="7" customHeight="1">
-      <c s="6" r="A7"/>
-      <c s="6" r="B7"/>
-      <c s="6" r="C7"/>
-    </row>
-    <row ht="15.75" r="8" customHeight="1">
-      <c t="s" s="6" r="A8">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>473</v>
       </c>
-      <c t="s" s="6" r="B8">
+      <c r="B8" s="3" t="s">
         <v>473</v>
       </c>
-      <c t="s" s="6" r="C8">
+      <c r="C8" s="3" t="s">
         <v>474</v>
       </c>
-      <c t="s" r="D8">
+      <c r="D8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row ht="15.75" r="9" customHeight="1">
-      <c t="s" s="6" r="A9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>473</v>
       </c>
-      <c t="s" s="6" r="B9">
+      <c r="B9" s="3" t="s">
         <v>476</v>
       </c>
-      <c t="s" s="6" r="C9">
+      <c r="C9" s="3" t="s">
         <v>477</v>
       </c>
-      <c t="s" r="D9">
+      <c r="D9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row ht="15.75" r="10" customHeight="1">
-      <c s="6" r="A10"/>
-      <c s="6" r="B10"/>
-      <c s="6" r="C10"/>
-    </row>
-    <row ht="15.75" r="11" customHeight="1">
-      <c t="s" s="6" r="A11">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>479</v>
       </c>
-      <c t="s" s="6" r="B11">
+      <c r="B11" s="3" t="s">
         <v>480</v>
       </c>
-      <c t="s" s="6" r="C11">
+      <c r="C11" s="3" t="s">
         <v>481</v>
       </c>
-      <c t="s" r="D11">
+      <c r="D11" t="s">
         <v>482</v>
       </c>
     </row>
-    <row ht="15.75" r="12" customHeight="1">
-      <c t="s" s="6" r="A12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>479</v>
       </c>
-      <c t="s" s="6" r="B12">
+      <c r="B12" s="3" t="s">
         <v>483</v>
       </c>
-      <c t="s" s="6" r="C12">
+      <c r="C12" s="3" t="s">
         <v>484</v>
       </c>
-      <c t="s" r="D12">
+      <c r="D12" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="13">
-      <c s="6" r="B13"/>
-      <c s="6" r="C13"/>
-    </row>
-    <row r="14">
-      <c s="6" r="A14"/>
-      <c s="6" r="B14"/>
-      <c s="6" r="C14"/>
-    </row>
-    <row r="15">
-      <c t="s" s="6" r="A15">
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="6" r="B15">
+      <c r="B15" s="3" t="s">
         <v>486</v>
       </c>
-      <c t="s" r="C15">
+      <c r="C15" t="s">
         <v>487</v>
       </c>
-      <c t="s" r="D15">
+      <c r="D15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="16">
-      <c t="s" s="6" r="A16">
+    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="6" r="B16">
+      <c r="B16" s="3" t="s">
         <v>489</v>
       </c>
-      <c t="s" r="C16">
+      <c r="C16" t="s">
         <v>490</v>
       </c>
-      <c t="s" r="D16">
+      <c r="D16" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" s="6" r="A17">
+    <row r="17" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>220</v>
       </c>
-      <c t="s" r="B17">
+      <c r="B17" t="s">
         <v>492</v>
       </c>
-      <c t="s" r="C17">
+      <c r="C17" t="s">
         <v>493</v>
       </c>
-      <c t="s" r="D17">
+      <c r="D17" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="20">
-      <c t="s" r="A20">
+    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>495</v>
       </c>
-      <c t="s" r="B20">
+      <c r="B20" t="s">
         <v>496</v>
       </c>
-      <c t="s" r="C20">
+      <c r="C20" t="s">
         <v>497</v>
       </c>
-      <c t="s" r="D20">
+      <c r="D20" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="21">
-      <c t="s" r="A21">
+    <row r="21" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>495</v>
       </c>
-      <c t="s" r="B21">
+      <c r="B21" t="s">
         <v>499</v>
       </c>
-      <c t="s" r="C21">
+      <c r="C21" t="s">
         <v>500</v>
       </c>
-      <c t="s" r="D21">
+      <c r="D21" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22">
-      <c t="s" r="A22">
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>495</v>
       </c>
-      <c t="s" r="B22">
+      <c r="B22" t="s">
         <v>502</v>
       </c>
-      <c t="s" r="C22">
+      <c r="C22" t="s">
         <v>503</v>
       </c>
-      <c t="s" r="D22">
+      <c r="D22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="24">
-      <c s="6" r="A24"/>
-      <c s="6" r="B24"/>
-      <c s="6" r="C24"/>
-    </row>
-    <row r="25">
-      <c t="s" s="6" r="A25">
+    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>328</v>
       </c>
-      <c t="s" s="6" r="B25">
+      <c r="B25" s="3" t="s">
         <v>496</v>
       </c>
-      <c t="s" s="6" r="C25">
+      <c r="C25" s="3" t="s">
         <v>505</v>
       </c>
-      <c t="s" r="D25">
+      <c r="D25" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="26">
-      <c t="s" s="6" r="A26">
+    <row r="26" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>328</v>
       </c>
-      <c t="s" r="B26">
+      <c r="B26" t="s">
         <v>507</v>
       </c>
-      <c t="s" r="C26">
+      <c r="C26" t="s">
         <v>508</v>
       </c>
-      <c t="s" r="D26">
+      <c r="D26" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="27">
-      <c t="s" s="6" r="A27">
+    <row r="27" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>328</v>
       </c>
-      <c t="s" r="B27">
+      <c r="B27" t="s">
         <v>510</v>
       </c>
-      <c t="s" r="C27">
+      <c r="C27" t="s">
         <v>511</v>
       </c>
-      <c t="s" r="D27">
+      <c r="D27" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="30">
-      <c t="s" r="A30">
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B30">
+      <c r="B30" t="s">
         <v>513</v>
       </c>
-      <c t="s" s="7" r="C30">
+      <c r="C30" s="4" t="s">
         <v>514</v>
       </c>
-      <c t="s" r="D30">
+      <c r="D30" t="s">
         <v>515</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c t="s" r="A31">
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B31">
+      <c r="B31" t="s">
         <v>516</v>
       </c>
-      <c t="s" s="7" r="C31">
+      <c r="C31" s="4" t="s">
         <v>517</v>
       </c>
-      <c t="s" r="D31">
+      <c r="D31" t="s">
         <v>518</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c t="s" r="A32">
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B32">
+      <c r="B32" t="s">
         <v>519</v>
       </c>
-      <c t="s" s="7" r="C32">
+      <c r="C32" s="4" t="s">
         <v>520</v>
       </c>
-      <c t="s" r="D32">
+      <c r="D32" t="s">
         <v>521</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
     </row>
-    <row r="33">
-      <c t="s" r="A33">
+    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B33">
+      <c r="B33" t="s">
         <v>522</v>
       </c>
-      <c t="s" s="7" r="C33">
+      <c r="C33" s="4" t="s">
         <v>523</v>
       </c>
-      <c t="s" r="D33">
+      <c r="D33" t="s">
         <v>524</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
     </row>
-    <row r="34">
-      <c t="s" r="A34">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B34">
+      <c r="B34" t="s">
         <v>525</v>
       </c>
-      <c t="s" s="7" r="C34">
+      <c r="C34" s="4" t="s">
         <v>526</v>
       </c>
-      <c t="s" s="11" r="D34">
+      <c r="D34" s="7" t="s">
         <v>527</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
     </row>
-    <row r="35">
-      <c t="s" r="A35">
+    <row r="35" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B35">
+      <c r="B35" t="s">
         <v>528</v>
       </c>
-      <c t="s" s="7" r="C35">
+      <c r="C35" s="4" t="s">
         <v>529</v>
       </c>
-      <c t="s" s="11" r="D35">
+      <c r="D35" s="7" t="s">
         <v>530</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
     </row>
-    <row r="36">
-      <c t="s" r="A36">
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B36">
+      <c r="B36" t="s">
         <v>531</v>
       </c>
-      <c t="s" s="7" r="C36">
+      <c r="C36" s="4" t="s">
         <v>532</v>
       </c>
-      <c t="s" s="11" r="D36">
+      <c r="D36" s="7" t="s">
         <v>533</v>
       </c>
       <c r="E36">
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c t="s" r="A37">
+    <row r="37" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B37">
+      <c r="B37" t="s">
         <v>534</v>
       </c>
-      <c t="s" s="7" r="C37">
+      <c r="C37" s="4" t="s">
         <v>535</v>
       </c>
-      <c t="s" s="11" r="D37">
+      <c r="D37" s="7" t="s">
         <v>536</v>
       </c>
       <c r="E37">
         <v>14</v>
       </c>
     </row>
-    <row r="38">
-      <c t="s" r="A38">
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B38">
+      <c r="B38" t="s">
         <v>537</v>
       </c>
-      <c t="s" r="C38">
+      <c r="C38" t="s">
         <v>538</v>
       </c>
-      <c t="s" s="11" r="D38">
+      <c r="D38" s="7" t="s">
         <v>539</v>
       </c>
       <c r="E38">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c t="s" r="A39">
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B39">
+      <c r="B39" t="s">
         <v>540</v>
       </c>
-      <c t="s" r="C39">
+      <c r="C39" t="s">
         <v>541</v>
       </c>
-      <c t="s" s="11" r="D39">
+      <c r="D39" s="7" t="s">
         <v>542</v>
       </c>
       <c r="E39">
         <v>36</v>
       </c>
     </row>
-    <row r="40">
-      <c t="s" r="A40">
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B40">
+      <c r="B40" t="s">
         <v>543</v>
       </c>
-      <c t="s" r="C40">
+      <c r="C40" t="s">
         <v>544</v>
       </c>
-      <c t="s" s="11" r="D40">
+      <c r="D40" s="7" t="s">
         <v>545</v>
       </c>
       <c r="E40">
         <v>64</v>
       </c>
     </row>
-    <row r="41">
-      <c t="s" r="A41">
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B41">
+      <c r="B41" t="s">
         <v>546</v>
       </c>
-      <c t="s" r="C41">
+      <c r="C41" t="s">
         <v>547</v>
       </c>
-      <c t="s" s="11" r="D41">
+      <c r="D41" s="7" t="s">
         <v>548</v>
       </c>
       <c r="E41">
         <v>64</v>
       </c>
     </row>
-    <row r="42">
-      <c t="s" r="A42">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>430</v>
       </c>
-      <c t="s" r="B42">
+      <c r="B42" t="s">
         <v>549</v>
       </c>
-      <c t="s" r="C42">
+      <c r="C42" t="s">
         <v>550</v>
       </c>
-      <c t="s" s="11" r="D42">
+      <c r="D42" s="7" t="s">
         <v>551</v>
       </c>
       <c r="E42">
         <v>240</v>
       </c>
     </row>
-    <row r="45">
-      <c t="s" r="A45">
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B45">
+      <c r="B45" t="s">
         <v>553</v>
       </c>
-      <c t="s" r="C45">
+      <c r="C45" t="s">
         <v>554</v>
       </c>
-      <c t="s" r="D45">
+      <c r="D45" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="46">
-      <c t="s" r="A46">
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B46">
+      <c r="B46" t="s">
         <v>556</v>
       </c>
-      <c t="s" r="C46">
+      <c r="C46" t="s">
         <v>557</v>
       </c>
-      <c t="s" r="D46">
+      <c r="D46" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="47">
-      <c t="s" r="A47">
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B47">
+      <c r="B47" t="s">
         <v>559</v>
       </c>
-      <c t="s" r="C47">
+      <c r="C47" t="s">
         <v>560</v>
       </c>
-      <c t="s" r="D47">
+      <c r="D47" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="48">
-      <c t="s" r="A48">
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>552</v>
       </c>
-      <c t="s" s="6" r="B48">
+      <c r="B48" s="3" t="s">
         <v>562</v>
       </c>
-      <c t="s" s="6" r="C48">
+      <c r="C48" s="3" t="s">
         <v>563</v>
       </c>
-      <c t="s" r="D48">
+      <c r="D48" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="49">
-      <c t="s" r="A49">
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B49">
+      <c r="B49" t="s">
         <v>565</v>
       </c>
-      <c t="s" s="6" r="C49">
+      <c r="C49" s="3" t="s">
         <v>566</v>
       </c>
-      <c t="s" r="D49">
+      <c r="D49" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="50">
-      <c t="s" r="A50">
+    <row r="50" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B50">
+      <c r="B50" t="s">
         <v>568</v>
       </c>
-      <c t="s" r="C50">
+      <c r="C50" t="s">
         <v>569</v>
       </c>
-      <c t="s" r="D50">
+      <c r="D50" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="51">
-      <c t="s" r="A51">
+    <row r="51" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B51">
+      <c r="B51" t="s">
         <v>571</v>
       </c>
-      <c t="s" r="C51">
+      <c r="C51" t="s">
         <v>572</v>
       </c>
-      <c t="s" r="D51">
+      <c r="D51" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="52">
-      <c t="s" r="A52">
+    <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B52">
+      <c r="B52" t="s">
         <v>574</v>
       </c>
-      <c t="s" r="C52">
+      <c r="C52" t="s">
         <v>575</v>
       </c>
-      <c t="s" r="D52">
+      <c r="D52" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="53">
-      <c t="s" r="A53">
+    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B53">
+      <c r="B53" t="s">
         <v>577</v>
       </c>
-      <c t="s" r="C53">
+      <c r="C53" t="s">
         <v>578</v>
       </c>
-      <c t="s" r="D53">
+      <c r="D53" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="54">
-      <c t="s" r="A54">
+    <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B54">
+      <c r="B54" t="s">
         <v>580</v>
       </c>
-      <c t="s" r="C54">
+      <c r="C54" t="s">
         <v>581</v>
       </c>
-      <c t="s" r="D54">
+      <c r="D54" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="55">
-      <c t="s" r="A55">
+    <row r="55" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>552</v>
       </c>
-      <c t="s" r="B55">
+      <c r="B55" t="s">
         <v>583</v>
       </c>
-      <c t="s" r="C55">
+      <c r="C55" t="s">
         <v>584</v>
       </c>
-      <c t="s" r="D55">
+      <c r="D55" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="58">
-      <c t="s" r="A58">
+    <row r="58" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>586</v>
       </c>
-      <c t="s" r="B58">
+      <c r="B58" t="s">
         <v>587</v>
       </c>
-      <c t="s" r="C58">
+      <c r="C58" t="s">
         <v>588</v>
       </c>
-      <c t="s" r="D58">
+      <c r="D58" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="59">
-      <c t="s" r="A59">
+    <row r="59" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>586</v>
       </c>
-      <c t="s" r="B59">
+      <c r="B59" t="s">
         <v>590</v>
       </c>
-      <c t="s" r="C59">
+      <c r="C59" t="s">
         <v>591</v>
       </c>
-      <c t="s" r="D59">
+      <c r="D59" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="60">
-      <c t="s" r="A60">
+    <row r="60" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>586</v>
       </c>
-      <c t="s" r="B60">
+      <c r="B60" t="s">
         <v>593</v>
       </c>
-      <c t="s" r="C60">
+      <c r="C60" t="s">
         <v>594</v>
       </c>
-      <c t="s" r="D60">
+      <c r="D60" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="61">
-      <c t="s" r="A61">
+    <row r="61" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>586</v>
       </c>
-      <c t="s" r="B61">
+      <c r="B61" t="s">
         <v>596</v>
       </c>
-      <c t="s" r="C61">
+      <c r="C61" t="s">
         <v>597</v>
       </c>
-      <c t="s" r="D61">
+      <c r="D61" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="64">
-      <c t="s" r="A64">
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="B64">
+      <c r="B64" t="s">
         <v>599</v>
       </c>
-      <c t="s" r="C64">
+      <c r="C64" t="s">
         <v>600</v>
       </c>
-      <c t="s" r="D64">
+      <c r="D64" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="65">
-      <c t="s" r="A65">
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="B65">
+      <c r="B65" t="s">
         <v>602</v>
       </c>
-      <c t="s" r="C65">
+      <c r="C65" t="s">
         <v>603</v>
       </c>
-      <c t="s" r="D65">
+      <c r="D65" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="68">
-      <c t="s" r="A68">
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>344</v>
       </c>
-      <c t="s" r="B68">
+      <c r="B68" t="s">
         <v>605</v>
       </c>
-      <c t="s" r="C68">
+      <c r="C68" t="s">
         <v>606</v>
       </c>
-      <c t="s" r="D68">
+      <c r="D68" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="69">
-      <c t="s" r="A69">
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>344</v>
       </c>
-      <c t="s" r="B69">
+      <c r="B69" t="s">
         <v>608</v>
       </c>
-      <c t="s" r="C69">
+      <c r="C69" t="s">
         <v>609</v>
       </c>
-      <c t="s" r="D69">
+      <c r="D69" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="70">
-      <c t="s" r="A70">
+    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>344</v>
       </c>
-      <c t="s" r="B70">
+      <c r="B70" t="s">
         <v>610</v>
       </c>
-      <c t="s" r="C70">
+      <c r="C70" t="s">
         <v>611</v>
       </c>
-      <c t="s" r="D70">
+      <c r="D70" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="71">
-      <c t="s" r="A71">
+    <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>344</v>
       </c>
-      <c t="s" r="B71">
+      <c r="B71" t="s">
         <v>613</v>
       </c>
-      <c t="s" r="C71">
+      <c r="C71" t="s">
         <v>614</v>
       </c>
-      <c t="s" r="D71">
+      <c r="D71" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="73">
-      <c t="s" r="A73">
+    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>616</v>
       </c>
-      <c t="s" r="B73">
+      <c r="B73" t="s">
         <v>496</v>
       </c>
-      <c t="s" r="C73">
+      <c r="C73" t="s">
         <v>496</v>
       </c>
-      <c t="s" r="D73">
+      <c r="D73" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="74">
-      <c t="s" r="A74">
+    <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>616</v>
       </c>
-      <c t="s" r="B74">
+      <c r="B74" t="s">
         <v>618</v>
       </c>
-      <c t="s" r="C74">
+      <c r="C74" t="s">
         <v>618</v>
       </c>
-      <c t="s" r="D74">
+      <c r="D74" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="75">
-      <c t="s" r="A75">
+    <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>616</v>
       </c>
-      <c t="s" r="B75">
+      <c r="B75" t="s">
         <v>620</v>
       </c>
-      <c t="s" r="C75">
+      <c r="C75" t="s">
         <v>620</v>
       </c>
-      <c t="s" r="D75">
+      <c r="D75" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="77">
-      <c t="s" r="A77">
+    <row r="77" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>622</v>
       </c>
-      <c t="s" r="B77">
+      <c r="B77" t="s">
         <v>623</v>
       </c>
-      <c t="s" r="C77">
+      <c r="C77" t="s">
         <v>624</v>
       </c>
-      <c t="s" r="D77">
+      <c r="D77" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="78">
-      <c t="s" r="A78">
+    <row r="78" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>626</v>
       </c>
-      <c t="s" r="B78">
+      <c r="B78" t="s">
         <v>627</v>
       </c>
-      <c t="s" r="C78">
+      <c r="C78" t="s">
         <v>628</v>
       </c>
-      <c t="s" r="D78">
+      <c r="D78" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="80">
-      <c t="s" r="A80">
+    <row r="80" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>630</v>
       </c>
-      <c t="s" r="B80">
+      <c r="B80" t="s">
         <v>631</v>
       </c>
-      <c t="s" r="C80">
+      <c r="C80" t="s">
         <v>632</v>
       </c>
-      <c t="s" r="D80">
+      <c r="D80" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="81">
-      <c t="s" r="A81">
+    <row r="81" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>630</v>
       </c>
-      <c t="s" r="B81">
+      <c r="B81" t="s">
         <v>634</v>
       </c>
-      <c t="s" r="C81">
+      <c r="C81" t="s">
         <v>635</v>
       </c>
-      <c t="s" r="D81">
+      <c r="D81" t="s">
         <v>636</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="9.57" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" customWidth="1" width="22.14"/>
-    <col max="2" min="2" customWidth="1" width="15.71"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" customHeight="1">
-      <c t="s" s="14" r="A1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>637</v>
       </c>
-      <c t="s" s="14" r="B1">
+      <c r="B1" s="9" t="s">
         <v>638</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row ht="15.75" r="2" customHeight="1">
-      <c t="s" s="14" r="A2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>640</v>
       </c>
-      <c t="s" s="14" r="B2">
+      <c r="B2" s="9" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="14" r="A3">
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>642</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>643</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>644</v>
       </c>
-      <c t="s" r="C4">
+      <c r="C4" t="s">
         <v>644</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>